--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57087D15-3BAF-E743-94A9-6BB714FACE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF331AF0-4643-004A-A6FA-A1E969A75677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,18 +550,28 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -888,12 +898,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -931,9 +959,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -950,12 +975,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,6 +1032,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,6 +1065,10 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2124,13 +2162,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2281,38 +2319,35 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>137.47</v>
+    <v>110.98</v>
     <v>41</v>
-    <v>1.4686999999999999</v>
-    <v>-0.12</v>
-    <v>-2.091E-3</v>
-    <v>-0.05</v>
-    <v>-8.7319999999999997E-4</v>
+    <v>1.4166000000000001</v>
+    <v>-2.33</v>
+    <v>-3.7942000000000004E-2</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>101 SPEAR STREET, FIFTH FLOOR, SAN FRANCISCO, CA, 94105 US</v>
-    <v>58.16</v>
+    <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
+    <v>62.64</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.995704142966</v>
+    <v>45071.999647546094</v>
     <v>0</v>
-    <v>57</v>
-    <v>10723350000</v>
+    <v>59.01</v>
+    <v>10866678928</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>57.56</v>
-    <v>57.38</v>
-    <v>57.26</v>
-    <v>57.21</v>
-    <v>187274800</v>
+    <v>62.5</v>
+    <v>61.41</v>
+    <v>59.08</v>
+    <v>183931600</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>2288578</v>
-    <v>3162153</v>
+    <v>122</v>
+    <v>6141269</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2344,8 +2379,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2365,7 +2398,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2382,7 +2414,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2393,16 +2425,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2466,19 +2495,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2522,9 +2545,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2532,9 +2552,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2893,23 +2910,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU118"/>
+  <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N90" sqref="N90"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="11" width="15" customWidth="1"/>
-    <col min="12" max="20" width="21" customWidth="1"/>
+    <col min="2" max="12" width="15" customWidth="1"/>
+    <col min="13" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2943,23 +2960,26 @@
       <c r="K1" s="8">
         <v>2022</v>
       </c>
-      <c r="L1" s="29">
+      <c r="L1" s="28">
         <v>2023</v>
       </c>
-      <c r="M1" s="29">
+      <c r="M1" s="28">
         <v>2024</v>
       </c>
-      <c r="N1" s="29">
+      <c r="N1" s="28">
         <v>2025</v>
       </c>
-      <c r="O1" s="29">
+      <c r="O1" s="28">
         <v>2026</v>
       </c>
-      <c r="P1" s="29">
+      <c r="P1" s="28">
         <v>2027</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" ht="21" x14ac:dyDescent="0.25">
+      <c r="Q1" s="28">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2993,21 +3013,22 @@
       <c r="K2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="L2" s="9"/>
       <c r="M2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="1:42" ht="40" x14ac:dyDescent="0.25">
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:43" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3041,35 +3062,38 @@
       <c r="K3" s="1">
         <v>3826321000</v>
       </c>
-      <c r="L3" s="30">
-        <v>4305000000</v>
-      </c>
-      <c r="M3" s="30">
-        <v>4958000000</v>
-      </c>
-      <c r="N3" s="30">
-        <v>5807000000</v>
-      </c>
-      <c r="O3" s="30">
-        <v>7404000000</v>
-      </c>
-      <c r="P3" s="30">
+      <c r="L3" s="29">
+        <v>4085000000</v>
+      </c>
+      <c r="M3" s="29">
+        <v>4483000000</v>
+      </c>
+      <c r="N3" s="29">
+        <v>5420000000</v>
+      </c>
+      <c r="O3" s="29">
+        <v>6648000000</v>
+      </c>
+      <c r="P3" s="29">
         <v>8060000000</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="29">
+        <v>9000000000</v>
+      </c>
+      <c r="R3" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="S3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="T3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="U3" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>94</v>
       </c>
@@ -3087,7 +3111,7 @@
         <v>0.66149449733104082</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:P4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:Q4" si="0">(F3/E3)-1</f>
         <v>0.43876539203490372</v>
       </c>
       <c r="G4" s="15">
@@ -3112,41 +3136,44 @@
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12510163156724174</v>
+        <v>6.7605148653236302E-2</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.15168408826945412</v>
+        <f>(M3/L3)-1</f>
+        <v>9.7429620563035391E-2</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.17123840258168621</v>
+        <v>0.20901182244033012</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27501291544687456</v>
+        <v>0.22656826568265687</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>8.8600756347920084E-2</v>
-      </c>
-      <c r="Q4" s="17">
-        <f>(K4+J4+I4)/3</f>
-        <v>0.50414375227217345</v>
+        <v>0.21239470517448855</v>
+      </c>
+      <c r="Q4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11662531017369737</v>
       </c>
       <c r="R4" s="17">
-        <f>(K20+J20+I20)/3</f>
-        <v>0.61931055827513959</v>
+        <f>(K4+J4+L4)/3</f>
+        <v>0.34236098354484623</v>
       </c>
       <c r="S4" s="17">
-        <f>(K29+J29+I29)/3</f>
-        <v>0.61868502201446041</v>
+        <f>(K20+J20+L20)/3</f>
+        <v>-0.11744063490867673</v>
       </c>
       <c r="T4" s="17">
-        <f>(K105+J105+I105)/3</f>
-        <v>1.7065654336214535</v>
-      </c>
-      <c r="AH4" s="16"/>
+        <f>(K29+J29+L29)/3</f>
+        <v>1.514122510145636E-2</v>
+      </c>
+      <c r="U4" s="17">
+        <f>(K105+J105+L105)/3</f>
+        <v>0.95104138036162278</v>
+      </c>
       <c r="AI4" s="16"/>
       <c r="AJ4" s="16"/>
       <c r="AK4" s="16"/>
@@ -3155,8 +3182,9 @@
       <c r="AN4" s="16"/>
       <c r="AO4" s="16"/>
       <c r="AP4" s="16"/>
-    </row>
-    <row r="5" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+      <c r="AQ4" s="16"/>
+    </row>
+    <row r="5" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3190,8 +3218,9 @@
       <c r="K5" s="1">
         <v>2012744000</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" ht="20" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3222,23 +3251,24 @@
       <c r="J6" s="10">
         <v>1390713000</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="64">
         <v>1813577000</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="L6" s="64"/>
+      <c r="R6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="S6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="T6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="U6" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3272,24 +3302,25 @@
       <c r="K7" s="2">
         <v>0.47399999999999998</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="L7" s="2"/>
+      <c r="R7" s="17">
         <f>K7</f>
         <v>0.47399999999999998</v>
       </c>
-      <c r="R7" s="20">
-        <f>K21</f>
-        <v>-0.24340000000000001</v>
-      </c>
       <c r="S7" s="20">
+        <f>L21</f>
+        <v>0.15008567931456548</v>
+      </c>
+      <c r="T7" s="20">
         <f>K30</f>
         <v>-0.32829999999999998</v>
       </c>
-      <c r="T7" s="20">
-        <f>K106/K3</f>
-        <v>-7.8438008729534187E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+      <c r="U7" s="20">
+        <f>L106/L3</f>
+        <v>0.12998776009791921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3323,8 +3354,9 @@
       <c r="K8" s="1">
         <v>1079081000</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>95</v>
       </c>
@@ -3372,25 +3404,26 @@
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
-      <c r="Q9" s="18" t="s">
+      <c r="P9" s="15"/>
+      <c r="R9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="S9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="T9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="U9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
-    </row>
-    <row r="10" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+      <c r="AM9" s="15"/>
+    </row>
+    <row r="10" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -3424,24 +3457,25 @@
       <c r="K10" s="1">
         <v>517414000</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="L10" s="1"/>
+      <c r="R10" s="17">
         <f>K9</f>
         <v>0.28201528308785384</v>
       </c>
-      <c r="R10" s="20">
+      <c r="S10" s="20">
         <f>K13</f>
         <v>0.46139516261181435</v>
       </c>
-      <c r="S10" s="20">
+      <c r="T10" s="20">
         <f>K80</f>
         <v>0.20870177907185519</v>
       </c>
-      <c r="T10" s="20">
+      <c r="U10" s="20">
         <f>K89</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -3475,8 +3509,9 @@
       <c r="K11" s="1">
         <v>1248032000</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" ht="20" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3510,20 +3545,21 @@
       <c r="K12" s="1">
         <v>1765446000</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="L12" s="1"/>
+      <c r="R12" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="S12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="T12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="T12" s="19" t="s">
+      <c r="U12" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>100</v>
       </c>
@@ -3571,29 +3607,30 @@
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
-      <c r="Q13" s="17">
+      <c r="P13" s="15"/>
+      <c r="R13" s="17">
         <f>K28/K72</f>
         <v>-0.11896391737053419</v>
       </c>
-      <c r="R13" s="20">
+      <c r="S13" s="20">
         <f>K28/K54</f>
         <v>-9.997728485397997E-2</v>
       </c>
-      <c r="S13" s="20">
+      <c r="T13" s="20">
         <f>K22/(K72+K56+K61)</f>
         <v>-0.10226185291681907</v>
       </c>
-      <c r="T13" s="21">
+      <c r="U13" s="62">
         <f>K67/K72</f>
         <v>0.18990946337745412</v>
       </c>
-      <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
       <c r="AK13" s="15"/>
       <c r="AL13" s="15"/>
-    </row>
-    <row r="14" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+      <c r="AM13" s="15"/>
+    </row>
+    <row r="14" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -3627,8 +3664,9 @@
       <c r="K14" s="1">
         <v>174358000</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" ht="20" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3662,20 +3700,21 @@
       <c r="K15" s="1">
         <v>3018885000</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="L15" s="1"/>
+      <c r="R15" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="R15" s="19" t="s">
+      <c r="S15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="S15" s="19" t="s">
+      <c r="T15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="T15" s="19" t="s">
+      <c r="U15" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3709,24 +3748,25 @@
       <c r="K16" s="1">
         <v>5031629000</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="L16" s="1"/>
+      <c r="R16" s="30">
         <f>(K35+J35+I35+H35+G35)/5</f>
         <v>0.15582766145973298</v>
       </c>
-      <c r="R16" s="32">
-        <f>S101/K3</f>
-        <v>2.8025223184359076</v>
-      </c>
-      <c r="S16" s="32">
-        <f>S101/K28</f>
-        <v>-8.5367135163536059</v>
-      </c>
-      <c r="T16" s="33">
-        <f>S101/K106</f>
-        <v>-35.729136471317332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="S16" s="60">
+        <f>T101/L3</f>
+        <v>2.6601417204406363</v>
+      </c>
+      <c r="T16" s="60">
+        <f>T101/K28</f>
+        <v>-8.6508157322602095</v>
+      </c>
+      <c r="U16" s="61">
+        <f>T101/L106</f>
+        <v>20.464555419962334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3760,8 +3800,9 @@
       <c r="K17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3795,11 +3836,21 @@
       <c r="K18" s="1">
         <v>312292000</v>
       </c>
-      <c r="Q18" s="18" t="s">
+      <c r="L18" s="1"/>
+      <c r="R18" s="18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="S18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3833,12 +3884,42 @@
       <c r="K19" s="10">
         <v>-931340000</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="L19" s="58">
+        <v>613100000</v>
+      </c>
+      <c r="M19" s="58">
+        <v>712000000</v>
+      </c>
+      <c r="N19" s="58">
+        <v>974700000</v>
+      </c>
+      <c r="O19" s="58">
+        <v>884800000</v>
+      </c>
+      <c r="P19" s="58">
+        <v>1210000000</v>
+      </c>
+      <c r="Q19" s="58">
+        <v>1500000000</v>
+      </c>
+      <c r="R19" s="31">
         <f>K40-K56-K61</f>
         <v>2927624000</v>
       </c>
-    </row>
-    <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="60">
+        <f>T101/M3</f>
+        <v>2.423974777604283</v>
+      </c>
+      <c r="T19" s="63">
+        <f>T101/L28</f>
+        <v>40.867540157954117</v>
+      </c>
+      <c r="U19" s="61">
+        <f>T101/M106</f>
+        <v>17.455178823179672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -3856,7 +3937,7 @@
         <v>4.9011426370522582E-2</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:K20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:L20" si="3">(F19/E19)-1</f>
         <v>0.35357831288437414</v>
       </c>
       <c r="G20" s="15">
@@ -3879,24 +3960,43 @@
         <f t="shared" si="3"/>
         <v>0.32565464998270599</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="L20" s="16">
+        <f t="shared" si="3"/>
+        <v>-1.6582987952842141</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" ref="M20" si="4">(M19/L19)-1</f>
+        <v>0.16131136845539062</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20" si="5">(N19/M19)-1</f>
+        <v>0.36896067415730327</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" ref="O20" si="6">(O19/N19)-1</f>
+        <v>-9.2233507745973164E-2</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" ref="P20" si="7">(P19/O19)-1</f>
+        <v>0.36754068716094035</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" ref="Q20" si="8">(Q19/P19)-1</f>
+        <v>0.2396694214876034</v>
+      </c>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
-      <c r="AH20" s="15"/>
+      <c r="U20" s="15"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
       <c r="AK20" s="15"/>
       <c r="AL20" s="15"/>
-      <c r="AT20" s="15"/>
+      <c r="AM20" s="15"/>
       <c r="AU20" s="15"/>
-    </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="AV20" s="15"/>
+    </row>
+    <row r="21" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3930,8 +4030,32 @@
       <c r="K21" s="2">
         <v>-0.24340000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="L21" s="73">
+        <f>L19/L3</f>
+        <v>0.15008567931456548</v>
+      </c>
+      <c r="M21" s="74">
+        <f t="shared" ref="M21:Q21" si="9">M19/M3</f>
+        <v>0.15882221726522419</v>
+      </c>
+      <c r="N21" s="74">
+        <f t="shared" si="9"/>
+        <v>0.17983394833948341</v>
+      </c>
+      <c r="O21" s="74">
+        <f t="shared" si="9"/>
+        <v>0.13309265944645007</v>
+      </c>
+      <c r="P21" s="74">
+        <f t="shared" si="9"/>
+        <v>0.15012406947890819</v>
+      </c>
+      <c r="Q21" s="74">
+        <f t="shared" si="9"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3965,8 +4089,9 @@
       <c r="K22" s="10">
         <v>-1205308000</v>
       </c>
-    </row>
-    <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4000,8 +4125,9 @@
       <c r="K23" s="2">
         <v>-0.315</v>
       </c>
-    </row>
-    <row r="24" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4035,8 +4161,9 @@
       <c r="K24" s="1">
         <v>-38324000</v>
       </c>
-    </row>
-    <row r="25" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4070,8 +4197,9 @@
       <c r="K25" s="10">
         <v>-1243632000</v>
       </c>
-    </row>
-    <row r="26" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="L25" s="59"/>
+    </row>
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4105,8 +4233,9 @@
       <c r="K26" s="2">
         <v>-0.32500000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4140,8 +4269,9 @@
       <c r="K27" s="1">
         <v>12513000</v>
       </c>
-    </row>
-    <row r="28" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4175,8 +4305,26 @@
       <c r="K28" s="11">
         <v>-1256145000</v>
       </c>
-    </row>
-    <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="72">
+        <v>265900000</v>
+      </c>
+      <c r="M28" s="72">
+        <v>344800000</v>
+      </c>
+      <c r="N28" s="72">
+        <v>520800000</v>
+      </c>
+      <c r="O28" s="72">
+        <v>818400000</v>
+      </c>
+      <c r="P28" s="72">
+        <v>726000000</v>
+      </c>
+      <c r="Q28" s="72">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -4194,47 +4342,66 @@
         <v>0.16392519152771512</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:K29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:K29" si="10">(F28/E28)-1</f>
         <v>0.5416706998354468</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.91418660136874497</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.5179624269161698</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.59895200659148129</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.9347059650209073</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.32239709443099263</v>
       </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="L29" s="16">
+        <f t="shared" ref="L29" si="11">(L28/K28)-1</f>
+        <v>-1.2116793841475308</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" ref="M29" si="12">(M28/L28)-1</f>
+        <v>0.29672809326814598</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" ref="N29" si="13">(N28/M28)-1</f>
+        <v>0.51044083526682127</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" ref="O29" si="14">(O28/N28)-1</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" ref="P29" si="15">(P28/O28)-1</f>
+        <v>-0.11290322580645162</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" ref="Q29" si="16">(Q28/P28)-1</f>
+        <v>0.37741046831955916</v>
+      </c>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
-      <c r="AH29" s="15"/>
+      <c r="U29" s="15"/>
       <c r="AI29" s="15"/>
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
       <c r="AL29" s="15"/>
-      <c r="AT29" s="15"/>
+      <c r="AM29" s="15"/>
       <c r="AU29" s="15"/>
-    </row>
-    <row r="30" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="AV29" s="15"/>
+    </row>
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4268,8 +4435,32 @@
       <c r="K30" s="2">
         <v>-0.32829999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="L30" s="73">
+        <f>L28/L3</f>
+        <v>6.5091799265605876E-2</v>
+      </c>
+      <c r="M30" s="73">
+        <f>M28/M3</f>
+        <v>7.6912781619451254E-2</v>
+      </c>
+      <c r="N30" s="73">
+        <f t="shared" ref="N30:Q30" si="17">N28/N3</f>
+        <v>9.6088560885608854E-2</v>
+      </c>
+      <c r="O30" s="73">
+        <f t="shared" si="17"/>
+        <v>0.12310469314079422</v>
+      </c>
+      <c r="P30" s="73">
+        <f t="shared" si="17"/>
+        <v>9.0074441687344908E-2</v>
+      </c>
+      <c r="Q30" s="73">
+        <f t="shared" si="17"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4303,8 +4494,9 @@
       <c r="K31" s="12">
         <v>-6.86</v>
       </c>
-    </row>
-    <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4338,8 +4530,9 @@
       <c r="K32" s="12">
         <v>-6.86</v>
       </c>
-    </row>
-    <row r="33" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -4373,8 +4566,9 @@
       <c r="K33" s="1">
         <v>182994038</v>
       </c>
-    </row>
-    <row r="34" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -4408,64 +4602,66 @@
       <c r="K34" s="1">
         <v>182994038</v>
       </c>
-    </row>
-    <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <f>(C34-B34)/B34</f>
         <v>0.21201055076704345</v>
       </c>
-      <c r="D35" s="22">
-        <f t="shared" ref="D35:K35" si="5">(D34-C34)/C34</f>
+      <c r="D35" s="21">
+        <f t="shared" ref="D35:K35" si="18">(D34-C34)/C34</f>
         <v>3.6577580904915918E-3</v>
       </c>
-      <c r="E35" s="22">
-        <f t="shared" si="5"/>
+      <c r="E35" s="21">
+        <f t="shared" si="18"/>
         <v>-0.26487164543303993</v>
       </c>
-      <c r="F35" s="22">
-        <f t="shared" si="5"/>
+      <c r="F35" s="21">
+        <f t="shared" si="18"/>
         <v>0.71743820561057337</v>
       </c>
-      <c r="G35" s="22">
-        <f t="shared" si="5"/>
+      <c r="G35" s="21">
+        <f t="shared" si="18"/>
         <v>6.4738366041960593E-2</v>
       </c>
-      <c r="H35" s="22">
-        <f t="shared" si="5"/>
+      <c r="H35" s="21">
+        <f t="shared" si="18"/>
         <v>0.33926276114407466</v>
       </c>
-      <c r="I35" s="22">
-        <f t="shared" si="5"/>
+      <c r="I35" s="21">
+        <f t="shared" si="18"/>
         <v>0.12780771600320615</v>
       </c>
-      <c r="J35" s="22">
-        <f t="shared" si="5"/>
+      <c r="J35" s="21">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K35" s="22">
-        <f t="shared" si="5"/>
+      <c r="K35" s="21">
+        <f t="shared" si="18"/>
         <v>0.24732946410942344</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22"/>
-      <c r="AL35" s="22"/>
-    </row>
-    <row r="36" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+      <c r="AK35" s="21"/>
+      <c r="AL35" s="21"/>
+      <c r="AM35" s="21"/>
+    </row>
+    <row r="36" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4499,8 +4695,9 @@
       <c r="K36" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -4534,8 +4731,11 @@
       <c r="K37" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L37" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4569,8 +4769,9 @@
       <c r="K38" s="1">
         <v>651752000</v>
       </c>
-    </row>
-    <row r="39" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4604,8 +4805,9 @@
       <c r="K39" s="1">
         <v>3503317000</v>
       </c>
-    </row>
-    <row r="40" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4639,8 +4841,9 @@
       <c r="K40" s="1">
         <v>4155069000</v>
       </c>
-    </row>
-    <row r="41" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4674,8 +4877,9 @@
       <c r="K41" s="1">
         <v>547507000</v>
       </c>
-    </row>
-    <row r="42" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4709,8 +4913,9 @@
       <c r="K42" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4744,8 +4949,9 @@
       <c r="K43" s="1">
         <v>281510000</v>
       </c>
-    </row>
-    <row r="44" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4779,8 +4985,9 @@
       <c r="K44" s="10">
         <v>4984086000</v>
       </c>
-    </row>
-    <row r="45" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4814,8 +5021,9 @@
       <c r="K45" s="1">
         <v>385320000</v>
       </c>
-    </row>
-    <row r="46" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4849,8 +5057,9 @@
       <c r="K46" s="1">
         <v>5284153000</v>
       </c>
-    </row>
-    <row r="47" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4884,8 +5093,9 @@
       <c r="K47" s="1">
         <v>849935000</v>
       </c>
-    </row>
-    <row r="48" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -4919,8 +5129,9 @@
       <c r="K48" s="1">
         <v>6134088000</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>41</v>
       </c>
@@ -4954,8 +5165,9 @@
       <c r="K49" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>42</v>
       </c>
@@ -4989,8 +5201,9 @@
       <c r="K50" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
@@ -5024,8 +5237,9 @@
       <c r="K51" s="1">
         <v>1060810000</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
@@ -5059,8 +5273,9 @@
       <c r="K52" s="1">
         <v>7580218000</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
@@ -5094,8 +5309,9 @@
       <c r="K53" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>46</v>
       </c>
@@ -5129,8 +5345,9 @@
       <c r="K54" s="11">
         <v>12564304000</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>47</v>
       </c>
@@ -5164,8 +5381,9 @@
       <c r="K55" s="1">
         <v>124605000</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>48</v>
       </c>
@@ -5199,8 +5417,9 @@
       <c r="K56" s="1">
         <v>54222000</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>49</v>
       </c>
@@ -5234,8 +5453,9 @@
       <c r="K57" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>50</v>
       </c>
@@ -5269,8 +5489,9 @@
       <c r="K58" s="1">
         <v>139110000</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>51</v>
       </c>
@@ -5304,8 +5525,9 @@
       <c r="K59" s="1">
         <v>490221000</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
@@ -5339,8 +5561,9 @@
       <c r="K60" s="10">
         <v>808158000</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -5374,8 +5597,9 @@
       <c r="K61" s="1">
         <v>1173223000</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
@@ -5409,8 +5633,9 @@
       <c r="K62" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
@@ -5444,8 +5669,9 @@
       <c r="K63" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
@@ -5479,8 +5705,9 @@
       <c r="K64" s="1">
         <v>23881000</v>
       </c>
-    </row>
-    <row r="65" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
@@ -5514,8 +5741,9 @@
       <c r="K65" s="1">
         <v>1197104000</v>
       </c>
-    </row>
-    <row r="66" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>57</v>
       </c>
@@ -5549,8 +5777,11 @@
       <c r="K66" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L66" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>58</v>
       </c>
@@ -5584,8 +5815,9 @@
       <c r="K67" s="10">
         <v>2005262000</v>
       </c>
-    </row>
-    <row r="68" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L67" s="10"/>
+    </row>
+    <row r="68" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>59</v>
       </c>
@@ -5619,8 +5851,9 @@
       <c r="K68" s="1">
         <v>186000</v>
       </c>
-    </row>
-    <row r="69" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>60</v>
       </c>
@@ -5654,8 +5887,9 @@
       <c r="K69" s="1">
         <v>-3375836000</v>
       </c>
-    </row>
-    <row r="70" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>61</v>
       </c>
@@ -5689,8 +5923,9 @@
       <c r="K70" s="1">
         <v>-121161000</v>
       </c>
-    </row>
-    <row r="71" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>62</v>
       </c>
@@ -5724,8 +5959,9 @@
       <c r="K71" s="1">
         <v>14055853000</v>
       </c>
-    </row>
-    <row r="72" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>63</v>
       </c>
@@ -5759,8 +5995,9 @@
       <c r="K72" s="10">
         <v>10559042000</v>
       </c>
-    </row>
-    <row r="73" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="10"/>
+    </row>
+    <row r="73" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>64</v>
       </c>
@@ -5794,8 +6031,9 @@
       <c r="K73" s="11">
         <v>12564304000</v>
       </c>
-    </row>
-    <row r="74" spans="1:38" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:39" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>28</v>
       </c>
@@ -5829,8 +6067,9 @@
       <c r="K74" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+      <c r="L74" s="13"/>
+    </row>
+    <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>65</v>
       </c>
@@ -5864,8 +6103,11 @@
       <c r="K75" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L75" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>66</v>
       </c>
@@ -5899,8 +6141,9 @@
       <c r="K76" s="1">
         <v>-1256145000</v>
       </c>
-    </row>
-    <row r="77" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>13</v>
       </c>
@@ -5934,8 +6177,9 @@
       <c r="K77" s="1">
         <v>312292000</v>
       </c>
-    </row>
-    <row r="78" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>67</v>
       </c>
@@ -5969,8 +6213,9 @@
       <c r="K78" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="79" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>68</v>
       </c>
@@ -6004,49 +6249,50 @@
       <c r="K79" s="1">
         <v>798560000</v>
       </c>
-    </row>
-    <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:K80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:K80" si="19">B79/B3</f>
         <v>4.3209134615384615E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>4.4774103504941133E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>5.3181483234383146E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>8.7349234680080046E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.1243521627988572</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.14348213338009774</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.23298850209966257</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.20487053972809255</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.22249149230480686</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0.20870177907185519</v>
       </c>
       <c r="L80" s="15"/>
@@ -6058,13 +6304,14 @@
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
       <c r="T80" s="15"/>
-      <c r="AH80" s="15"/>
+      <c r="U80" s="15"/>
       <c r="AI80" s="15"/>
       <c r="AJ80" s="15"/>
       <c r="AK80" s="15"/>
       <c r="AL80" s="15"/>
-    </row>
-    <row r="81" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="AM80" s="15"/>
+    </row>
+    <row r="81" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -6098,8 +6345,9 @@
       <c r="K81" s="1">
         <v>-109075000</v>
       </c>
-    </row>
-    <row r="82" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -6133,8 +6381,9 @@
       <c r="K82" s="1">
         <v>-194655000</v>
       </c>
-    </row>
-    <row r="83" spans="1:46" ht="21" x14ac:dyDescent="0.25">
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:47" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -6168,12 +6417,13 @@
       <c r="K83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R83" s="63" t="s">
+      <c r="L83" s="1"/>
+      <c r="S83" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="S83" s="64"/>
-    </row>
-    <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="T83" s="68"/>
+    </row>
+    <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -6207,12 +6457,13 @@
       <c r="K84" s="1">
         <v>30336000</v>
       </c>
-      <c r="R84" s="65" t="s">
+      <c r="L84" s="1"/>
+      <c r="S84" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="S84" s="66"/>
-    </row>
-    <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="T84" s="70"/>
+    </row>
+    <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -6246,15 +6497,16 @@
       <c r="K85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R85" s="23" t="s">
+      <c r="L85" s="1"/>
+      <c r="S85" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="S85" s="24">
+      <c r="T85" s="23">
         <f>K17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -6288,15 +6540,16 @@
       <c r="K86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R86" s="23" t="s">
+      <c r="L86" s="1"/>
+      <c r="S86" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="S86" s="24">
+      <c r="T86" s="23">
         <f>K56</f>
         <v>54222000</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
@@ -6330,15 +6583,16 @@
       <c r="K87" s="10">
         <v>-254368000</v>
       </c>
-      <c r="R87" s="23" t="s">
+      <c r="L87" s="10"/>
+      <c r="S87" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="S87" s="24">
+      <c r="T87" s="23">
         <f>K61</f>
         <v>1173223000</v>
       </c>
     </row>
-    <row r="88" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -6372,80 +6626,82 @@
       <c r="K88" s="1">
         <v>0</v>
       </c>
-      <c r="R88" s="35" t="s">
+      <c r="L88" s="1"/>
+      <c r="S88" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="S88" s="36">
-        <f>S85/(S86+S87)</f>
+      <c r="T88" s="33">
+        <f>T85/(T86+T87)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:K89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:K89" si="20">(-1*B88)/B3</f>
         <v>6.915064102564103E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.8190576953380008E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>6.3611691898465716E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.5501829916887521E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>6.7209663676006212E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.7926859846754257E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.9314145484932142E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.4647151510748245E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.6203592110601621E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R89" s="23" t="s">
+      <c r="L89" s="15"/>
+      <c r="S89" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="S89" s="24">
+      <c r="T89" s="23">
         <f>K27</f>
         <v>12513000</v>
       </c>
-      <c r="T89" s="15"/>
-      <c r="AH89" s="15"/>
+      <c r="U89" s="15"/>
       <c r="AI89" s="15"/>
       <c r="AJ89" s="15"/>
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
-      <c r="AS89" s="25" t="s">
+      <c r="AM89" s="15"/>
+      <c r="AT89" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="AT89" s="26">
-        <f>AL27</f>
+      <c r="AU89" s="25">
+        <f>AM27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
@@ -6479,15 +6735,16 @@
       <c r="K90" s="1">
         <v>-37410000</v>
       </c>
-      <c r="R90" s="23" t="s">
+      <c r="L90" s="1"/>
+      <c r="S90" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="S90" s="24">
+      <c r="T90" s="23">
         <f>K25</f>
         <v>-1243632000</v>
       </c>
     </row>
-    <row r="91" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
@@ -6521,15 +6778,16 @@
       <c r="K91" s="1">
         <v>-1938337000</v>
       </c>
-      <c r="R91" s="35" t="s">
+      <c r="L91" s="1"/>
+      <c r="S91" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="S91" s="36">
-        <f>S89/S90</f>
+      <c r="T91" s="33">
+        <f>T89/T90</f>
         <v>-1.0061658111081092E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -6563,15 +6821,16 @@
       <c r="K92" s="1">
         <v>1439477000</v>
       </c>
-      <c r="R92" s="37" t="s">
+      <c r="L92" s="1"/>
+      <c r="S92" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="S92" s="38">
-        <f>S88*(1-S91)</f>
+      <c r="T92" s="35">
+        <f>T88*(1-T91)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -6605,12 +6864,13 @@
       <c r="K93" s="1">
         <v>-80182000</v>
       </c>
-      <c r="R93" s="65" t="s">
+      <c r="L93" s="1"/>
+      <c r="S93" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="S93" s="66"/>
-    </row>
-    <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="T93" s="70"/>
+    </row>
+    <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -6644,14 +6904,15 @@
       <c r="K94" s="10">
         <v>-616452000</v>
       </c>
-      <c r="R94" s="23" t="s">
+      <c r="L94" s="10"/>
+      <c r="S94" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="S94" s="39">
+      <c r="T94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -6685,15 +6946,16 @@
       <c r="K95" s="1">
         <v>-13423000</v>
       </c>
-      <c r="R95" s="23" t="s">
+      <c r="L95" s="1"/>
+      <c r="S95" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="S95" s="40" cm="1">
-        <f t="array" ref="S95">_FV(A1,"Beta")</f>
-        <v>1.4686999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="T95" s="37" cm="1">
+        <f t="array" ref="T95">_FV(A1,"Beta")</f>
+        <v>1.4166000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
@@ -6727,14 +6989,15 @@
       <c r="K96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R96" s="23" t="s">
+      <c r="L96" s="1"/>
+      <c r="S96" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="S96" s="39">
+      <c r="T96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -6768,15 +7031,16 @@
       <c r="K97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R97" s="37" t="s">
+      <c r="L97" s="1"/>
+      <c r="S97" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="S97" s="38">
-        <f>(S94)+((S95)*(S96-S94))</f>
-        <v>0.104177535</v>
-      </c>
-    </row>
-    <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="T97" s="35">
+        <f>(T94)+((T95)*(T96-T94))</f>
+        <v>0.10193463000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -6810,12 +7074,13 @@
       <c r="K98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R98" s="65" t="s">
+      <c r="L98" s="1"/>
+      <c r="S98" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="S98" s="66"/>
-    </row>
-    <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="T98" s="70"/>
+    </row>
+    <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -6849,15 +7114,16 @@
       <c r="K99" s="1">
         <v>58430000</v>
       </c>
-      <c r="R99" s="23" t="s">
+      <c r="L99" s="1"/>
+      <c r="S99" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="S99" s="24">
-        <f>S86+S87</f>
+      <c r="T99" s="23">
+        <f>T86+T87</f>
         <v>1227445000</v>
       </c>
     </row>
-    <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -6891,15 +7157,16 @@
       <c r="K100" s="10">
         <v>45007000</v>
       </c>
-      <c r="R100" s="35" t="s">
+      <c r="L100" s="10"/>
+      <c r="S100" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="S100" s="36">
-        <f>S99/S103</f>
-        <v>0.10270822987089981</v>
-      </c>
-    </row>
-    <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="T100" s="33">
+        <f>T99/T103</f>
+        <v>0.10149102219452634</v>
+      </c>
+    </row>
+    <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -6933,15 +7200,16 @@
       <c r="K101" s="1">
         <v>60000</v>
       </c>
-      <c r="R101" s="23" t="s">
+      <c r="L101" s="1"/>
+      <c r="S101" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="S101" s="41" cm="1">
-        <f t="array" ref="S101">_FV(A1,"Market cap",TRUE)</f>
-        <v>10723350000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="T101" s="38" cm="1">
+        <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
+        <v>10866678928</v>
+      </c>
+    </row>
+    <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -6975,15 +7243,16 @@
       <c r="K102" s="10">
         <v>-825753000</v>
       </c>
-      <c r="R102" s="35" t="s">
+      <c r="L102" s="10"/>
+      <c r="S102" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="S102" s="36">
-        <f>S101/S103</f>
-        <v>0.89729177012910022</v>
-      </c>
-    </row>
-    <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="T102" s="33">
+        <f>T101/T103</f>
+        <v>0.89850897780547367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -7017,15 +7286,16 @@
       <c r="K103" s="1">
         <v>1481831000</v>
       </c>
-      <c r="R103" s="37" t="s">
+      <c r="L103" s="1"/>
+      <c r="S103" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="S103" s="42">
-        <f>S99+S101</f>
-        <v>11950795000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T103" s="39">
+        <f>T99+T101</f>
+        <v>12094123928</v>
+      </c>
+    </row>
+    <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -7059,12 +7329,13 @@
       <c r="K104" s="11">
         <v>656078000</v>
       </c>
-      <c r="R104" s="65" t="s">
+      <c r="L104" s="11"/>
+      <c r="S104" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="S104" s="66"/>
-    </row>
-    <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="T104" s="70"/>
+    </row>
+    <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>107</v>
       </c>
@@ -7090,36 +7361,39 @@
         <v>-0.44570782631823924</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:K105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:L105" si="21">(H106/G106)-1</f>
         <v>2.1934980806142033</v>
       </c>
       <c r="I105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>-0.50266706735284172</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>4.5973790551002685</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>1.0249843131169332</v>
       </c>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="27" t="s">
+      <c r="L105" s="15">
+        <f t="shared" si="21"/>
+        <v>-2.7692392271323332</v>
+      </c>
+      <c r="M105" s="71"/>
+      <c r="N105" s="71"/>
+      <c r="O105" s="71"/>
+      <c r="P105" s="71"/>
+      <c r="Q105" s="71"/>
+      <c r="R105" s="15"/>
+      <c r="S105" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="S105" s="28">
-        <f>(S100*S92)+(S102*S97)</f>
-        <v>9.3477644787836295E-2</v>
-      </c>
-      <c r="T105" s="15"/>
-      <c r="AH105" s="15"/>
+      <c r="T105" s="27">
+        <f>(T100*T92)+(T102*T97)</f>
+        <v>9.1589180204279183E-2</v>
+      </c>
+      <c r="U105" s="15"/>
       <c r="AI105" s="15"/>
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
@@ -7130,15 +7404,16 @@
       <c r="AP105" s="15"/>
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
-      <c r="AS105" s="27" t="s">
+      <c r="AS105" s="15"/>
+      <c r="AT105" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AT105" s="28">
-        <f>(AT100*AT92)+(AT102*AT97)</f>
+      <c r="AU105" s="27">
+        <f>(AU100*AU92)+(AU102*AU97)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>90</v>
       </c>
@@ -7172,38 +7447,41 @@
       <c r="K106" s="1">
         <v>-300129000</v>
       </c>
-      <c r="L106" s="43">
-        <f>K106*(1+$S$106)</f>
-        <v>-348848207.90788132</v>
-      </c>
-      <c r="M106" s="43">
-        <f t="shared" ref="M106:P106" si="9">L106*(1+$S$106)</f>
-        <v>-405475885.90419585</v>
-      </c>
-      <c r="N106" s="43">
-        <f t="shared" si="9"/>
-        <v>-471295796.63257891</v>
-      </c>
-      <c r="O106" s="43">
-        <f t="shared" si="9"/>
-        <v>-547800092.79274058</v>
-      </c>
-      <c r="P106" s="43">
-        <f t="shared" si="9"/>
-        <v>-636723144.58955526</v>
-      </c>
-      <c r="Q106" s="44" t="s">
+      <c r="L106" s="29">
+        <v>531000000</v>
+      </c>
+      <c r="M106" s="40">
+        <f>L106*(1+$T$106)</f>
+        <v>622547556.69243288</v>
+      </c>
+      <c r="N106" s="40">
+        <f t="shared" ref="N106:Q106" si="22">M106*(1+$T$106)</f>
+        <v>729878456.39118254</v>
+      </c>
+      <c r="O106" s="40">
+        <f t="shared" si="22"/>
+        <v>855713841.25946343</v>
+      </c>
+      <c r="P106" s="40">
+        <f t="shared" si="22"/>
+        <v>1003243994.5460929</v>
+      </c>
+      <c r="Q106" s="40">
+        <f t="shared" si="22"/>
+        <v>1176209223.2976019</v>
+      </c>
+      <c r="R106" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="R106" s="45" t="s">
+      <c r="S106" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="S106" s="46">
-        <f>(SUM(L4:P4)/5)</f>
-        <v>0.16232755884263533</v>
-      </c>
-    </row>
-    <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="T106" s="43">
+        <f>(SUM(M4:Q4)/5)</f>
+        <v>0.17240594480684165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -7215,151 +7493,152 @@
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
-      <c r="L107" s="44"/>
-      <c r="M107" s="44"/>
-      <c r="N107" s="44"/>
-      <c r="O107" s="44"/>
-      <c r="P107" s="47">
-        <f>P106*(1+S107)/(S108-S107)</f>
-        <v>-9530719481.1732616</v>
-      </c>
-      <c r="Q107" s="48" t="s">
+      <c r="L107" s="13"/>
+      <c r="M107" s="41"/>
+      <c r="N107" s="41"/>
+      <c r="O107" s="41"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="44">
+        <f>Q106*(1+T107)/(T108-T107)</f>
+        <v>18105260496.998375</v>
+      </c>
+      <c r="R107" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="R107" s="49" t="s">
+      <c r="S107" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="S107" s="50">
+      <c r="T107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="L108" s="47">
-        <f t="shared" ref="L108:N108" si="10">L107+L106</f>
-        <v>-348848207.90788132</v>
-      </c>
-      <c r="M108" s="47">
-        <f t="shared" si="10"/>
-        <v>-405475885.90419585</v>
-      </c>
-      <c r="N108" s="47">
-        <f t="shared" si="10"/>
-        <v>-471295796.63257891</v>
-      </c>
-      <c r="O108" s="47">
-        <f>O107+O106</f>
-        <v>-547800092.79274058</v>
-      </c>
-      <c r="P108" s="47">
+    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="M108" s="44">
+        <f t="shared" ref="M108:O108" si="23">M107+M106</f>
+        <v>622547556.69243288</v>
+      </c>
+      <c r="N108" s="44">
+        <f t="shared" si="23"/>
+        <v>729878456.39118254</v>
+      </c>
+      <c r="O108" s="44">
+        <f t="shared" si="23"/>
+        <v>855713841.25946343</v>
+      </c>
+      <c r="P108" s="44">
         <f>P107+P106</f>
-        <v>-10167442625.762817</v>
-      </c>
-      <c r="Q108" s="48" t="s">
+        <v>1003243994.5460929</v>
+      </c>
+      <c r="Q108" s="44">
+        <f>Q107+Q106</f>
+        <v>19281469720.295979</v>
+      </c>
+      <c r="R108" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="R108" s="51" t="s">
+      <c r="S108" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="S108" s="52">
-        <f>S105</f>
-        <v>9.3477644787836295E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="L109" s="61" t="s">
+      <c r="T108" s="49">
+        <f>T105</f>
+        <v>9.1589180204279183E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="M109" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="M109" s="62"/>
-    </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="L110" s="53" t="s">
+      <c r="N109" s="66"/>
+    </row>
+    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="M110" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="M110" s="41">
-        <f>NPV(S108,L108,M108,N108,O108,P108)</f>
-        <v>-7905492883.9670486</v>
-      </c>
-    </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="L111" s="53" t="s">
+      <c r="N110" s="38">
+        <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
+        <v>14988006917.9203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="M111" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="M111" s="41">
+      <c r="N111" s="38">
         <f>K40</f>
         <v>4155069000</v>
       </c>
     </row>
-    <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="L112" s="53" t="s">
+    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="M112" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="M112" s="41">
-        <f>S99</f>
+      <c r="N112" s="38">
+        <f>T99</f>
         <v>1227445000</v>
       </c>
     </row>
-    <row r="113" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L113" s="53" t="s">
+    <row r="113" spans="13:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="M113" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="M113" s="41">
-        <f>M110+M111-M112</f>
-        <v>-4977868883.9670486</v>
-      </c>
-    </row>
-    <row r="114" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L114" s="53" t="s">
+      <c r="N113" s="38">
+        <f>N110+N111-N112</f>
+        <v>17915630917.9203</v>
+      </c>
+    </row>
+    <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="M114" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="M114" s="54">
-        <f>K34*(1+(5*Q16))</f>
+      <c r="N114" s="51">
+        <f>K34*(1+(5*R16))</f>
         <v>325571703.01306754</v>
       </c>
     </row>
-    <row r="115" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L115" s="55" t="s">
+    <row r="115" spans="13:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="M115" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="M115" s="60">
-        <f>M113/M114</f>
-        <v>-15.28962387670175</v>
-      </c>
-    </row>
-    <row r="116" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L116" s="53" t="s">
+      <c r="N115" s="57">
+        <f>N113/N114</f>
+        <v>55.028218828960135</v>
+      </c>
+    </row>
+    <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="M116" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="M116" s="56" cm="1">
-        <f t="array" ref="M116">_FV(A1,"Price")</f>
-        <v>57.26</v>
-      </c>
-    </row>
-    <row r="117" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L117" s="57" t="s">
+      <c r="N116" s="53" cm="1">
+        <f t="array" ref="N116">_FV(A1,"Price")</f>
+        <v>59.08</v>
+      </c>
+    </row>
+    <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="M117" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="M117" s="58">
-        <f>M115/M116-1</f>
-        <v>-1.2670210247415605</v>
-      </c>
-    </row>
-    <row r="118" spans="12:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="L118" s="57" t="s">
+      <c r="N117" s="55">
+        <f>N115/N116-1</f>
+        <v>-6.8581265589706564E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="M118" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="M118" s="59" t="str">
-        <f>IF(M115&gt;M116,"BUY","SELL")</f>
+      <c r="N118" s="56" t="str">
+        <f>IF(N115&gt;N116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L109:M109"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="R98:S98"/>
-    <mergeCell ref="R104:S104"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="S104:T104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/TWLO" display="ROIC.AI | TWLO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7383,9 +7662,10 @@
     <hyperlink ref="J74" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1447669/000144766922000049/0001447669-22-000049-index.htm" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="K36" r:id="rId20" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="K74" r:id="rId21" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L1" r:id="rId22" display="https://finbox.com/NYSE:TWLO/explorer/revenue_proj" xr:uid="{FB5D01A9-44EE-A749-92DC-4C0B4882A940}"/>
+    <hyperlink ref="M1" r:id="rId22" display="https://finbox.com/NYSE:TWLO/explorer/revenue_proj" xr:uid="{FB5D01A9-44EE-A749-92DC-4C0B4882A940}"/>
+    <hyperlink ref="L1" r:id="rId23" display="https://finbox.com/NYSE:TWLO/models/dcf-revenue-exit-5yr/" xr:uid="{920F1266-3CDA-7248-BAC5-E2AB0E12370D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId23"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF331AF0-4643-004A-A6FA-A1E969A75677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E947DD-3A65-BB43-BBD4-0AEBF88B914A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1047,6 +1047,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1065,10 +1068,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2321,9 +2320,11 @@
     <v>Powered by Refinitiv</v>
     <v>110.98</v>
     <v>41</v>
-    <v>1.4166000000000001</v>
-    <v>-2.33</v>
-    <v>-3.7942000000000004E-2</v>
+    <v>1.4397</v>
+    <v>1.02</v>
+    <v>1.7264999999999999E-2</v>
+    <v>0.97</v>
+    <v>1.6140000000000002E-2</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -2331,23 +2332,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>62.64</v>
+    <v>61.719900000000003</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.999647546094</v>
+    <v>45072.999935103908</v>
     <v>0</v>
-    <v>59.01</v>
-    <v>10866678928</v>
+    <v>58.88</v>
+    <v>11054290000</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>62.5</v>
-    <v>61.41</v>
+    <v>59</v>
     <v>59.08</v>
+    <v>60.1</v>
+    <v>61.07</v>
     <v>183931600</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>122</v>
-    <v>6141269</v>
+    <v>3906893</v>
+    <v>6250958</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2379,6 +2381,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2398,6 +2402,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2414,7 +2419,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2425,13 +2430,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2495,13 +2503,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2545,6 +2559,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2552,6 +2569,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2913,10 +2933,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3755,15 +3775,15 @@
       </c>
       <c r="S16" s="60">
         <f>T101/L3</f>
-        <v>2.6601417204406363</v>
+        <v>2.7060685434516523</v>
       </c>
       <c r="T16" s="60">
         <f>T101/K28</f>
-        <v>-8.6508157322602095</v>
+        <v>-8.8001703624979601</v>
       </c>
       <c r="U16" s="61">
         <f>T101/L106</f>
-        <v>20.464555419962334</v>
+        <v>20.817871939736346</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3908,15 +3928,15 @@
       </c>
       <c r="S19" s="60">
         <f>T101/M3</f>
-        <v>2.423974777604283</v>
+        <v>2.4658242248494311</v>
       </c>
       <c r="T19" s="63">
         <f>T101/L28</f>
-        <v>40.867540157954117</v>
+        <v>41.573110191801426</v>
       </c>
       <c r="U19" s="61">
         <f>T101/M106</f>
-        <v>17.455178823179672</v>
+        <v>17.756539048568346</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4030,27 +4050,27 @@
       <c r="K21" s="2">
         <v>-0.24340000000000001</v>
       </c>
-      <c r="L21" s="73">
+      <c r="L21" s="66">
         <f>L19/L3</f>
         <v>0.15008567931456548</v>
       </c>
-      <c r="M21" s="74">
+      <c r="M21" s="67">
         <f t="shared" ref="M21:Q21" si="9">M19/M3</f>
         <v>0.15882221726522419</v>
       </c>
-      <c r="N21" s="74">
+      <c r="N21" s="67">
         <f t="shared" si="9"/>
         <v>0.17983394833948341</v>
       </c>
-      <c r="O21" s="74">
+      <c r="O21" s="67">
         <f t="shared" si="9"/>
         <v>0.13309265944645007</v>
       </c>
-      <c r="P21" s="74">
+      <c r="P21" s="67">
         <f t="shared" si="9"/>
         <v>0.15012406947890819</v>
       </c>
-      <c r="Q21" s="74">
+      <c r="Q21" s="67">
         <f t="shared" si="9"/>
         <v>0.16666666666666666</v>
       </c>
@@ -4305,22 +4325,22 @@
       <c r="K28" s="11">
         <v>-1256145000</v>
       </c>
-      <c r="L28" s="72">
+      <c r="L28" s="65">
         <v>265900000</v>
       </c>
-      <c r="M28" s="72">
+      <c r="M28" s="65">
         <v>344800000</v>
       </c>
-      <c r="N28" s="72">
+      <c r="N28" s="65">
         <v>520800000</v>
       </c>
-      <c r="O28" s="72">
+      <c r="O28" s="65">
         <v>818400000</v>
       </c>
-      <c r="P28" s="72">
+      <c r="P28" s="65">
         <v>726000000</v>
       </c>
-      <c r="Q28" s="72">
+      <c r="Q28" s="65">
         <v>1000000000</v>
       </c>
     </row>
@@ -4435,27 +4455,27 @@
       <c r="K30" s="2">
         <v>-0.32829999999999998</v>
       </c>
-      <c r="L30" s="73">
+      <c r="L30" s="66">
         <f>L28/L3</f>
         <v>6.5091799265605876E-2</v>
       </c>
-      <c r="M30" s="73">
+      <c r="M30" s="66">
         <f>M28/M3</f>
         <v>7.6912781619451254E-2</v>
       </c>
-      <c r="N30" s="73">
+      <c r="N30" s="66">
         <f t="shared" ref="N30:Q30" si="17">N28/N3</f>
         <v>9.6088560885608854E-2</v>
       </c>
-      <c r="O30" s="73">
+      <c r="O30" s="66">
         <f t="shared" si="17"/>
         <v>0.12310469314079422</v>
       </c>
-      <c r="P30" s="73">
+      <c r="P30" s="66">
         <f t="shared" si="17"/>
         <v>9.0074441687344908E-2</v>
       </c>
-      <c r="Q30" s="73">
+      <c r="Q30" s="66">
         <f t="shared" si="17"/>
         <v>0.1111111111111111</v>
       </c>
@@ -6418,10 +6438,10 @@
         <v>92</v>
       </c>
       <c r="L83" s="1"/>
-      <c r="S83" s="67" t="s">
+      <c r="S83" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="T83" s="68"/>
+      <c r="T83" s="71"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6458,10 +6478,10 @@
         <v>30336000</v>
       </c>
       <c r="L84" s="1"/>
-      <c r="S84" s="69" t="s">
+      <c r="S84" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="T84" s="70"/>
+      <c r="T84" s="73"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6865,10 +6885,10 @@
         <v>-80182000</v>
       </c>
       <c r="L93" s="1"/>
-      <c r="S93" s="69" t="s">
+      <c r="S93" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="T93" s="70"/>
+      <c r="T93" s="73"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6952,7 +6972,7 @@
       </c>
       <c r="T95" s="37" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>1.4166000000000001</v>
+        <v>1.4397</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7037,7 +7057,7 @@
       </c>
       <c r="T97" s="35">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>0.10193463000000001</v>
+        <v>0.102929085</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7075,10 +7095,10 @@
         <v>92</v>
       </c>
       <c r="L98" s="1"/>
-      <c r="S98" s="69" t="s">
+      <c r="S98" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="T98" s="70"/>
+      <c r="T98" s="73"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7163,7 +7183,7 @@
       </c>
       <c r="T100" s="33">
         <f>T99/T103</f>
-        <v>0.10149102219452634</v>
+        <v>9.9940684276285066E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7206,7 +7226,7 @@
       </c>
       <c r="T101" s="38" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>10866678928</v>
+        <v>11054290000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7249,7 +7269,7 @@
       </c>
       <c r="T102" s="33">
         <f>T101/T103</f>
-        <v>0.89850897780547367</v>
+        <v>0.90005931572371489</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7292,7 +7312,7 @@
       </c>
       <c r="T103" s="39">
         <f>T99+T101</f>
-        <v>12094123928</v>
+        <v>12281735000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7330,10 +7350,10 @@
         <v>656078000</v>
       </c>
       <c r="L104" s="11"/>
-      <c r="S104" s="69" t="s">
+      <c r="S104" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="T104" s="70"/>
+      <c r="T104" s="73"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7380,18 +7400,18 @@
         <f t="shared" si="21"/>
         <v>-2.7692392271323332</v>
       </c>
-      <c r="M105" s="71"/>
-      <c r="N105" s="71"/>
-      <c r="O105" s="71"/>
-      <c r="P105" s="71"/>
-      <c r="Q105" s="71"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
       <c r="R105" s="15"/>
       <c r="S105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="T105" s="27">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>9.1589180204279183E-2</v>
+        <v>9.2642281813168095E-2</v>
       </c>
       <c r="U105" s="15"/>
       <c r="AI105" s="15"/>
@@ -7500,7 +7520,7 @@
       <c r="P107" s="41"/>
       <c r="Q107" s="44">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>18105260496.998375</v>
+        <v>17823385337.739182</v>
       </c>
       <c r="R107" s="45" t="s">
         <v>148</v>
@@ -7531,7 +7551,7 @@
       </c>
       <c r="Q108" s="44">
         <f>Q107+Q106</f>
-        <v>19281469720.295979</v>
+        <v>18999594561.036785</v>
       </c>
       <c r="R108" s="45" t="s">
         <v>144</v>
@@ -7541,14 +7561,14 @@
       </c>
       <c r="T108" s="49">
         <f>T105</f>
-        <v>9.1589180204279183E-2</v>
+        <v>9.2642281813168095E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="M109" s="65" t="s">
+      <c r="M109" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="N109" s="66"/>
+      <c r="N109" s="69"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="M110" s="50" t="s">
@@ -7556,7 +7576,7 @@
       </c>
       <c r="N110" s="38">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>14988006917.9203</v>
+        <v>14740824513.606564</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7583,7 +7603,7 @@
       </c>
       <c r="N113" s="38">
         <f>N110+N111-N112</f>
-        <v>17915630917.9203</v>
+        <v>17668448513.606564</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7601,7 +7621,7 @@
       </c>
       <c r="N115" s="57">
         <f>N113/N114</f>
-        <v>55.028218828960135</v>
+        <v>54.268993128365956</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7610,7 +7630,7 @@
       </c>
       <c r="N116" s="53" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>59.08</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7619,7 +7639,7 @@
       </c>
       <c r="N117" s="55">
         <f>N115/N116-1</f>
-        <v>-6.8581265589706564E-2</v>
+        <v>-9.7021744952313527E-2</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E947DD-3A65-BB43-BBD4-0AEBF88B914A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E8006B-EEF5-A840-B8D0-CAC7CB1684B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -559,6 +553,21 @@
   </si>
   <si>
     <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
@@ -921,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1000,7 +1009,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1050,6 +1058,11 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1363,11 +1376,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1407,7 +1420,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$K$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$K$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2198,6 +2211,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2318,13 +2391,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>110.98</v>
+    <v>101.93</v>
     <v>41</v>
-    <v>1.4397</v>
-    <v>1.02</v>
-    <v>1.7264999999999999E-2</v>
-    <v>0.97</v>
-    <v>1.6140000000000002E-2</v>
+    <v>1.3993</v>
+    <v>1.05</v>
+    <v>1.6296999999999999E-2</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -2332,24 +2403,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>61.719900000000003</v>
+    <v>65.92</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999935103908</v>
+    <v>45099.999886145313</v>
     <v>0</v>
-    <v>58.88</v>
-    <v>11054290000</v>
+    <v>63.42</v>
+    <v>12043841168</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>59</v>
-    <v>59.08</v>
-    <v>60.1</v>
-    <v>61.07</v>
+    <v>63.95</v>
+    <v>64.430000000000007</v>
+    <v>65.48</v>
     <v>183931600</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>3906893</v>
-    <v>6250958</v>
+    <v>1361</v>
+    <v>5393913</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2381,8 +2451,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2402,7 +2470,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2419,7 +2486,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2430,16 +2497,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2503,19 +2567,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2559,9 +2617,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2569,9 +2624,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2933,10 +2985,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L111" sqref="L111"/>
+      <selection pane="bottomRight" activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3004,41 +3056,41 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -3101,21 +3153,21 @@
         <v>9000000000</v>
       </c>
       <c r="R3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="U3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3191,7 +3243,7 @@
         <v>1.514122510145636E-2</v>
       </c>
       <c r="U4" s="17">
-        <f>(K105+J105+L105)/3</f>
+        <f>(K106+J106+L106)/3</f>
         <v>0.95104138036162278</v>
       </c>
       <c r="AI4" s="16"/>
@@ -3271,21 +3323,21 @@
       <c r="J6" s="10">
         <v>1390713000</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="63">
         <v>1813577000</v>
       </c>
-      <c r="L6" s="64"/>
+      <c r="L6" s="63"/>
       <c r="R6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="U6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -3336,7 +3388,7 @@
         <v>-0.32829999999999998</v>
       </c>
       <c r="U7" s="20">
-        <f>L106/L3</f>
+        <f>L107/L3</f>
         <v>0.12998776009791921</v>
       </c>
     </row>
@@ -3378,7 +3430,7 @@
     </row>
     <row r="9" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3426,16 +3478,16 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="R9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="T9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="U9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="AI9" s="15"/>
       <c r="AJ9" s="15"/>
@@ -3567,21 +3619,21 @@
       </c>
       <c r="L12" s="1"/>
       <c r="R12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="U12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3640,7 +3692,7 @@
         <f>K22/(K72+K56+K61)</f>
         <v>-0.10226185291681907</v>
       </c>
-      <c r="U13" s="62">
+      <c r="U13" s="61">
         <f>K67/K72</f>
         <v>0.18990946337745412</v>
       </c>
@@ -3655,31 +3707,31 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1">
         <v>174358000</v>
@@ -3722,16 +3774,16 @@
       </c>
       <c r="L15" s="1"/>
       <c r="R15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="T15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="S15" s="19" t="s">
+      <c r="U15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -3773,17 +3825,17 @@
         <f>(K35+J35+I35+H35+G35)/5</f>
         <v>0.15582766145973298</v>
       </c>
-      <c r="S16" s="60">
+      <c r="S16" s="59">
         <f>T101/L3</f>
-        <v>2.7060685434516523</v>
-      </c>
-      <c r="T16" s="60">
+        <v>2.9483087314565481</v>
+      </c>
+      <c r="T16" s="59">
         <f>T101/K28</f>
-        <v>-8.8001703624979601</v>
-      </c>
-      <c r="U16" s="61">
-        <f>T101/L106</f>
-        <v>20.817871939736346</v>
+        <v>-9.58793862810424</v>
+      </c>
+      <c r="U16" s="60">
+        <f>T101/L107</f>
+        <v>22.681433461393596</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3791,31 +3843,31 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -3858,16 +3910,16 @@
       </c>
       <c r="L18" s="1"/>
       <c r="R18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3904,44 +3956,44 @@
       <c r="K19" s="10">
         <v>-931340000</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L19" s="57">
         <v>613100000</v>
       </c>
-      <c r="M19" s="58">
+      <c r="M19" s="57">
         <v>712000000</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="57">
         <v>974700000</v>
       </c>
-      <c r="O19" s="58">
+      <c r="O19" s="57">
         <v>884800000</v>
       </c>
-      <c r="P19" s="58">
+      <c r="P19" s="57">
         <v>1210000000</v>
       </c>
-      <c r="Q19" s="58">
+      <c r="Q19" s="57">
         <v>1500000000</v>
       </c>
       <c r="R19" s="31">
         <f>K40-K56-K61</f>
         <v>2927624000</v>
       </c>
-      <c r="S19" s="60">
+      <c r="S19" s="59">
         <f>T101/M3</f>
-        <v>2.4658242248494311</v>
-      </c>
-      <c r="T19" s="63">
+        <v>2.6865583689493642</v>
+      </c>
+      <c r="T19" s="62">
         <f>T101/L28</f>
-        <v>41.573110191801426</v>
-      </c>
-      <c r="U19" s="61">
+        <v>45.294626430989091</v>
+      </c>
+      <c r="U19" s="60">
         <f>T101/M106</f>
-        <v>17.756539048568346</v>
+        <v>22.681433461393596</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4050,27 +4102,27 @@
       <c r="K21" s="2">
         <v>-0.24340000000000001</v>
       </c>
-      <c r="L21" s="66">
+      <c r="L21" s="65">
         <f>L19/L3</f>
         <v>0.15008567931456548</v>
       </c>
-      <c r="M21" s="67">
+      <c r="M21" s="66">
         <f t="shared" ref="M21:Q21" si="9">M19/M3</f>
         <v>0.15882221726522419</v>
       </c>
-      <c r="N21" s="67">
+      <c r="N21" s="66">
         <f t="shared" si="9"/>
         <v>0.17983394833948341</v>
       </c>
-      <c r="O21" s="67">
+      <c r="O21" s="66">
         <f t="shared" si="9"/>
         <v>0.13309265944645007</v>
       </c>
-      <c r="P21" s="67">
+      <c r="P21" s="66">
         <f t="shared" si="9"/>
         <v>0.15012406947890819</v>
       </c>
-      <c r="Q21" s="67">
+      <c r="Q21" s="66">
         <f t="shared" si="9"/>
         <v>0.16666666666666666</v>
       </c>
@@ -4217,7 +4269,7 @@
       <c r="K25" s="10">
         <v>-1243632000</v>
       </c>
-      <c r="L25" s="59"/>
+      <c r="L25" s="58"/>
     </row>
     <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -4260,7 +4312,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>13000</v>
@@ -4325,28 +4377,28 @@
       <c r="K28" s="11">
         <v>-1256145000</v>
       </c>
-      <c r="L28" s="65">
+      <c r="L28" s="64">
         <v>265900000</v>
       </c>
-      <c r="M28" s="65">
+      <c r="M28" s="64">
         <v>344800000</v>
       </c>
-      <c r="N28" s="65">
+      <c r="N28" s="64">
         <v>520800000</v>
       </c>
-      <c r="O28" s="65">
+      <c r="O28" s="64">
         <v>818400000</v>
       </c>
-      <c r="P28" s="65">
+      <c r="P28" s="64">
         <v>726000000</v>
       </c>
-      <c r="Q28" s="65">
+      <c r="Q28" s="64">
         <v>1000000000</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4455,27 +4507,27 @@
       <c r="K30" s="2">
         <v>-0.32829999999999998</v>
       </c>
-      <c r="L30" s="66">
+      <c r="L30" s="65">
         <f>L28/L3</f>
         <v>6.5091799265605876E-2</v>
       </c>
-      <c r="M30" s="66">
+      <c r="M30" s="65">
         <f>M28/M3</f>
         <v>7.6912781619451254E-2</v>
       </c>
-      <c r="N30" s="66">
+      <c r="N30" s="65">
         <f t="shared" ref="N30:Q30" si="17">N28/N3</f>
         <v>9.6088560885608854E-2</v>
       </c>
-      <c r="O30" s="66">
+      <c r="O30" s="65">
         <f t="shared" si="17"/>
         <v>0.12310469314079422</v>
       </c>
-      <c r="P30" s="66">
+      <c r="P30" s="65">
         <f t="shared" si="17"/>
         <v>9.0074441687344908E-2</v>
       </c>
-      <c r="Q30" s="66">
+      <c r="Q30" s="65">
         <f t="shared" si="17"/>
         <v>0.1111111111111111</v>
       </c>
@@ -4626,7 +4678,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="21">
@@ -4686,34 +4738,34 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13"/>
     </row>
@@ -4722,37 +4774,37 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -4760,7 +4812,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>32627000</v>
@@ -4796,16 +4848,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>175587000</v>
@@ -4832,7 +4884,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>32627000</v>
@@ -4868,7 +4920,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>9264000</v>
@@ -4904,34 +4956,34 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -4940,7 +4992,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>4458000</v>
@@ -4976,7 +5028,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>46349000</v>
@@ -5012,7 +5064,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>6751000</v>
@@ -5048,10 +5100,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1">
         <v>3165000</v>
@@ -5084,7 +5136,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>510000</v>
@@ -5120,7 +5172,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>510000</v>
@@ -5156,34 +5208,34 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1"/>
     </row>
@@ -5192,34 +5244,34 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1"/>
     </row>
@@ -5228,7 +5280,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>1364000</v>
@@ -5264,7 +5316,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>8625000</v>
@@ -5300,34 +5352,34 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1"/>
     </row>
@@ -5336,7 +5388,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>54974000</v>
@@ -5372,7 +5424,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>1227000</v>
@@ -5408,22 +5460,22 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1">
         <v>34080000</v>
@@ -5444,7 +5496,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1">
         <v>10312000</v>
@@ -5471,7 +5523,7 @@
         <v>61975000</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1"/>
     </row>
@@ -5480,7 +5532,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>4173000</v>
@@ -5516,7 +5568,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>7486000</v>
@@ -5552,7 +5604,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>23198000</v>
@@ -5588,19 +5640,19 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1">
         <v>434496000</v>
@@ -5624,34 +5676,34 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -5660,16 +5712,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1">
         <v>2452000</v>
@@ -5684,10 +5736,10 @@
         <v>13684000</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1"/>
     </row>
@@ -5696,7 +5748,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>582000</v>
@@ -5732,7 +5784,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>582000</v>
@@ -5768,37 +5820,37 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -5806,7 +5858,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>23780000</v>
@@ -5842,7 +5894,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>17000</v>
@@ -5878,7 +5930,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-89434000</v>
@@ -5914,7 +5966,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-2624000</v>
@@ -5950,7 +6002,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>11544000</v>
@@ -5986,7 +6038,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>31194000</v>
@@ -6022,7 +6074,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>54974000</v>
@@ -6058,34 +6110,34 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13"/>
     </row>
@@ -6094,37 +6146,37 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -6204,22 +6256,22 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>-108000</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1">
         <v>-55745000</v>
@@ -6231,7 +6283,7 @@
         <v>-17236000</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1"/>
     </row>
@@ -6273,7 +6325,7 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:K80" si="19">B79/B3</f>
@@ -6408,40 +6460,40 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1"/>
-      <c r="S83" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="T83" s="71"/>
+      <c r="S83" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="T83" s="73"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6478,10 +6530,10 @@
         <v>30336000</v>
       </c>
       <c r="L84" s="1"/>
-      <c r="S84" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="T84" s="73"/>
+      <c r="S84" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="T84" s="75"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6515,11 +6567,11 @@
         <v>45634000</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1"/>
       <c r="S85" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T85" s="23">
         <f>K17</f>
@@ -6558,11 +6610,11 @@
         <v>203394000</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L86" s="1"/>
       <c r="S86" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T86" s="23">
         <f>K56</f>
@@ -6605,7 +6657,7 @@
       </c>
       <c r="L87" s="10"/>
       <c r="S87" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T87" s="23">
         <f>K61</f>
@@ -6648,7 +6700,7 @@
       </c>
       <c r="L88" s="1"/>
       <c r="S88" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T88" s="33">
         <f>T85/(T86+T87)</f>
@@ -6657,7 +6709,7 @@
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:K89" si="20">(-1*B88)/B3</f>
@@ -6701,7 +6753,7 @@
       </c>
       <c r="L89" s="15"/>
       <c r="S89" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T89" s="23">
         <f>K27</f>
@@ -6714,7 +6766,7 @@
       <c r="AL89" s="15"/>
       <c r="AM89" s="15"/>
       <c r="AT89" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AU89" s="25">
         <f>AM27</f>
@@ -6726,10 +6778,10 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1">
         <v>-1761000</v>
@@ -6769,16 +6821,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-293186000</v>
@@ -6800,7 +6852,7 @@
       </c>
       <c r="L91" s="1"/>
       <c r="S91" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T91" s="33">
         <f>T89/T90</f>
@@ -6815,13 +6867,13 @@
         <v>3000000</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>115877000</v>
@@ -6843,7 +6895,7 @@
       </c>
       <c r="L92" s="1"/>
       <c r="S92" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T92" s="35">
         <f>T88*(1-T91)</f>
@@ -6855,13 +6907,13 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-170000</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1">
         <v>-7439000</v>
@@ -6870,10 +6922,10 @@
         <v>3118000</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1">
         <v>-33328000</v>
@@ -6885,10 +6937,10 @@
         <v>-80182000</v>
       </c>
       <c r="L93" s="1"/>
-      <c r="S93" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="T93" s="73"/>
+      <c r="S93" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="T93" s="75"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6926,10 +6978,11 @@
       </c>
       <c r="L94" s="10"/>
       <c r="S94" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T94" s="36">
-        <v>4.095E-2</v>
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -6937,22 +6990,22 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1">
         <v>-11046000</v>
@@ -6968,11 +7021,11 @@
       </c>
       <c r="L95" s="1"/>
       <c r="S95" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T95" s="37" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>1.4397</v>
+        <v>1.3993</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -6980,22 +7033,22 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>225707000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1">
         <v>980000000</v>
@@ -7007,11 +7060,11 @@
         <v>1765713000</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1"/>
       <c r="S96" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T96" s="36">
         <v>8.4000000000000005E-2</v>
@@ -7037,27 +7090,27 @@
         <v>-100000</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1"/>
       <c r="S97" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T97" s="35">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>0.102929085</v>
+        <v>0.102675261</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7065,40 +7118,40 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1"/>
-      <c r="S98" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="T98" s="73"/>
+      <c r="S98" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="T98" s="75"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7136,7 +7189,7 @@
       </c>
       <c r="L99" s="1"/>
       <c r="S99" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T99" s="23">
         <f>T86+T87</f>
@@ -7179,11 +7232,11 @@
       </c>
       <c r="L100" s="10"/>
       <c r="S100" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T100" s="33">
         <f>T99/T103</f>
-        <v>9.9940684276285066E-2</v>
+        <v>9.2488774973418994E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7191,16 +7244,16 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1">
         <v>74000</v>
@@ -7209,7 +7262,7 @@
         <v>163000</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1">
         <v>40000</v>
@@ -7222,11 +7275,11 @@
       </c>
       <c r="L101" s="1"/>
       <c r="S101" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T101" s="38" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11054290000</v>
+        <v>12043841168</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7265,11 +7318,11 @@
       </c>
       <c r="L102" s="10"/>
       <c r="S102" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T102" s="33">
         <f>T101/T103</f>
-        <v>0.90005931572371489</v>
+        <v>0.90751122502658099</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7308,11 +7361,11 @@
       </c>
       <c r="L103" s="1"/>
       <c r="S103" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T103" s="39">
         <f>T99+T101</f>
-        <v>12281735000</v>
+        <v>13271286168</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7350,68 +7403,83 @@
         <v>656078000</v>
       </c>
       <c r="L104" s="11"/>
-      <c r="S104" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="T104" s="73"/>
+      <c r="S104" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="T104" s="75"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.13592084068420651</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.30403905903240114</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-0.44196732471068756</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.83458371454711799</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.44570782631823924</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:L105" si="21">(H106/G106)-1</f>
-        <v>2.1934980806142033</v>
-      </c>
-      <c r="I105" s="15">
+        <v>160</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:J105" si="21">(C22*(1-0.2))+C77+C88+C81</f>
+        <v>-21357400</v>
+      </c>
+      <c r="D105" s="1">
         <f t="shared" si="21"/>
-        <v>-0.50266706735284172</v>
-      </c>
-      <c r="J105" s="15">
+        <v>-31777400</v>
+      </c>
+      <c r="E105" s="1">
         <f t="shared" si="21"/>
-        <v>4.5973790551002685</v>
-      </c>
-      <c r="K105" s="15">
+        <v>-34298000</v>
+      </c>
+      <c r="F105" s="1">
         <f t="shared" si="21"/>
-        <v>1.0249843131169332</v>
-      </c>
-      <c r="L105" s="15">
+        <v>-71128200</v>
+      </c>
+      <c r="G105" s="1">
         <f t="shared" si="21"/>
-        <v>-2.7692392271323332</v>
-      </c>
-      <c r="M105" s="29"/>
-      <c r="N105" s="29"/>
-      <c r="O105" s="29"/>
-      <c r="P105" s="29"/>
-      <c r="Q105" s="29"/>
-      <c r="R105" s="15"/>
+        <v>-105565000</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="21"/>
+        <v>-277451000</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="21"/>
+        <v>-367852800</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="21"/>
+        <v>-705250200</v>
+      </c>
+      <c r="K105" s="1">
+        <f>(K22*(1-0.2))+K77+K88+K81</f>
+        <v>-761029400</v>
+      </c>
+      <c r="L105" s="29">
+        <v>531000000</v>
+      </c>
+      <c r="M105" s="40">
+        <f>L105*(1+$T$106)</f>
+        <v>622547556.69243288</v>
+      </c>
+      <c r="N105" s="40">
+        <f t="shared" ref="N105:Q105" si="22">M105*(1+$T$106)</f>
+        <v>729878456.39118254</v>
+      </c>
+      <c r="O105" s="40">
+        <f t="shared" si="22"/>
+        <v>855713841.25946343</v>
+      </c>
+      <c r="P105" s="40">
+        <f t="shared" si="22"/>
+        <v>1003243994.5460929</v>
+      </c>
+      <c r="Q105" s="40">
+        <f t="shared" si="22"/>
+        <v>1176209223.2976019</v>
+      </c>
+      <c r="R105" s="41" t="s">
+        <v>163</v>
+      </c>
       <c r="S105" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T105" s="27">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>9.2642281813168095E-2</v>
+        <v>9.3178951890033945E-2</v>
       </c>
       <c r="U105" s="15"/>
       <c r="AI105" s="15"/>
@@ -7426,7 +7494,7 @@
       <c r="AR105" s="15"/>
       <c r="AS105" s="15"/>
       <c r="AT105" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AU105" s="27">
         <f>(AU100*AU92)+(AU102*AU97)</f>
@@ -7434,67 +7502,70 @@
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-26074000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-22530000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-29380000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-16395000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-30078000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-16672000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-53242000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-26479000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-148213000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>-300129000</v>
-      </c>
-      <c r="L106" s="29">
+      <c r="A106" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:L106" si="23">(C107/B107)-1</f>
+        <v>-0.13592084068420651</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="23"/>
+        <v>0.30403905903240114</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="23"/>
+        <v>-0.44196732471068756</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="23"/>
+        <v>0.83458371454711799</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="23"/>
+        <v>-0.44570782631823924</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="23"/>
+        <v>2.1934980806142033</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="23"/>
+        <v>-0.50266706735284172</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="23"/>
+        <v>4.5973790551002685</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="23"/>
+        <v>1.0249843131169332</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.7692392271323332</v>
+      </c>
+      <c r="M106" s="68">
         <v>531000000</v>
       </c>
-      <c r="M106" s="40">
-        <f>L106*(1+$T$106)</f>
-        <v>622547556.69243288</v>
-      </c>
-      <c r="N106" s="40">
-        <f t="shared" ref="N106:Q106" si="22">M106*(1+$T$106)</f>
-        <v>729878456.39118254</v>
-      </c>
-      <c r="O106" s="40">
-        <f t="shared" si="22"/>
-        <v>855713841.25946343</v>
-      </c>
-      <c r="P106" s="40">
-        <f t="shared" si="22"/>
-        <v>1003243994.5460929</v>
-      </c>
-      <c r="Q106" s="40">
-        <f t="shared" si="22"/>
-        <v>1176209223.2976019</v>
+      <c r="N106" s="68">
+        <v>610200000</v>
+      </c>
+      <c r="O106" s="68">
+        <v>820600000</v>
+      </c>
+      <c r="P106" s="68">
+        <v>1251000000</v>
+      </c>
+      <c r="Q106" s="68">
+        <v>1507000000</v>
       </c>
       <c r="R106" s="41" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="S106" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T106" s="43">
         <f>(SUM(M4:Q4)/5)</f>
@@ -7502,86 +7573,110 @@
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
+      <c r="A107" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-26074000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-22530000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-29380000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-16395000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-30078000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-16672000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-53242000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-26479000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-148213000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>-300129000</v>
+      </c>
+      <c r="L107" s="29">
+        <v>531000000</v>
+      </c>
       <c r="M107" s="41"/>
       <c r="N107" s="41"/>
       <c r="O107" s="41"/>
       <c r="P107" s="41"/>
-      <c r="Q107" s="44">
+      <c r="Q107" s="69">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>17823385337.739182</v>
-      </c>
-      <c r="R107" s="45" t="s">
+        <v>22656185775.507534</v>
+      </c>
+      <c r="R107" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="S107" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="T107" s="46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="M108" s="69">
+        <f t="shared" ref="M108:O108" si="24">M107+M106</f>
+        <v>531000000</v>
+      </c>
+      <c r="N108" s="69">
+        <f t="shared" si="24"/>
+        <v>610200000</v>
+      </c>
+      <c r="O108" s="69">
+        <f t="shared" si="24"/>
+        <v>820600000</v>
+      </c>
+      <c r="P108" s="69">
+        <f>P107+P106</f>
+        <v>1251000000</v>
+      </c>
+      <c r="Q108" s="69">
+        <f>Q107+Q106</f>
+        <v>24163185775.507534</v>
+      </c>
+      <c r="R108" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="S108" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="T108" s="48">
+        <f>T105</f>
+        <v>9.3178951890033945E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="M109" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="S107" s="46" t="s">
+      <c r="N109" s="71"/>
+    </row>
+    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="M110" s="49" t="s">
         <v>149</v>
-      </c>
-      <c r="T107" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="M108" s="44">
-        <f t="shared" ref="M108:O108" si="23">M107+M106</f>
-        <v>622547556.69243288</v>
-      </c>
-      <c r="N108" s="44">
-        <f t="shared" si="23"/>
-        <v>729878456.39118254</v>
-      </c>
-      <c r="O108" s="44">
-        <f t="shared" si="23"/>
-        <v>855713841.25946343</v>
-      </c>
-      <c r="P108" s="44">
-        <f>P107+P106</f>
-        <v>1003243994.5460929</v>
-      </c>
-      <c r="Q108" s="44">
-        <f>Q107+Q106</f>
-        <v>18999594561.036785</v>
-      </c>
-      <c r="R108" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="S108" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="T108" s="49">
-        <f>T105</f>
-        <v>9.2642281813168095E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="M109" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="N109" s="69"/>
-    </row>
-    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="M110" s="50" t="s">
-        <v>152</v>
       </c>
       <c r="N110" s="38">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>14740824513.606564</v>
+        <v>17977863449.335518</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="M111" s="50" t="s">
-        <v>153</v>
+      <c r="M111" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="N111" s="38">
         <f>K40</f>
@@ -7589,8 +7684,8 @@
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="M112" s="50" t="s">
-        <v>140</v>
+      <c r="M112" s="49" t="s">
+        <v>138</v>
       </c>
       <c r="N112" s="38">
         <f>T99</f>
@@ -7598,55 +7693,55 @@
       </c>
     </row>
     <row r="113" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M113" s="50" t="s">
-        <v>154</v>
+      <c r="M113" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="N113" s="38">
         <f>N110+N111-N112</f>
-        <v>17668448513.606564</v>
+        <v>20905487449.335518</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M114" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="N114" s="51">
+      <c r="M114" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="N114" s="50">
         <f>K34*(1+(5*R16))</f>
         <v>325571703.01306754</v>
       </c>
     </row>
     <row r="115" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M115" s="52" t="s">
+      <c r="M115" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="N115" s="56">
+        <f>N113/N114</f>
+        <v>64.21162298769076</v>
+      </c>
+    </row>
+    <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="M116" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="N116" s="52" cm="1">
+        <f t="array" ref="N116">_FV(A1,"Price")</f>
+        <v>65.48</v>
+      </c>
+    </row>
+    <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="M117" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="N117" s="54">
+        <f>N115/N116-1</f>
+        <v>-1.9370449180043492E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="M118" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="N115" s="57">
-        <f>N113/N114</f>
-        <v>54.268993128365956</v>
-      </c>
-    </row>
-    <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M116" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="N116" s="53" cm="1">
-        <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M117" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="N117" s="55">
-        <f>N115/N116-1</f>
-        <v>-9.7021744952313527E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M118" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="N118" s="56" t="str">
+      <c r="N118" s="55" t="str">
         <f>IF(N115&gt;N116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -7684,8 +7779,9 @@
     <hyperlink ref="K74" r:id="rId21" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="M1" r:id="rId22" display="https://finbox.com/NYSE:TWLO/explorer/revenue_proj" xr:uid="{FB5D01A9-44EE-A749-92DC-4C0B4882A940}"/>
     <hyperlink ref="L1" r:id="rId23" display="https://finbox.com/NYSE:TWLO/models/dcf-revenue-exit-5yr/" xr:uid="{920F1266-3CDA-7248-BAC5-E2AB0E12370D}"/>
+    <hyperlink ref="R106" r:id="rId24" xr:uid="{CC50150D-9459-A946-A829-8116BDB0C593}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E8006B-EEF5-A840-B8D0-CAC7CB1684B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F015DE-E02A-9341-B346-26BEBD98845A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,19 +568,26 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -930,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1080,6 +1087,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2229,12 +2242,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2251,14 +2265,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2266,6 +2280,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2391,11 +2406,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>101.93</v>
+    <v>99.49</v>
     <v>41</v>
-    <v>1.3993</v>
-    <v>1.05</v>
-    <v>1.6296999999999999E-2</v>
+    <v>1.4027000000000001</v>
+    <v>-0.55000000000000004</v>
+    <v>-8.5900000000000004E-3</v>
+    <v>-0.03</v>
+    <v>-4.7260000000000005E-4</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -2403,23 +2420,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>65.92</v>
+    <v>66.06</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999886145313</v>
+    <v>45103.912022858596</v>
     <v>0</v>
-    <v>63.42</v>
-    <v>12043841168</v>
+    <v>63.12</v>
+    <v>11675977968</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>63.95</v>
-    <v>64.430000000000007</v>
-    <v>65.48</v>
+    <v>63.43</v>
+    <v>64.03</v>
+    <v>63.48</v>
+    <v>63.45</v>
     <v>183931600</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>1361</v>
-    <v>5393913</v>
+    <v>2514239</v>
+    <v>5288824</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2451,6 +2469,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2470,6 +2490,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2486,7 +2507,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2497,13 +2518,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2567,13 +2591,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2617,6 +2647,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2624,6 +2657,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2985,10 +3021,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N92" sqref="N92"/>
+      <selection pane="bottomRight" activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3827,15 +3863,15 @@
       </c>
       <c r="S16" s="59">
         <f>T101/L3</f>
-        <v>2.9483087314565481</v>
+        <v>2.8582565405140761</v>
       </c>
       <c r="T16" s="59">
         <f>T101/K28</f>
-        <v>-9.58793862810424</v>
+        <v>-9.2950877231529798</v>
       </c>
       <c r="U16" s="60">
         <f>T101/L107</f>
-        <v>22.681433461393596</v>
+        <v>21.988659073446328</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3980,15 +4016,15 @@
       </c>
       <c r="S19" s="59">
         <f>T101/M3</f>
-        <v>2.6865583689493642</v>
+        <v>2.6045009966540262</v>
       </c>
       <c r="T19" s="62">
         <f>T101/L28</f>
-        <v>45.294626430989091</v>
+        <v>43.911161970665667</v>
       </c>
       <c r="U19" s="60">
         <f>T101/M106</f>
-        <v>22.681433461393596</v>
+        <v>19.134673824975419</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4068,7 +4104,7 @@
       <c r="AU20" s="15"/>
       <c r="AV20" s="15"/>
     </row>
-    <row r="21" spans="1:48" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4126,6 +4162,12 @@
         <f t="shared" si="9"/>
         <v>0.16666666666666666</v>
       </c>
+      <c r="T21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -4162,6 +4204,14 @@
         <v>-1205308000</v>
       </c>
       <c r="L22" s="10"/>
+      <c r="T22" s="76">
+        <f>(-1*L98)/T101</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="77">
+        <f>L107/T101</f>
+        <v>4.5477989206154347E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -6982,7 +7032,7 @@
       </c>
       <c r="T94" s="36">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7025,7 +7075,7 @@
       </c>
       <c r="T95" s="37" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>1.3993</v>
+        <v>1.4027000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7110,7 +7160,7 @@
       </c>
       <c r="T97" s="35">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>0.102675261</v>
+        <v>0.102769847</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7236,7 +7286,7 @@
       </c>
       <c r="T100" s="33">
         <f>T99/T103</f>
-        <v>9.2488774973418994E-2</v>
+        <v>9.5125533979938282E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7279,7 +7329,7 @@
       </c>
       <c r="T101" s="38" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>12043841168</v>
+        <v>11675977968</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7322,7 +7372,7 @@
       </c>
       <c r="T102" s="33">
         <f>T101/T103</f>
-        <v>0.90751122502658099</v>
+        <v>0.90487446602006172</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7365,7 +7415,7 @@
       </c>
       <c r="T103" s="39">
         <f>T99+T101</f>
-        <v>13271286168</v>
+        <v>12903422968</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7479,7 +7529,7 @@
       </c>
       <c r="T105" s="27">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>9.3178951890033945E-2</v>
+        <v>9.2993810427088444E-2</v>
       </c>
       <c r="U105" s="15"/>
       <c r="AI105" s="15"/>
@@ -7547,19 +7597,19 @@
         <v>-2.7692392271323332</v>
       </c>
       <c r="M106" s="68">
-        <v>531000000</v>
+        <v>610200000</v>
       </c>
       <c r="N106" s="68">
-        <v>610200000</v>
+        <v>804300000</v>
       </c>
       <c r="O106" s="68">
-        <v>820600000</v>
+        <v>1233000000</v>
       </c>
       <c r="P106" s="68">
-        <v>1251000000</v>
+        <v>1491000000</v>
       </c>
       <c r="Q106" s="68">
-        <v>1507000000</v>
+        <v>1670000000</v>
       </c>
       <c r="R106" s="41" t="s">
         <v>164</v>
@@ -7615,7 +7665,7 @@
       <c r="P107" s="41"/>
       <c r="Q107" s="69">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>22656185775.507534</v>
+        <v>25175085632.765862</v>
       </c>
       <c r="R107" s="44" t="s">
         <v>145</v>
@@ -7630,23 +7680,23 @@
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="M108" s="69">
         <f t="shared" ref="M108:O108" si="24">M107+M106</f>
-        <v>531000000</v>
+        <v>610200000</v>
       </c>
       <c r="N108" s="69">
         <f t="shared" si="24"/>
-        <v>610200000</v>
+        <v>804300000</v>
       </c>
       <c r="O108" s="69">
         <f t="shared" si="24"/>
-        <v>820600000</v>
+        <v>1233000000</v>
       </c>
       <c r="P108" s="69">
         <f>P107+P106</f>
-        <v>1251000000</v>
+        <v>1491000000</v>
       </c>
       <c r="Q108" s="69">
         <f>Q107+Q106</f>
-        <v>24163185775.507534</v>
+        <v>26845085632.765862</v>
       </c>
       <c r="R108" s="44" t="s">
         <v>142</v>
@@ -7656,7 +7706,7 @@
       </c>
       <c r="T108" s="48">
         <f>T105</f>
-        <v>9.3178951890033945E-2</v>
+        <v>9.2993810427088444E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7671,7 +7721,7 @@
       </c>
       <c r="N110" s="38">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>17977863449.335518</v>
+        <v>20430397635.498882</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7698,7 +7748,7 @@
       </c>
       <c r="N113" s="38">
         <f>N110+N111-N112</f>
-        <v>20905487449.335518</v>
+        <v>23358021635.498882</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7716,7 +7766,7 @@
       </c>
       <c r="N115" s="56">
         <f>N113/N114</f>
-        <v>64.21162298769076</v>
+        <v>71.74463081197618</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7725,7 +7775,7 @@
       </c>
       <c r="N116" s="52" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>65.48</v>
+        <v>63.48</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7734,7 +7784,7 @@
       </c>
       <c r="N117" s="54">
         <f>N115/N116-1</f>
-        <v>-1.9370449180043492E-2</v>
+        <v>0.13019267189628514</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7743,7 +7793,7 @@
       </c>
       <c r="N118" s="55" t="str">
         <f>IF(N115&gt;N116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F015DE-E02A-9341-B346-26BEBD98845A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C32AA72-2ADF-C143-82AB-DDB9F5F578EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -880,41 +880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -937,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -976,10 +941,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -996,57 +957,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1061,38 +976,73 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1144,7 +1094,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>TWLO</a:t>
+              <a:t>Twilio</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1191,9 +1141,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.9192052980132446E-2"/>
-          <c:y val="0.11266467217407382"/>
+          <c:y val="0.15675107986516104"/>
           <c:w val="0.86120529801324508"/>
-          <c:h val="0.77829954643599508"/>
+          <c:h val="0.69351776490342099"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1605,8 +1555,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34822224539813323"/>
-          <c:y val="0.92894559883153816"/>
+          <c:x val="0.34424873546435836"/>
+          <c:y val="0.90520685132254108"/>
           <c:w val="0.30355550920373364"/>
           <c:h val="4.4817722222432639E-2"/>
         </c:manualLayout>
@@ -2195,7 +2145,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2268,7 +2218,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2406,13 +2356,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>99.49</v>
+    <v>98.67</v>
     <v>41</v>
-    <v>1.4027000000000001</v>
-    <v>-0.55000000000000004</v>
-    <v>-8.5900000000000004E-3</v>
-    <v>-0.03</v>
-    <v>-4.7260000000000005E-4</v>
+    <v>1.3925000000000001</v>
+    <v>0.38</v>
+    <v>6.0089999999999996E-3</v>
+    <v>0.11</v>
+    <v>1.7290000000000001E-3</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -2420,24 +2370,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>66.06</v>
+    <v>65.290000000000006</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45103.912022858596</v>
+    <v>45107.999519305471</v>
     <v>0</v>
-    <v>63.12</v>
-    <v>11675977968</v>
+    <v>63.34</v>
+    <v>11631830000</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>63.43</v>
-    <v>64.03</v>
-    <v>63.48</v>
-    <v>63.45</v>
+    <v>63.98</v>
+    <v>63.24</v>
+    <v>63.62</v>
+    <v>63.73</v>
     <v>183931600</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>2514239</v>
-    <v>5288824</v>
+    <v>2674867</v>
+    <v>4263858</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -3021,10 +2971,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N101" sqref="N101"/>
+      <selection pane="bottomRight" activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3068,22 +3018,22 @@
       <c r="K1" s="8">
         <v>2022</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="26">
         <v>2023</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="26">
         <v>2024</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="26">
         <v>2025</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="26">
         <v>2026</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="26">
         <v>2027</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="26">
         <v>2028</v>
       </c>
     </row>
@@ -3170,22 +3120,22 @@
       <c r="K3" s="1">
         <v>3826321000</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="27">
         <v>4085000000</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="27">
         <v>4483000000</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="27">
         <v>5420000000</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="27">
         <v>6648000000</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="27">
         <v>8060000000</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="27">
         <v>9000000000</v>
       </c>
       <c r="R3" s="18" t="s">
@@ -3359,10 +3309,10 @@
       <c r="J6" s="10">
         <v>1390713000</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="39">
         <v>1813577000</v>
       </c>
-      <c r="L6" s="63"/>
+      <c r="L6" s="39"/>
       <c r="R6" s="18" t="s">
         <v>111</v>
       </c>
@@ -3728,7 +3678,7 @@
         <f>K22/(K72+K56+K61)</f>
         <v>-0.10226185291681907</v>
       </c>
-      <c r="U13" s="61">
+      <c r="U13" s="37">
         <f>K67/K72</f>
         <v>0.18990946337745412</v>
       </c>
@@ -3857,21 +3807,21 @@
         <v>5031629000</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="R16" s="30">
+      <c r="R16" s="28">
         <f>(K35+J35+I35+H35+G35)/5</f>
         <v>0.15582766145973298</v>
       </c>
-      <c r="S16" s="59">
+      <c r="S16" s="35">
         <f>T101/L3</f>
-        <v>2.8582565405140761</v>
-      </c>
-      <c r="T16" s="59">
-        <f>T101/K28</f>
-        <v>-9.2950877231529798</v>
-      </c>
-      <c r="U16" s="60">
+        <v>2.8474492044063648</v>
+      </c>
+      <c r="T16" s="35">
+        <f>T101/L28</f>
+        <v>43.745129748025576</v>
+      </c>
+      <c r="U16" s="36">
         <f>T101/L107</f>
-        <v>21.988659073446328</v>
+        <v>21.905517890772128</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3992,39 +3942,39 @@
       <c r="K19" s="10">
         <v>-931340000</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="33">
         <v>613100000</v>
       </c>
-      <c r="M19" s="57">
+      <c r="M19" s="33">
         <v>712000000</v>
       </c>
-      <c r="N19" s="57">
+      <c r="N19" s="33">
         <v>974700000</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="33">
         <v>884800000</v>
       </c>
-      <c r="P19" s="57">
+      <c r="P19" s="33">
         <v>1210000000</v>
       </c>
-      <c r="Q19" s="57">
+      <c r="Q19" s="33">
         <v>1500000000</v>
       </c>
-      <c r="R19" s="31">
+      <c r="R19" s="29">
         <f>K40-K56-K61</f>
         <v>2927624000</v>
       </c>
-      <c r="S19" s="59">
+      <c r="S19" s="35">
         <f>T101/M3</f>
-        <v>2.6045009966540262</v>
-      </c>
-      <c r="T19" s="62">
-        <f>T101/L28</f>
-        <v>43.911161970665667</v>
-      </c>
-      <c r="U19" s="60">
+        <v>2.5946531340620123</v>
+      </c>
+      <c r="T19" s="38">
+        <f>T101/M28</f>
+        <v>33.735005800464037</v>
+      </c>
+      <c r="U19" s="36">
         <f>T101/M106</f>
-        <v>19.134673824975419</v>
+        <v>19.062323828253032</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4138,27 +4088,27 @@
       <c r="K21" s="2">
         <v>-0.24340000000000001</v>
       </c>
-      <c r="L21" s="65">
+      <c r="L21" s="41">
         <f>L19/L3</f>
         <v>0.15008567931456548</v>
       </c>
-      <c r="M21" s="66">
+      <c r="M21" s="42">
         <f t="shared" ref="M21:Q21" si="9">M19/M3</f>
         <v>0.15882221726522419</v>
       </c>
-      <c r="N21" s="66">
+      <c r="N21" s="42">
         <f t="shared" si="9"/>
         <v>0.17983394833948341</v>
       </c>
-      <c r="O21" s="66">
+      <c r="O21" s="42">
         <f t="shared" si="9"/>
         <v>0.13309265944645007</v>
       </c>
-      <c r="P21" s="66">
+      <c r="P21" s="42">
         <f t="shared" si="9"/>
         <v>0.15012406947890819</v>
       </c>
-      <c r="Q21" s="66">
+      <c r="Q21" s="42">
         <f t="shared" si="9"/>
         <v>0.16666666666666666</v>
       </c>
@@ -4204,13 +4154,13 @@
         <v>-1205308000</v>
       </c>
       <c r="L22" s="10"/>
-      <c r="T22" s="76">
+      <c r="T22" s="46">
         <f>(-1*L98)/T101</f>
         <v>0</v>
       </c>
-      <c r="U22" s="77">
+      <c r="U22" s="47">
         <f>L107/T101</f>
-        <v>4.5477989206154347E-2</v>
+        <v>4.5650598401111436E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4319,7 +4269,7 @@
       <c r="K25" s="10">
         <v>-1243632000</v>
       </c>
-      <c r="L25" s="58"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -4427,22 +4377,22 @@
       <c r="K28" s="11">
         <v>-1256145000</v>
       </c>
-      <c r="L28" s="64">
+      <c r="L28" s="40">
         <v>265900000</v>
       </c>
-      <c r="M28" s="64">
+      <c r="M28" s="40">
         <v>344800000</v>
       </c>
-      <c r="N28" s="64">
+      <c r="N28" s="40">
         <v>520800000</v>
       </c>
-      <c r="O28" s="64">
+      <c r="O28" s="40">
         <v>818400000</v>
       </c>
-      <c r="P28" s="64">
+      <c r="P28" s="40">
         <v>726000000</v>
       </c>
-      <c r="Q28" s="64">
+      <c r="Q28" s="40">
         <v>1000000000</v>
       </c>
     </row>
@@ -4557,27 +4507,27 @@
       <c r="K30" s="2">
         <v>-0.32829999999999998</v>
       </c>
-      <c r="L30" s="65">
+      <c r="L30" s="41">
         <f>L28/L3</f>
         <v>6.5091799265605876E-2</v>
       </c>
-      <c r="M30" s="65">
+      <c r="M30" s="41">
         <f>M28/M3</f>
         <v>7.6912781619451254E-2</v>
       </c>
-      <c r="N30" s="65">
+      <c r="N30" s="41">
         <f t="shared" ref="N30:Q30" si="17">N28/N3</f>
         <v>9.6088560885608854E-2</v>
       </c>
-      <c r="O30" s="65">
+      <c r="O30" s="41">
         <f t="shared" si="17"/>
         <v>0.12310469314079422</v>
       </c>
-      <c r="P30" s="65">
+      <c r="P30" s="41">
         <f t="shared" si="17"/>
         <v>9.0074441687344908E-2</v>
       </c>
-      <c r="Q30" s="65">
+      <c r="Q30" s="41">
         <f t="shared" si="17"/>
         <v>0.1111111111111111</v>
       </c>
@@ -6540,10 +6490,10 @@
         <v>91</v>
       </c>
       <c r="L83" s="1"/>
-      <c r="S83" s="72" t="s">
+      <c r="S83" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="T83" s="73"/>
+      <c r="T83" s="71"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6580,10 +6530,10 @@
         <v>30336000</v>
       </c>
       <c r="L84" s="1"/>
-      <c r="S84" s="74" t="s">
+      <c r="S84" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="T84" s="75"/>
+      <c r="T84" s="72"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6620,10 +6570,10 @@
         <v>91</v>
       </c>
       <c r="L85" s="1"/>
-      <c r="S85" s="22" t="s">
+      <c r="S85" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="T85" s="23">
+      <c r="T85" s="56">
         <f>K17</f>
         <v>0</v>
       </c>
@@ -6663,10 +6613,10 @@
         <v>91</v>
       </c>
       <c r="L86" s="1"/>
-      <c r="S86" s="22" t="s">
+      <c r="S86" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="T86" s="23">
+      <c r="T86" s="56">
         <f>K56</f>
         <v>54222000</v>
       </c>
@@ -6706,10 +6656,10 @@
         <v>-254368000</v>
       </c>
       <c r="L87" s="10"/>
-      <c r="S87" s="22" t="s">
+      <c r="S87" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="T87" s="23">
+      <c r="T87" s="56">
         <f>K61</f>
         <v>1173223000</v>
       </c>
@@ -6749,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="L88" s="1"/>
-      <c r="S88" s="32" t="s">
+      <c r="S88" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="T88" s="33">
+      <c r="T88" s="58">
         <f>T85/(T86+T87)</f>
         <v>0</v>
       </c>
@@ -6802,10 +6752,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="15"/>
-      <c r="S89" s="22" t="s">
+      <c r="S89" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="T89" s="23">
+      <c r="T89" s="56">
         <f>K27</f>
         <v>12513000</v>
       </c>
@@ -6815,10 +6765,10 @@
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
       <c r="AM89" s="15"/>
-      <c r="AT89" s="24" t="s">
+      <c r="AT89" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="AU89" s="25">
+      <c r="AU89" s="23">
         <f>AM27</f>
         <v>0</v>
       </c>
@@ -6858,10 +6808,10 @@
         <v>-37410000</v>
       </c>
       <c r="L90" s="1"/>
-      <c r="S90" s="22" t="s">
+      <c r="S90" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="T90" s="23">
+      <c r="T90" s="56">
         <f>K25</f>
         <v>-1243632000</v>
       </c>
@@ -6901,10 +6851,10 @@
         <v>-1938337000</v>
       </c>
       <c r="L91" s="1"/>
-      <c r="S91" s="32" t="s">
+      <c r="S91" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="T91" s="33">
+      <c r="T91" s="58">
         <f>T89/T90</f>
         <v>-1.0061658111081092E-2</v>
       </c>
@@ -6944,10 +6894,10 @@
         <v>1439477000</v>
       </c>
       <c r="L92" s="1"/>
-      <c r="S92" s="34" t="s">
+      <c r="S92" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="T92" s="35">
+      <c r="T92" s="58">
         <f>T88*(1-T91)</f>
         <v>0</v>
       </c>
@@ -6987,10 +6937,10 @@
         <v>-80182000</v>
       </c>
       <c r="L93" s="1"/>
-      <c r="S93" s="74" t="s">
+      <c r="S93" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="T93" s="75"/>
+      <c r="T93" s="72"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7027,12 +6977,12 @@
         <v>-616452000</v>
       </c>
       <c r="L94" s="10"/>
-      <c r="S94" s="22" t="s">
+      <c r="S94" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="T94" s="36">
+      <c r="T94" s="59">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7070,12 +7020,12 @@
         <v>-13423000</v>
       </c>
       <c r="L95" s="1"/>
-      <c r="S95" s="22" t="s">
+      <c r="S95" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="T95" s="37" cm="1">
+      <c r="T95" s="60" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>1.4027000000000001</v>
+        <v>1.3925000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7113,10 +7063,10 @@
         <v>91</v>
       </c>
       <c r="L96" s="1"/>
-      <c r="S96" s="22" t="s">
+      <c r="S96" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="T96" s="36">
+      <c r="T96" s="59">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7155,12 +7105,12 @@
         <v>91</v>
       </c>
       <c r="L97" s="1"/>
-      <c r="S97" s="34" t="s">
+      <c r="S97" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="T97" s="35">
+      <c r="T97" s="58">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>0.102769847</v>
+        <v>0.10184305000000002</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7198,10 +7148,10 @@
         <v>91</v>
       </c>
       <c r="L98" s="1"/>
-      <c r="S98" s="74" t="s">
+      <c r="S98" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="T98" s="75"/>
+      <c r="T98" s="72"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7238,10 +7188,10 @@
         <v>58430000</v>
       </c>
       <c r="L99" s="1"/>
-      <c r="S99" s="22" t="s">
+      <c r="S99" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="T99" s="23">
+      <c r="T99" s="56">
         <f>T86+T87</f>
         <v>1227445000</v>
       </c>
@@ -7281,12 +7231,12 @@
         <v>45007000</v>
       </c>
       <c r="L100" s="10"/>
-      <c r="S100" s="32" t="s">
+      <c r="S100" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="T100" s="33">
+      <c r="T100" s="58">
         <f>T99/T103</f>
-        <v>9.5125533979938282E-2</v>
+        <v>9.5452115301990201E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7324,12 +7274,12 @@
         <v>60000</v>
       </c>
       <c r="L101" s="1"/>
-      <c r="S101" s="22" t="s">
+      <c r="S101" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="T101" s="38" cm="1">
+      <c r="T101" s="49" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11675977968</v>
+        <v>11631830000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7367,12 +7317,12 @@
         <v>-825753000</v>
       </c>
       <c r="L102" s="10"/>
-      <c r="S102" s="32" t="s">
+      <c r="S102" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="T102" s="33">
+      <c r="T102" s="58">
         <f>T101/T103</f>
-        <v>0.90487446602006172</v>
+        <v>0.90454788469800984</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7410,12 +7360,12 @@
         <v>1481831000</v>
       </c>
       <c r="L103" s="1"/>
-      <c r="S103" s="34" t="s">
+      <c r="S103" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="T103" s="39">
+      <c r="T103" s="61">
         <f>T99+T101</f>
-        <v>12903422968</v>
+        <v>12859275000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7453,10 +7403,10 @@
         <v>656078000</v>
       </c>
       <c r="L104" s="11"/>
-      <c r="S104" s="74" t="s">
+      <c r="S104" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="T104" s="75"/>
+      <c r="T104" s="72"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7498,38 +7448,38 @@
         <f>(K22*(1-0.2))+K77+K88+K81</f>
         <v>-761029400</v>
       </c>
-      <c r="L105" s="29">
+      <c r="L105" s="27">
         <v>531000000</v>
       </c>
-      <c r="M105" s="40">
+      <c r="M105" s="30">
         <f>L105*(1+$T$106)</f>
         <v>622547556.69243288</v>
       </c>
-      <c r="N105" s="40">
+      <c r="N105" s="30">
         <f t="shared" ref="N105:Q105" si="22">M105*(1+$T$106)</f>
         <v>729878456.39118254</v>
       </c>
-      <c r="O105" s="40">
+      <c r="O105" s="30">
         <f t="shared" si="22"/>
         <v>855713841.25946343</v>
       </c>
-      <c r="P105" s="40">
+      <c r="P105" s="30">
         <f t="shared" si="22"/>
         <v>1003243994.5460929</v>
       </c>
-      <c r="Q105" s="40">
+      <c r="Q105" s="30">
         <f t="shared" si="22"/>
         <v>1176209223.2976019</v>
       </c>
-      <c r="R105" s="41" t="s">
+      <c r="R105" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="S105" s="26" t="s">
+      <c r="S105" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="T105" s="27">
+      <c r="T105" s="63">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>9.2993810427088444E-2</v>
+        <v>9.2121915448693664E-2</v>
       </c>
       <c r="U105" s="15"/>
       <c r="AI105" s="15"/>
@@ -7543,10 +7493,10 @@
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
       <c r="AS105" s="15"/>
-      <c r="AT105" s="26" t="s">
+      <c r="AT105" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="AU105" s="27">
+      <c r="AU105" s="25">
         <f>(AU100*AU92)+(AU102*AU97)</f>
         <v>0</v>
       </c>
@@ -7596,34 +7546,34 @@
         <f t="shared" si="23"/>
         <v>-2.7692392271323332</v>
       </c>
-      <c r="M106" s="68">
+      <c r="M106" s="44">
         <v>610200000</v>
       </c>
-      <c r="N106" s="68">
+      <c r="N106" s="44">
         <v>804300000</v>
       </c>
-      <c r="O106" s="68">
+      <c r="O106" s="44">
         <v>1233000000</v>
       </c>
-      <c r="P106" s="68">
+      <c r="P106" s="44">
         <v>1491000000</v>
       </c>
-      <c r="Q106" s="68">
+      <c r="Q106" s="44">
         <v>1670000000</v>
       </c>
-      <c r="R106" s="41" t="s">
+      <c r="R106" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="S106" s="42" t="s">
+      <c r="S106" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="T106" s="43">
+      <c r="T106" s="65">
         <f>(SUM(M4:Q4)/5)</f>
         <v>0.17240594480684165</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="67" t="s">
+      <c r="A107" s="43" t="s">
         <v>162</v>
       </c>
       <c r="B107" s="1">
@@ -7656,142 +7606,142 @@
       <c r="K107" s="1">
         <v>-300129000</v>
       </c>
-      <c r="L107" s="29">
+      <c r="L107" s="27">
         <v>531000000</v>
       </c>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="69">
+      <c r="M107" s="31"/>
+      <c r="N107" s="31"/>
+      <c r="O107" s="31"/>
+      <c r="P107" s="31"/>
+      <c r="Q107" s="45">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>25175085632.765862</v>
-      </c>
-      <c r="R107" s="44" t="s">
+        <v>25502102980.187134</v>
+      </c>
+      <c r="R107" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="S107" s="45" t="s">
+      <c r="S107" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="T107" s="46">
+      <c r="T107" s="67">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="M108" s="69">
+      <c r="M108" s="45">
         <f t="shared" ref="M108:O108" si="24">M107+M106</f>
         <v>610200000</v>
       </c>
-      <c r="N108" s="69">
+      <c r="N108" s="45">
         <f t="shared" si="24"/>
         <v>804300000</v>
       </c>
-      <c r="O108" s="69">
+      <c r="O108" s="45">
         <f t="shared" si="24"/>
         <v>1233000000</v>
       </c>
-      <c r="P108" s="69">
+      <c r="P108" s="45">
         <f>P107+P106</f>
         <v>1491000000</v>
       </c>
-      <c r="Q108" s="69">
+      <c r="Q108" s="45">
         <f>Q107+Q106</f>
-        <v>26845085632.765862</v>
-      </c>
-      <c r="R108" s="44" t="s">
+        <v>27172102980.187134</v>
+      </c>
+      <c r="R108" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="S108" s="47" t="s">
+      <c r="S108" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="T108" s="48">
+      <c r="T108" s="65">
         <f>T105</f>
-        <v>9.2993810427088444E-2</v>
+        <v>9.2121915448693664E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="M109" s="70" t="s">
+      <c r="M109" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="N109" s="71"/>
+      <c r="N109" s="69"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="M110" s="49" t="s">
+      <c r="M110" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="N110" s="38">
+      <c r="N110" s="49">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>20430397635.498882</v>
+        <v>20716811600.986626</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="M111" s="49" t="s">
+      <c r="M111" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="N111" s="38">
+      <c r="N111" s="49">
         <f>K40</f>
         <v>4155069000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="M112" s="49" t="s">
+      <c r="M112" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="N112" s="38">
+      <c r="N112" s="49">
         <f>T99</f>
         <v>1227445000</v>
       </c>
     </row>
     <row r="113" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M113" s="49" t="s">
+      <c r="M113" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="N113" s="38">
+      <c r="N113" s="49">
         <f>N110+N111-N112</f>
-        <v>23358021635.498882</v>
+        <v>23644435600.986626</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M114" s="49" t="s">
+      <c r="M114" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="N114" s="50">
+      <c r="N114" s="48">
         <f>K34*(1+(5*R16))</f>
         <v>325571703.01306754</v>
       </c>
     </row>
     <row r="115" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M115" s="51" t="s">
+      <c r="M115" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="N115" s="56">
+      <c r="N115" s="51">
         <f>N113/N114</f>
-        <v>71.74463081197618</v>
+        <v>72.624357037680284</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M116" s="49" t="s">
+      <c r="M116" s="48" t="s">
         <v>154</v>
       </c>
       <c r="N116" s="52" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>63.48</v>
+        <v>63.62</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M117" s="53" t="s">
+      <c r="M117" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="N117" s="54">
+      <c r="N117" s="53">
         <f>N115/N116-1</f>
-        <v>0.13019267189628514</v>
+        <v>0.14153343347501246</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M118" s="53" t="s">
+      <c r="M118" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="N118" s="55" t="str">
+      <c r="N118" s="54" t="str">
         <f>IF(N115&gt;N116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C32AA72-2ADF-C143-82AB-DDB9F5F578EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168CF5C-B731-6444-BBD5-EA1E674E19A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2183,7 +2183,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2197,10 +2196,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2214,14 +2215,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2231,6 +2232,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2358,11 +2360,11 @@
     <v>Powered by Refinitiv</v>
     <v>98.67</v>
     <v>41</v>
-    <v>1.3925000000000001</v>
-    <v>0.38</v>
-    <v>6.0089999999999996E-3</v>
-    <v>0.11</v>
-    <v>1.7290000000000001E-3</v>
+    <v>1.3738999999999999</v>
+    <v>0.5</v>
+    <v>8.071E-3</v>
+    <v>-0.01</v>
+    <v>-1.6009999999999999E-4</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -2370,24 +2372,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>65.290000000000006</v>
+    <v>64.266999999999996</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.999519305471</v>
+    <v>45114.999113680467</v>
     <v>0</v>
-    <v>63.34</v>
-    <v>11631830000</v>
+    <v>61.9</v>
+    <v>11486530000</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>63.98</v>
-    <v>63.24</v>
-    <v>63.62</v>
-    <v>63.73</v>
+    <v>62.11</v>
+    <v>61.95</v>
+    <v>62.45</v>
+    <v>62.44</v>
     <v>183931600</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>2674867</v>
-    <v>4263858</v>
+    <v>2711386</v>
+    <v>3764860</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2971,10 +2973,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O95" sqref="O95"/>
+      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3366,8 +3368,8 @@
         <v>0.47399999999999998</v>
       </c>
       <c r="S7" s="20">
-        <f>L21</f>
-        <v>0.15008567931456548</v>
+        <f>K21</f>
+        <v>-0.24340000000000001</v>
       </c>
       <c r="T7" s="20">
         <f>K30</f>
@@ -3530,7 +3532,7 @@
       </c>
       <c r="U10" s="20">
         <f>K89</f>
-        <v>0</v>
+        <v>2.0955377240958091E-2</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -3813,15 +3815,15 @@
       </c>
       <c r="S16" s="35">
         <f>T101/L3</f>
-        <v>2.8474492044063648</v>
+        <v>2.8118800489596083</v>
       </c>
       <c r="T16" s="35">
         <f>T101/L28</f>
-        <v>43.745129748025576</v>
+        <v>43.198683715682584</v>
       </c>
       <c r="U16" s="36">
         <f>T101/L107</f>
-        <v>21.905517890772128</v>
+        <v>21.631883239171376</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3966,15 +3968,15 @@
       </c>
       <c r="S19" s="35">
         <f>T101/M3</f>
-        <v>2.5946531340620123</v>
+        <v>2.562241802364488</v>
       </c>
       <c r="T19" s="38">
         <f>T101/M28</f>
-        <v>33.735005800464037</v>
+        <v>33.313602088167052</v>
       </c>
       <c r="U19" s="36">
         <f>T101/M106</f>
-        <v>19.062323828253032</v>
+        <v>18.824205178629956</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4160,7 +4162,7 @@
       </c>
       <c r="U22" s="47">
         <f>L107/T101</f>
-        <v>4.5650598401111436E-2</v>
+        <v>4.6228060171348527E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6696,7 +6698,7 @@
         <v>-46048000</v>
       </c>
       <c r="K88" s="1">
-        <v>0</v>
+        <v>-80182000</v>
       </c>
       <c r="L88" s="1"/>
       <c r="S88" s="57" t="s">
@@ -6749,7 +6751,7 @@
       </c>
       <c r="K89" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.0955377240958091E-2</v>
       </c>
       <c r="L89" s="15"/>
       <c r="S89" s="55" t="s">
@@ -6982,7 +6984,7 @@
       </c>
       <c r="T94" s="59">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7025,7 +7027,7 @@
       </c>
       <c r="T95" s="60" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>1.3925000000000001</v>
+        <v>1.3738999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7110,7 +7112,7 @@
       </c>
       <c r="T97" s="58">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>0.10184305000000002</v>
+        <v>0.10029830100000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7236,7 +7238,7 @@
       </c>
       <c r="T100" s="58">
         <f>T99/T103</f>
-        <v>9.5452115301990201E-2</v>
+        <v>9.6542977314333242E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7279,7 +7281,7 @@
       </c>
       <c r="T101" s="49" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11631830000</v>
+        <v>11486530000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7322,7 +7324,7 @@
       </c>
       <c r="T102" s="58">
         <f>T101/T103</f>
-        <v>0.90454788469800984</v>
+        <v>0.90345702268566674</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7365,7 +7367,7 @@
       </c>
       <c r="T103" s="61">
         <f>T99+T101</f>
-        <v>12859275000</v>
+        <v>12713975000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7446,7 +7448,7 @@
       </c>
       <c r="K105" s="1">
         <f>(K22*(1-0.2))+K77+K88+K81</f>
-        <v>-761029400</v>
+        <v>-841211400</v>
       </c>
       <c r="L105" s="27">
         <v>531000000</v>
@@ -7479,7 +7481,7 @@
       </c>
       <c r="T105" s="63">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>9.2121915448693664E-2</v>
+        <v>9.0615204401890831E-2</v>
       </c>
       <c r="U105" s="15"/>
       <c r="AI105" s="15"/>
@@ -7615,7 +7617,7 @@
       <c r="P107" s="31"/>
       <c r="Q107" s="45">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>25502102980.187134</v>
+        <v>26087703537.667744</v>
       </c>
       <c r="R107" s="32" t="s">
         <v>145</v>
@@ -7646,7 +7648,7 @@
       </c>
       <c r="Q108" s="45">
         <f>Q107+Q106</f>
-        <v>27172102980.187134</v>
+        <v>27757703537.667744</v>
       </c>
       <c r="R108" s="32" t="s">
         <v>142</v>
@@ -7656,7 +7658,7 @@
       </c>
       <c r="T108" s="65">
         <f>T105</f>
-        <v>9.2121915448693664E-2</v>
+        <v>9.0615204401890831E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7671,7 +7673,7 @@
       </c>
       <c r="N110" s="49">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>20716811600.986626</v>
+        <v>21229850609.517429</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7698,7 +7700,7 @@
       </c>
       <c r="N113" s="49">
         <f>N110+N111-N112</f>
-        <v>23644435600.986626</v>
+        <v>24157474609.517429</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7716,7 +7718,7 @@
       </c>
       <c r="N115" s="51">
         <f>N113/N114</f>
-        <v>72.624357037680284</v>
+        <v>74.2001666175141</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7725,7 +7727,7 @@
       </c>
       <c r="N116" s="52" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>63.62</v>
+        <v>62.45</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7734,7 +7736,7 @@
       </c>
       <c r="N117" s="53">
         <f>N115/N116-1</f>
-        <v>0.14153343347501246</v>
+        <v>0.1881531884309704</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F168CF5C-B731-6444-BBD5-EA1E674E19A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE40B59-A3EC-1143-9D60-44BAFE678EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2181,8 +2181,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2191,21 +2190,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2215,24 +2215,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2361,10 +2349,8 @@
     <v>98.67</v>
     <v>41</v>
     <v>1.3738999999999999</v>
-    <v>0.5</v>
-    <v>8.071E-3</v>
-    <v>-0.01</v>
-    <v>-1.6009999999999999E-4</v>
+    <v>1.1200000000000001</v>
+    <v>1.7934000000000002E-2</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -2372,24 +2358,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>64.266999999999996</v>
+    <v>63.79</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.999113680467</v>
+    <v>45117.987512036721</v>
     <v>0</v>
-    <v>61.9</v>
-    <v>11486530000</v>
+    <v>61.51</v>
+    <v>11692531812</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>62.11</v>
     <v>61.95</v>
     <v>62.45</v>
-    <v>62.44</v>
+    <v>63.57</v>
     <v>183931600</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>2711386</v>
-    <v>3764860</v>
+    <v>10</v>
+    <v>3228882</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2421,8 +2406,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2442,7 +2425,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2459,7 +2441,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2470,16 +2452,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2543,19 +2522,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2599,9 +2572,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2609,9 +2579,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2973,10 +2940,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
+      <selection pane="bottomRight" activeCell="P95" sqref="P95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3123,13 +3090,13 @@
         <v>3826321000</v>
       </c>
       <c r="L3" s="27">
-        <v>4085000000</v>
+        <v>4090000000</v>
       </c>
       <c r="M3" s="27">
-        <v>4483000000</v>
+        <v>4531000000</v>
       </c>
       <c r="N3" s="27">
-        <v>5420000000</v>
+        <v>5359000000</v>
       </c>
       <c r="O3" s="27">
         <v>6648000000</v>
@@ -3196,19 +3163,19 @@
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>6.7605148653236302E-2</v>
+        <v>6.8911886901281916E-2</v>
       </c>
       <c r="M4" s="16">
         <f>(M3/L3)-1</f>
-        <v>9.7429620563035391E-2</v>
+        <v>0.10782396088019564</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20901182244033012</v>
+        <v>0.18274111675126914</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22656826568265687</v>
+        <v>0.24052994961746599</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
@@ -3220,11 +3187,11 @@
       </c>
       <c r="R4" s="17">
         <f>(K4+J4+L4)/3</f>
-        <v>0.34236098354484623</v>
+        <v>0.34279656296086142</v>
       </c>
       <c r="S4" s="17">
         <f>(K20+J20+L20)/3</f>
-        <v>-0.11744063490867673</v>
+        <v>-0.11697535549049072</v>
       </c>
       <c r="T4" s="17">
         <f>(K29+J29+L29)/3</f>
@@ -3377,7 +3344,7 @@
       </c>
       <c r="U7" s="20">
         <f>L107/L3</f>
-        <v>0.12998776009791921</v>
+        <v>0.12982885085574572</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -3815,15 +3782,15 @@
       </c>
       <c r="S16" s="35">
         <f>T101/L3</f>
-        <v>2.8118800489596083</v>
+        <v>2.8588097339853302</v>
       </c>
       <c r="T16" s="35">
         <f>T101/L28</f>
-        <v>43.198683715682584</v>
+        <v>43.973417871380221</v>
       </c>
       <c r="U16" s="36">
         <f>T101/L107</f>
-        <v>21.631883239171376</v>
+        <v>22.019833920903956</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3945,13 +3912,13 @@
         <v>-931340000</v>
       </c>
       <c r="L19" s="33">
-        <v>613100000</v>
+        <v>611800000</v>
       </c>
       <c r="M19" s="33">
-        <v>712000000</v>
+        <v>713000000</v>
       </c>
       <c r="N19" s="33">
-        <v>974700000</v>
+        <v>954000000</v>
       </c>
       <c r="O19" s="33">
         <v>884800000</v>
@@ -3968,15 +3935,15 @@
       </c>
       <c r="S19" s="35">
         <f>T101/M3</f>
-        <v>2.562241802364488</v>
+        <v>2.5805631895828736</v>
       </c>
       <c r="T19" s="38">
         <f>T101/M28</f>
-        <v>33.313602088167052</v>
+        <v>33.911055139211136</v>
       </c>
       <c r="U19" s="36">
         <f>T101/M106</f>
-        <v>18.824205178629956</v>
+        <v>19.161802379547691</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4022,19 +3989,19 @@
       </c>
       <c r="L20" s="16">
         <f t="shared" si="3"/>
-        <v>-1.6582987952842141</v>
+        <v>-1.6569029570296561</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="4">(M19/L19)-1</f>
-        <v>0.16131136845539062</v>
+        <v>0.16541353383458657</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20" si="5">(N19/M19)-1</f>
-        <v>0.36896067415730327</v>
+        <v>0.3380084151472651</v>
       </c>
       <c r="O20" s="16">
         <f t="shared" ref="O20" si="6">(O19/N19)-1</f>
-        <v>-9.2233507745973164E-2</v>
+        <v>-7.2536687631027275E-2</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" ref="P20" si="7">(P19/O19)-1</f>
@@ -4092,15 +4059,15 @@
       </c>
       <c r="L21" s="41">
         <f>L19/L3</f>
-        <v>0.15008567931456548</v>
+        <v>0.14958435207823961</v>
       </c>
       <c r="M21" s="42">
         <f t="shared" ref="M21:Q21" si="9">M19/M3</f>
-        <v>0.15882221726522419</v>
+        <v>0.15736040609137056</v>
       </c>
       <c r="N21" s="42">
         <f t="shared" si="9"/>
-        <v>0.17983394833948341</v>
+        <v>0.17801828699384215</v>
       </c>
       <c r="O21" s="42">
         <f t="shared" si="9"/>
@@ -4162,7 +4129,7 @@
       </c>
       <c r="U22" s="47">
         <f>L107/T101</f>
-        <v>4.6228060171348527E-2</v>
+        <v>4.5413603190289101E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4389,13 +4356,13 @@
         <v>520800000</v>
       </c>
       <c r="O28" s="40">
-        <v>818400000</v>
+        <v>650000000</v>
       </c>
       <c r="P28" s="40">
         <v>726000000</v>
       </c>
       <c r="Q28" s="40">
-        <v>1000000000</v>
+        <v>958000000</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4453,15 +4420,15 @@
       </c>
       <c r="O29" s="16">
         <f t="shared" ref="O29" si="14">(O28/N28)-1</f>
-        <v>0.5714285714285714</v>
+        <v>0.24807987711213508</v>
       </c>
       <c r="P29" s="16">
         <f t="shared" ref="P29" si="15">(P28/O28)-1</f>
-        <v>-0.11290322580645162</v>
+        <v>0.11692307692307691</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" ref="Q29" si="16">(Q28/P28)-1</f>
-        <v>0.37741046831955916</v>
+        <v>0.31955922865013764</v>
       </c>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
@@ -4511,19 +4478,19 @@
       </c>
       <c r="L30" s="41">
         <f>L28/L3</f>
-        <v>6.5091799265605876E-2</v>
+        <v>6.5012224938875304E-2</v>
       </c>
       <c r="M30" s="41">
         <f>M28/M3</f>
-        <v>7.6912781619451254E-2</v>
+        <v>7.609799161333039E-2</v>
       </c>
       <c r="N30" s="41">
         <f t="shared" ref="N30:Q30" si="17">N28/N3</f>
-        <v>9.6088560885608854E-2</v>
+        <v>9.7182310132487404E-2</v>
       </c>
       <c r="O30" s="41">
         <f t="shared" si="17"/>
-        <v>0.12310469314079422</v>
+        <v>9.777376654632973E-2</v>
       </c>
       <c r="P30" s="41">
         <f t="shared" si="17"/>
@@ -4531,7 +4498,7 @@
       </c>
       <c r="Q30" s="41">
         <f t="shared" si="17"/>
-        <v>0.1111111111111111</v>
+        <v>0.10644444444444444</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6984,7 +6951,7 @@
       </c>
       <c r="T94" s="59">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7112,7 +7079,7 @@
       </c>
       <c r="T97" s="58">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>0.10029830100000001</v>
+        <v>0.100272128</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7238,7 +7205,7 @@
       </c>
       <c r="T100" s="58">
         <f>T99/T103</f>
-        <v>9.6542977314333242E-2</v>
+        <v>9.5003653478693259E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7281,7 +7248,7 @@
       </c>
       <c r="T101" s="49" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11486530000</v>
+        <v>11692531812</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7324,7 +7291,7 @@
       </c>
       <c r="T102" s="58">
         <f>T101/T103</f>
-        <v>0.90345702268566674</v>
+        <v>0.90499634652130678</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7367,7 +7334,7 @@
       </c>
       <c r="T103" s="61">
         <f>T99+T101</f>
-        <v>12713975000</v>
+        <v>12919976812</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7455,23 +7422,23 @@
       </c>
       <c r="M105" s="30">
         <f>L105*(1+$T$106)</f>
-        <v>622547556.69243288</v>
+        <v>622344217.52381384</v>
       </c>
       <c r="N105" s="30">
         <f t="shared" ref="N105:Q105" si="22">M105*(1+$T$106)</f>
-        <v>729878456.39118254</v>
+        <v>729401742.15692675</v>
       </c>
       <c r="O105" s="30">
         <f t="shared" si="22"/>
-        <v>855713841.25946343</v>
+        <v>854875624.26207006</v>
       </c>
       <c r="P105" s="30">
         <f t="shared" si="22"/>
-        <v>1003243994.5460929</v>
+        <v>1001933901.0575515</v>
       </c>
       <c r="Q105" s="30">
         <f t="shared" si="22"/>
-        <v>1176209223.2976019</v>
+        <v>1174289585.0550737</v>
       </c>
       <c r="R105" s="31" t="s">
         <v>163</v>
@@ -7481,7 +7448,7 @@
       </c>
       <c r="T105" s="63">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>9.0615204401890831E-2</v>
+        <v>9.0745909497916832E-2</v>
       </c>
       <c r="U105" s="15"/>
       <c r="AI105" s="15"/>
@@ -7571,7 +7538,7 @@
       </c>
       <c r="T106" s="65">
         <f>(SUM(M4:Q4)/5)</f>
-        <v>0.17240594480684165</v>
+        <v>0.17202300851942334</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7617,7 +7584,7 @@
       <c r="P107" s="31"/>
       <c r="Q107" s="45">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>26087703537.667744</v>
+        <v>26035840298.995888</v>
       </c>
       <c r="R107" s="32" t="s">
         <v>145</v>
@@ -7648,7 +7615,7 @@
       </c>
       <c r="Q108" s="45">
         <f>Q107+Q106</f>
-        <v>27757703537.667744</v>
+        <v>27705840298.995888</v>
       </c>
       <c r="R108" s="32" t="s">
         <v>142</v>
@@ -7658,7 +7625,7 @@
       </c>
       <c r="T108" s="65">
         <f>T105</f>
-        <v>9.0615204401890831E-2</v>
+        <v>9.0745909497916832E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7673,7 +7640,7 @@
       </c>
       <c r="N110" s="49">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>21229850609.517429</v>
+        <v>21184406276.135979</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7700,7 +7667,7 @@
       </c>
       <c r="N113" s="49">
         <f>N110+N111-N112</f>
-        <v>24157474609.517429</v>
+        <v>24112030276.135979</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7718,7 +7685,7 @@
       </c>
       <c r="N115" s="51">
         <f>N113/N114</f>
-        <v>74.2001666175141</v>
+        <v>74.060583438260878</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7727,7 +7694,7 @@
       </c>
       <c r="N116" s="52" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>62.45</v>
+        <v>63.57</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7736,7 +7703,7 @@
       </c>
       <c r="N117" s="53">
         <f>N115/N116-1</f>
-        <v>0.1881531884309704</v>
+        <v>0.16502412204280126</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7780,10 +7747,9 @@
     <hyperlink ref="K36" r:id="rId20" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="K74" r:id="rId21" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="M1" r:id="rId22" display="https://finbox.com/NYSE:TWLO/explorer/revenue_proj" xr:uid="{FB5D01A9-44EE-A749-92DC-4C0B4882A940}"/>
-    <hyperlink ref="L1" r:id="rId23" display="https://finbox.com/NYSE:TWLO/models/dcf-revenue-exit-5yr/" xr:uid="{920F1266-3CDA-7248-BAC5-E2AB0E12370D}"/>
-    <hyperlink ref="R106" r:id="rId24" xr:uid="{CC50150D-9459-A946-A829-8116BDB0C593}"/>
+    <hyperlink ref="R106" r:id="rId23" xr:uid="{CC50150D-9459-A946-A829-8116BDB0C593}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId25"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE40B59-A3EC-1143-9D60-44BAFE678EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4C4CCE-D4BB-4047-9E43-5EFF950E8AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2191,6 +2191,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2202,7 +2203,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2221,6 +2222,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2348,9 +2350,11 @@
     <v>Powered by Refinitiv</v>
     <v>98.67</v>
     <v>41</v>
-    <v>1.3738999999999999</v>
-    <v>1.1200000000000001</v>
-    <v>1.7934000000000002E-2</v>
+    <v>1.3694</v>
+    <v>-0.95</v>
+    <v>-1.5485000000000001E-2</v>
+    <v>-0.41</v>
+    <v>-6.7869999999999996E-3</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -2358,23 +2362,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>63.79</v>
+    <v>62.71</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.987512036721</v>
+    <v>45132.97402265</v>
     <v>0</v>
-    <v>61.51</v>
-    <v>11692531812</v>
+    <v>60.3</v>
+    <v>11109468640</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>61.95</v>
-    <v>62.45</v>
-    <v>63.57</v>
+    <v>61.75</v>
+    <v>61.35</v>
+    <v>60.4</v>
+    <v>60</v>
     <v>183931600</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>10</v>
-    <v>3228882</v>
+    <v>2844680</v>
+    <v>3888095</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2406,6 +2411,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2425,6 +2432,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2441,7 +2449,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2452,13 +2460,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2522,13 +2533,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2572,6 +2589,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2579,6 +2599,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2940,10 +2963,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P95" sqref="P95"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3782,15 +3805,15 @@
       </c>
       <c r="S16" s="35">
         <f>T101/L3</f>
-        <v>2.8588097339853302</v>
+        <v>2.7162515012224939</v>
       </c>
       <c r="T16" s="35">
         <f>T101/L28</f>
-        <v>43.973417871380221</v>
+        <v>41.780626701767581</v>
       </c>
       <c r="U16" s="36">
         <f>T101/L107</f>
-        <v>22.019833920903956</v>
+        <v>20.921786516007533</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3935,15 +3958,15 @@
       </c>
       <c r="S19" s="35">
         <f>T101/M3</f>
-        <v>2.5805631895828736</v>
+        <v>2.4518800794526596</v>
       </c>
       <c r="T19" s="38">
         <f>T101/M28</f>
-        <v>33.911055139211136</v>
+        <v>32.220036658932713</v>
       </c>
       <c r="U19" s="36">
         <f>T101/M106</f>
-        <v>19.161802379547691</v>
+        <v>18.206274401835465</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4129,7 +4152,7 @@
       </c>
       <c r="U22" s="47">
         <f>L107/T101</f>
-        <v>4.5413603190289101E-2</v>
+        <v>4.7797065476931758E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6951,7 +6974,7 @@
       </c>
       <c r="T94" s="59">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -6994,7 +7017,7 @@
       </c>
       <c r="T95" s="60" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>1.3738999999999999</v>
+        <v>1.3694</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7079,7 +7102,7 @@
       </c>
       <c r="T97" s="58">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>0.100272128</v>
+        <v>0.10057867200000001</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7205,7 +7228,7 @@
       </c>
       <c r="T100" s="58">
         <f>T99/T103</f>
-        <v>9.5003653478693259E-2</v>
+        <v>9.9493685034825294E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7248,7 +7271,7 @@
       </c>
       <c r="T101" s="49" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11692531812</v>
+        <v>11109468640</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7291,7 +7314,7 @@
       </c>
       <c r="T102" s="58">
         <f>T101/T103</f>
-        <v>0.90499634652130678</v>
+        <v>0.90050631496517475</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7334,7 +7357,7 @@
       </c>
       <c r="T103" s="61">
         <f>T99+T101</f>
-        <v>12919976812</v>
+        <v>12336913640</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7448,7 +7471,7 @@
       </c>
       <c r="T105" s="63">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>9.0745909497916832E-2</v>
+        <v>9.0571729286811009E-2</v>
       </c>
       <c r="U105" s="15"/>
       <c r="AI105" s="15"/>
@@ -7584,7 +7607,7 @@
       <c r="P107" s="31"/>
       <c r="Q107" s="45">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>26035840298.995888</v>
+        <v>26105000106.26223</v>
       </c>
       <c r="R107" s="32" t="s">
         <v>145</v>
@@ -7615,7 +7638,7 @@
       </c>
       <c r="Q108" s="45">
         <f>Q107+Q106</f>
-        <v>27705840298.995888</v>
+        <v>27775000106.26223</v>
       </c>
       <c r="R108" s="32" t="s">
         <v>142</v>
@@ -7625,7 +7648,7 @@
       </c>
       <c r="T108" s="65">
         <f>T105</f>
-        <v>9.0745909497916832E-2</v>
+        <v>9.0571729286811009E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -7640,7 +7663,7 @@
       </c>
       <c r="N110" s="49">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>21184406276.135979</v>
+        <v>21245006766.322643</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7667,7 +7690,7 @@
       </c>
       <c r="N113" s="49">
         <f>N110+N111-N112</f>
-        <v>24112030276.135979</v>
+        <v>24172630766.322643</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7685,7 +7708,7 @@
       </c>
       <c r="N115" s="51">
         <f>N113/N114</f>
-        <v>74.060583438260878</v>
+        <v>74.24671905639299</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7694,7 +7717,7 @@
       </c>
       <c r="N116" s="52" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>63.57</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7703,7 +7726,7 @@
       </c>
       <c r="N117" s="53">
         <f>N115/N116-1</f>
-        <v>0.16502412204280126</v>
+        <v>0.2292503155031953</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4C4CCE-D4BB-4047-9E43-5EFF950E8AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E39E86-DE65-A64F-BC37-E2B2B4D1623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -564,16 +564,19 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +704,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -902,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -957,11 +967,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -983,66 +988,129 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1096,17 +1164,10 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Twilio</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.45655952443030712"/>
-          <c:y val="2.4050289033860122E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1140,10 +1201,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9192052980132446E-2"/>
-          <c:y val="0.15675107986516104"/>
-          <c:w val="0.86120529801324508"/>
-          <c:h val="0.69351776490342099"/>
+          <c:x val="8.9639669421487586E-2"/>
+          <c:y val="0.14312577142586708"/>
+          <c:w val="0.84953388429752075"/>
+          <c:h val="0.62908718096154481"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1197,12 +1258,69 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$K$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$Q$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>49920000</c:v>
                 </c:pt>
@@ -1232,13 +1350,31 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3826321000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4062000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4403000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5126000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5410000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5951000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6397000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-834D-AC47-BD5D-6AB15189BAEA}"/>
+              <c16:uniqueId val="{00000000-ED54-A045-ABB7-FF774DFD93DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1247,11 +1383,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1289,48 +1425,123 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$K$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-26244000</c:v>
+                  <c:v>-26854000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-24989000</c:v>
+                  <c:v>-26758000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-31156000</c:v>
+                  <c:v>-35504000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-32683000</c:v>
+                  <c:v>-41324000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-44239000</c:v>
+                  <c:v>-63708000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-95063000</c:v>
+                  <c:v>-121949000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-228593000</c:v>
+                  <c:v>-307063000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-354766000</c:v>
+                  <c:v>-490979000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-702551000</c:v>
+                  <c:v>-949900000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-931340000</c:v>
+                  <c:v>-1256145000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>319000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>378000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>564000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>821000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1043000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1318000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-834D-AC47-BD5D-6AB15189BAEA}"/>
+              <c16:uniqueId val="{00000001-ED54-A045-ABB7-FF774DFD93DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1381,12 +1592,69 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$K$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$Q$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>-26074000</c:v>
                 </c:pt>
@@ -1416,13 +1684,31 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-300129000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>531000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>643000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>818000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1182000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1471000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1650000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-834D-AC47-BD5D-6AB15189BAEA}"/>
+              <c16:uniqueId val="{00000002-ED54-A045-ABB7-FF774DFD93DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1436,11 +1722,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1859292464"/>
-        <c:axId val="1859158160"/>
+        <c:axId val="890336271"/>
+        <c:axId val="890337055"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1859292464"/>
+        <c:axId val="890336271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1754,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1480,7 +1766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859158160"/>
+        <c:crossAx val="890337055"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1488,10 +1774,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1859158160"/>
+        <c:axId val="890337055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-1000000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1537,7 +1823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859292464"/>
+        <c:crossAx val="890336271"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1555,10 +1841,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34424873546435836"/>
-          <c:y val="0.90520685132254108"/>
-          <c:w val="0.30355550920373364"/>
-          <c:h val="4.4817722222432639E-2"/>
+          <c:x val="0.34443209474848702"/>
+          <c:y val="0.89875931563563971"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="6.5885115406701666E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2138,22 +2424,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5794B4BC-C766-B9C8-53CB-274460576704}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FCB083-E87A-784D-028F-B72A61CDBA6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,38 +2467,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2348,13 +2634,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>98.67</v>
+    <v>79.7</v>
     <v>41</v>
-    <v>1.3694</v>
-    <v>-0.95</v>
-    <v>-1.5485000000000001E-2</v>
-    <v>-0.41</v>
-    <v>-6.7869999999999996E-3</v>
+    <v>1.3233999999999999</v>
+    <v>-0.61</v>
+    <v>-1.0888999999999999E-2</v>
+    <v>-0.21</v>
+    <v>-3.79E-3</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -2362,24 +2648,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>62.71</v>
+    <v>56.83</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.97402265</v>
+    <v>45218.998038182814</v>
     <v>0</v>
-    <v>60.3</v>
-    <v>11109468640</v>
+    <v>55.32</v>
+    <v>10146150000</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>61.75</v>
-    <v>61.35</v>
-    <v>60.4</v>
-    <v>60</v>
-    <v>183931600</v>
+    <v>56.49</v>
+    <v>56.02</v>
+    <v>55.41</v>
+    <v>55.2</v>
+    <v>181116500</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>2844680</v>
-    <v>3888095</v>
+    <v>1358201</v>
+    <v>1975648</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2541,9 +2827,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2960,13 +3246,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV118"/>
+  <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomRight" activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3113,22 +3399,22 @@
         <v>3826321000</v>
       </c>
       <c r="L3" s="27">
-        <v>4090000000</v>
+        <v>4062000000</v>
       </c>
       <c r="M3" s="27">
-        <v>4531000000</v>
+        <v>4403000000</v>
       </c>
       <c r="N3" s="27">
-        <v>5359000000</v>
+        <v>5126000000</v>
       </c>
       <c r="O3" s="27">
-        <v>6648000000</v>
+        <v>5410000000</v>
       </c>
       <c r="P3" s="27">
-        <v>8060000000</v>
+        <v>5951000000</v>
       </c>
       <c r="Q3" s="27">
-        <v>9000000000</v>
+        <v>6397000000</v>
       </c>
       <c r="R3" s="18" t="s">
         <v>107</v>
@@ -3148,77 +3434,77 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="48">
         <f>(C3/B3)-1</f>
         <v>0.77976762820512824</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="48">
         <f>(D3/C3)-1</f>
         <v>0.87874524458051018</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="48">
         <f>(E3/D3)-1</f>
         <v>0.66149449733104082</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="48">
         <f t="shared" ref="F4:Q4" si="0">(F3/E3)-1</f>
         <v>0.43876539203490372</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="48">
         <f t="shared" si="0"/>
         <v>0.62915893940153378</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="48">
         <f t="shared" si="0"/>
         <v>0.74515549935622016</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="48">
         <f t="shared" si="0"/>
         <v>0.55295345483521796</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="48">
         <f t="shared" si="0"/>
         <v>0.613053532344634</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="48">
         <f t="shared" si="0"/>
         <v>0.34642426963666839</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8911886901281916E-2</v>
+        <v>6.1594152712226791E-2</v>
       </c>
       <c r="M4" s="16">
         <f>(M3/L3)-1</f>
-        <v>0.10782396088019564</v>
+        <v>8.3948793697685931E-2</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18274111675126914</v>
+        <v>0.16420622302975252</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24052994961746599</v>
+        <v>5.5403823644166961E-2</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21239470517448855</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11662531017369737</v>
+        <v>7.4945387329860447E-2</v>
       </c>
       <c r="R4" s="17">
         <f>(K4+J4+L4)/3</f>
-        <v>0.34279656296086142</v>
+        <v>0.34035731823117638</v>
       </c>
       <c r="S4" s="17">
         <f>(K20+J20+L20)/3</f>
-        <v>-0.11697535549049072</v>
+        <v>-0.14245835131729226</v>
       </c>
       <c r="T4" s="17">
         <f>(K29+J29+L29)/3</f>
-        <v>1.514122510145636E-2</v>
+        <v>1.0504951299961096E-3</v>
       </c>
       <c r="U4" s="17">
         <f>(K106+J106+L106)/3</f>
@@ -3301,20 +3587,23 @@
       <c r="J6" s="10">
         <v>1390713000</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="36">
         <v>1813577000</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="R6" s="18" t="s">
+      <c r="L6" s="36">
+        <f>L3*L7</f>
+        <v>1979818800</v>
+      </c>
+      <c r="R6" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="58" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3352,22 +3641,24 @@
       <c r="K7" s="2">
         <v>0.47399999999999998</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>0.4874</v>
+      </c>
       <c r="R7" s="17">
-        <f>K7</f>
-        <v>0.47399999999999998</v>
+        <f>L7</f>
+        <v>0.4874</v>
       </c>
       <c r="S7" s="20">
-        <f>K21</f>
-        <v>-0.24340000000000001</v>
+        <f>L21</f>
+        <v>0.16814377154111276</v>
       </c>
       <c r="T7" s="20">
-        <f>K30</f>
-        <v>-0.32829999999999998</v>
+        <f>L30</f>
+        <v>7.8532742491383561E-2</v>
       </c>
       <c r="U7" s="20">
         <f>L107/L3</f>
-        <v>0.12982885085574572</v>
+        <v>0.13072378138847859</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -3670,7 +3961,7 @@
         <f>K22/(K72+K56+K61)</f>
         <v>-0.10226185291681907</v>
       </c>
-      <c r="U13" s="37">
+      <c r="U13" s="34">
         <f>K67/K72</f>
         <v>0.18990946337745412</v>
       </c>
@@ -3803,17 +4094,17 @@
         <f>(K35+J35+I35+H35+G35)/5</f>
         <v>0.15582766145973298</v>
       </c>
-      <c r="S16" s="35">
-        <f>T101/L3</f>
-        <v>2.7162515012224939</v>
-      </c>
-      <c r="T16" s="35">
-        <f>T101/L28</f>
-        <v>41.780626701767581</v>
-      </c>
-      <c r="U16" s="36">
-        <f>T101/L107</f>
-        <v>20.921786516007533</v>
+      <c r="S16" s="32">
+        <f>T102/L3</f>
+        <v>2.4978212703101921</v>
+      </c>
+      <c r="T16" s="32">
+        <f>T102/L28</f>
+        <v>31.806112852664576</v>
+      </c>
+      <c r="U16" s="33">
+        <f>T102/L107</f>
+        <v>19.107627118644068</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3934,39 +4225,39 @@
       <c r="K19" s="10">
         <v>-931340000</v>
       </c>
-      <c r="L19" s="33">
-        <v>611800000</v>
-      </c>
-      <c r="M19" s="33">
-        <v>713000000</v>
-      </c>
-      <c r="N19" s="33">
-        <v>954000000</v>
-      </c>
-      <c r="O19" s="33">
+      <c r="L19" s="30">
+        <v>683000000</v>
+      </c>
+      <c r="M19" s="30">
+        <v>755000000</v>
+      </c>
+      <c r="N19" s="30">
+        <v>983000000</v>
+      </c>
+      <c r="O19" s="30">
         <v>884800000</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="30">
         <v>1210000000</v>
       </c>
-      <c r="Q19" s="33">
-        <v>1500000000</v>
+      <c r="Q19" s="30">
+        <v>1333000000</v>
       </c>
       <c r="R19" s="29">
         <f>K40-K56-K61</f>
         <v>2927624000</v>
       </c>
-      <c r="S19" s="35">
-        <f>T101/M3</f>
-        <v>2.4518800794526596</v>
-      </c>
-      <c r="T19" s="38">
-        <f>T101/M28</f>
-        <v>32.220036658932713</v>
-      </c>
-      <c r="U19" s="36">
-        <f>T101/M106</f>
-        <v>18.206274401835465</v>
+      <c r="S19" s="32">
+        <f>T102/M3</f>
+        <v>2.3043720190779013</v>
+      </c>
+      <c r="T19" s="35">
+        <f>T102/M28</f>
+        <v>26.841666666666665</v>
+      </c>
+      <c r="U19" s="33">
+        <f>T102/M107</f>
+        <v>15.779393468118196</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4012,19 +4303,19 @@
       </c>
       <c r="L20" s="16">
         <f t="shared" si="3"/>
-        <v>-1.6569029570296561</v>
+        <v>-1.7333519445100607</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="4">(M19/L19)-1</f>
-        <v>0.16541353383458657</v>
+        <v>0.10541727672035139</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20" si="5">(N19/M19)-1</f>
-        <v>0.3380084151472651</v>
+        <v>0.30198675496688732</v>
       </c>
       <c r="O20" s="16">
         <f t="shared" ref="O20" si="6">(O19/N19)-1</f>
-        <v>-7.2536687631027275E-2</v>
+        <v>-9.9898270600203509E-2</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" ref="P20" si="7">(P19/O19)-1</f>
@@ -4032,7 +4323,7 @@
       </c>
       <c r="Q20" s="16">
         <f t="shared" ref="Q20" si="8">(Q19/P19)-1</f>
-        <v>0.2396694214876034</v>
+        <v>0.10165289256198351</v>
       </c>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
@@ -4080,32 +4371,35 @@
       <c r="K21" s="2">
         <v>-0.24340000000000001</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="38">
         <f>L19/L3</f>
-        <v>0.14958435207823961</v>
-      </c>
-      <c r="M21" s="42">
+        <v>0.16814377154111276</v>
+      </c>
+      <c r="M21" s="39">
         <f t="shared" ref="M21:Q21" si="9">M19/M3</f>
-        <v>0.15736040609137056</v>
-      </c>
-      <c r="N21" s="42">
+        <v>0.17147399500340677</v>
+      </c>
+      <c r="N21" s="39">
         <f t="shared" si="9"/>
-        <v>0.17801828699384215</v>
-      </c>
-      <c r="O21" s="42">
+        <v>0.19176746000780334</v>
+      </c>
+      <c r="O21" s="39">
         <f t="shared" si="9"/>
-        <v>0.13309265944645007</v>
-      </c>
-      <c r="P21" s="42">
+        <v>0.16354898336414048</v>
+      </c>
+      <c r="P21" s="39">
         <f t="shared" si="9"/>
-        <v>0.15012406947890819</v>
-      </c>
-      <c r="Q21" s="42">
+        <v>0.20332717190388169</v>
+      </c>
+      <c r="Q21" s="39">
         <f t="shared" si="9"/>
-        <v>0.16666666666666666</v>
+        <v>0.20837892762232296</v>
+      </c>
+      <c r="S21" s="49" t="s">
+        <v>167</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U21" s="19" t="s">
         <v>166</v>
@@ -4146,13 +4440,17 @@
         <v>-1205308000</v>
       </c>
       <c r="L22" s="10"/>
-      <c r="T22" s="46">
-        <f>(-1*L98)/T101</f>
+      <c r="S22" s="17">
+        <f>SUM(M29:Q29)/5</f>
+        <v>0.33335093796254017</v>
+      </c>
+      <c r="T22" s="41">
+        <f>(-1*L98)/T102</f>
         <v>0</v>
       </c>
-      <c r="U22" s="47">
-        <f>L107/T101</f>
-        <v>4.7797065476931758E-2</v>
+      <c r="U22" s="42">
+        <f>L105/T102</f>
+        <v>5.8840052630800846E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4261,7 +4559,7 @@
       <c r="K25" s="10">
         <v>-1243632000</v>
       </c>
-      <c r="L25" s="34"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -4369,23 +4667,23 @@
       <c r="K28" s="11">
         <v>-1256145000</v>
       </c>
-      <c r="L28" s="40">
-        <v>265900000</v>
-      </c>
-      <c r="M28" s="40">
-        <v>344800000</v>
-      </c>
-      <c r="N28" s="40">
-        <v>520800000</v>
-      </c>
-      <c r="O28" s="40">
-        <v>650000000</v>
-      </c>
-      <c r="P28" s="40">
-        <v>726000000</v>
-      </c>
-      <c r="Q28" s="40">
-        <v>958000000</v>
+      <c r="L28" s="37">
+        <v>319000000</v>
+      </c>
+      <c r="M28" s="37">
+        <v>378000000</v>
+      </c>
+      <c r="N28" s="37">
+        <v>564000000</v>
+      </c>
+      <c r="O28" s="37">
+        <v>821000000</v>
+      </c>
+      <c r="P28" s="37">
+        <v>1043000000</v>
+      </c>
+      <c r="Q28" s="37">
+        <v>1318000000</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4431,27 +4729,27 @@
       </c>
       <c r="L29" s="16">
         <f t="shared" ref="L29" si="11">(L28/K28)-1</f>
-        <v>-1.2116793841475308</v>
+        <v>-1.2539515740619116</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" ref="M29" si="12">(M28/L28)-1</f>
-        <v>0.29672809326814598</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="N29" s="16">
         <f t="shared" ref="N29" si="13">(N28/M28)-1</f>
-        <v>0.51044083526682127</v>
+        <v>0.49206349206349209</v>
       </c>
       <c r="O29" s="16">
         <f t="shared" ref="O29" si="14">(O28/N28)-1</f>
-        <v>0.24807987711213508</v>
+        <v>0.45567375886524819</v>
       </c>
       <c r="P29" s="16">
         <f t="shared" ref="P29" si="15">(P28/O28)-1</f>
-        <v>0.11692307692307691</v>
+        <v>0.27040194884287461</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" ref="Q29" si="16">(Q28/P28)-1</f>
-        <v>0.31955922865013764</v>
+        <v>0.26366251198465962</v>
       </c>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
@@ -4499,29 +4797,29 @@
       <c r="K30" s="2">
         <v>-0.32829999999999998</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="38">
         <f>L28/L3</f>
-        <v>6.5012224938875304E-2</v>
-      </c>
-      <c r="M30" s="41">
+        <v>7.8532742491383561E-2</v>
+      </c>
+      <c r="M30" s="38">
         <f>M28/M3</f>
-        <v>7.609799161333039E-2</v>
-      </c>
-      <c r="N30" s="41">
+        <v>8.5850556438791734E-2</v>
+      </c>
+      <c r="N30" s="38">
         <f t="shared" ref="N30:Q30" si="17">N28/N3</f>
-        <v>9.7182310132487404E-2</v>
-      </c>
-      <c r="O30" s="41">
+        <v>0.11002731174404994</v>
+      </c>
+      <c r="O30" s="38">
         <f t="shared" si="17"/>
-        <v>9.777376654632973E-2</v>
-      </c>
-      <c r="P30" s="41">
+        <v>0.15175600739371534</v>
+      </c>
+      <c r="P30" s="38">
         <f t="shared" si="17"/>
-        <v>9.0074441687344908E-2</v>
-      </c>
-      <c r="Q30" s="41">
+        <v>0.17526466140144514</v>
+      </c>
+      <c r="Q30" s="38">
         <f t="shared" si="17"/>
-        <v>0.10644444444444444</v>
+        <v>0.20603407847428482</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4630,7 +4928,10 @@
       <c r="K33" s="1">
         <v>182994038</v>
       </c>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1" cm="1">
+        <f t="array" ref="L33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>181116500</v>
+      </c>
     </row>
     <row r="34" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -4666,7 +4967,10 @@
       <c r="K34" s="1">
         <v>182994038</v>
       </c>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1" cm="1">
+        <f t="array" ref="L34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>181116500</v>
+      </c>
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -4678,7 +4982,7 @@
         <v>0.21201055076704345</v>
       </c>
       <c r="D35" s="21">
-        <f t="shared" ref="D35:K35" si="18">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:L35" si="18">(D34-C34)/C34</f>
         <v>3.6577580904915918E-3</v>
       </c>
       <c r="E35" s="21">
@@ -4709,7 +5013,10 @@
         <f t="shared" si="18"/>
         <v>0.24732946410942344</v>
       </c>
-      <c r="L35" s="21"/>
+      <c r="L35" s="21">
+        <f t="shared" si="18"/>
+        <v>-1.0260104758167039E-2</v>
+      </c>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
@@ -6447,7 +6754,7 @@
       </c>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -6482,12 +6789,8 @@
         <v>91</v>
       </c>
       <c r="L83" s="1"/>
-      <c r="S83" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="T83" s="71"/>
-    </row>
-    <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -6522,12 +6825,18 @@
         <v>30336000</v>
       </c>
       <c r="L84" s="1"/>
-      <c r="S84" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="T84" s="72"/>
-    </row>
-    <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="T84" s="79"/>
+    </row>
+    <row r="85" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -6562,13 +6871,16 @@
         <v>91</v>
       </c>
       <c r="L85" s="1"/>
-      <c r="S85" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="T85" s="56">
-        <f>K17</f>
-        <v>0</v>
-      </c>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
+      <c r="S85" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="T85" s="80"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -6605,12 +6917,18 @@
         <v>91</v>
       </c>
       <c r="L86" s="1"/>
-      <c r="S86" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="T86" s="56">
-        <f>K56</f>
-        <v>54222000</v>
+      <c r="M86" s="51"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="51"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="T86" s="62">
+        <f>K17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -6648,12 +6966,18 @@
         <v>-254368000</v>
       </c>
       <c r="L87" s="10"/>
-      <c r="S87" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="T87" s="56">
-        <f>K61</f>
-        <v>1173223000</v>
+      <c r="M87" s="51"/>
+      <c r="N87" s="51"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="T87" s="62">
+        <f>K56</f>
+        <v>54222000</v>
       </c>
     </row>
     <row r="88" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -6691,12 +7015,18 @@
         <v>-80182000</v>
       </c>
       <c r="L88" s="1"/>
-      <c r="S88" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="T88" s="58">
-        <f>T85/(T86+T87)</f>
-        <v>0</v>
+      <c r="M88" s="51"/>
+      <c r="N88" s="51"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="51"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="T88" s="62">
+        <f>K61</f>
+        <v>1173223000</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -6744,12 +7074,18 @@
         <v>2.0955377240958091E-2</v>
       </c>
       <c r="L89" s="15"/>
-      <c r="S89" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="T89" s="56">
-        <f>K27</f>
-        <v>12513000</v>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="T89" s="63">
+        <f>T86/(T87+T88)</f>
+        <v>0</v>
       </c>
       <c r="U89" s="15"/>
       <c r="AI89" s="15"/>
@@ -6800,12 +7136,18 @@
         <v>-37410000</v>
       </c>
       <c r="L90" s="1"/>
-      <c r="S90" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="T90" s="56">
-        <f>K25</f>
-        <v>-1243632000</v>
+      <c r="M90" s="51"/>
+      <c r="N90" s="51"/>
+      <c r="O90" s="51"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="51"/>
+      <c r="R90" s="51"/>
+      <c r="S90" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="T90" s="62">
+        <f>K27</f>
+        <v>12513000</v>
       </c>
     </row>
     <row r="91" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -6843,12 +7185,18 @@
         <v>-1938337000</v>
       </c>
       <c r="L91" s="1"/>
-      <c r="S91" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="T91" s="58">
-        <f>T89/T90</f>
-        <v>-1.0061658111081092E-2</v>
+      <c r="M91" s="51"/>
+      <c r="N91" s="51"/>
+      <c r="O91" s="51"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="51"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="T91" s="62">
+        <f>K25</f>
+        <v>-1243632000</v>
       </c>
     </row>
     <row r="92" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -6886,15 +7234,21 @@
         <v>1439477000</v>
       </c>
       <c r="L92" s="1"/>
-      <c r="S92" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="T92" s="58">
-        <f>T88*(1-T91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="M92" s="51"/>
+      <c r="N92" s="51"/>
+      <c r="O92" s="51"/>
+      <c r="P92" s="51"/>
+      <c r="Q92" s="51"/>
+      <c r="R92" s="51"/>
+      <c r="S92" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="T92" s="63">
+        <f>T90/T91</f>
+        <v>-1.0061658111081092E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -6929,12 +7283,21 @@
         <v>-80182000</v>
       </c>
       <c r="L93" s="1"/>
-      <c r="S93" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="T93" s="72"/>
-    </row>
-    <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="T93" s="63">
+        <f>T89*(1-T92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -6969,13 +7332,16 @@
         <v>-616452000</v>
       </c>
       <c r="L94" s="10"/>
-      <c r="S94" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="T94" s="59">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="M94" s="51"/>
+      <c r="N94" s="51"/>
+      <c r="O94" s="51"/>
+      <c r="P94" s="51"/>
+      <c r="Q94" s="51"/>
+      <c r="R94" s="51"/>
+      <c r="S94" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="T94" s="80"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -7012,12 +7378,18 @@
         <v>-13423000</v>
       </c>
       <c r="L95" s="1"/>
-      <c r="S95" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="T95" s="60" cm="1">
-        <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>1.3694</v>
+      <c r="M95" s="51"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+      <c r="P95" s="51"/>
+      <c r="Q95" s="51"/>
+      <c r="R95" s="51"/>
+      <c r="S95" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="T95" s="64">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7055,11 +7427,18 @@
         <v>91</v>
       </c>
       <c r="L96" s="1"/>
-      <c r="S96" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="T96" s="59">
-        <v>8.4000000000000005E-2</v>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="51"/>
+      <c r="Q96" s="51"/>
+      <c r="R96" s="51"/>
+      <c r="S96" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="T96" s="65" cm="1">
+        <f t="array" ref="T96">_FV(A1,"Beta")</f>
+        <v>1.3233999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7097,15 +7476,20 @@
         <v>91</v>
       </c>
       <c r="L97" s="1"/>
-      <c r="S97" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="T97" s="58">
-        <f>(T94)+((T95)*(T96-T94))</f>
-        <v>0.10057867200000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+      <c r="M97" s="51"/>
+      <c r="N97" s="51"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="51"/>
+      <c r="R97" s="51"/>
+      <c r="S97" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="T97" s="64">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -7140,12 +7524,21 @@
         <v>91</v>
       </c>
       <c r="L98" s="1"/>
-      <c r="S98" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="T98" s="72"/>
-    </row>
-    <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+      <c r="M98" s="51"/>
+      <c r="N98" s="51"/>
+      <c r="O98" s="51"/>
+      <c r="P98" s="51"/>
+      <c r="Q98" s="51"/>
+      <c r="R98" s="51"/>
+      <c r="S98" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="T98" s="63">
+        <f>(T95)+((T96)*(T97-T95))</f>
+        <v>9.5312532000000005E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -7180,13 +7573,16 @@
         <v>58430000</v>
       </c>
       <c r="L99" s="1"/>
-      <c r="S99" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="T99" s="56">
-        <f>T86+T87</f>
-        <v>1227445000</v>
-      </c>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="51"/>
+      <c r="R99" s="51"/>
+      <c r="S99" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="T99" s="80"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -7223,12 +7619,18 @@
         <v>45007000</v>
       </c>
       <c r="L100" s="10"/>
-      <c r="S100" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="T100" s="58">
-        <f>T99/T103</f>
-        <v>9.9493685034825294E-2</v>
+      <c r="M100" s="51"/>
+      <c r="N100" s="51"/>
+      <c r="O100" s="51"/>
+      <c r="P100" s="51"/>
+      <c r="Q100" s="51"/>
+      <c r="R100" s="51"/>
+      <c r="S100" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="T100" s="62">
+        <f>T87+T88</f>
+        <v>1227445000</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7266,12 +7668,18 @@
         <v>60000</v>
       </c>
       <c r="L101" s="1"/>
-      <c r="S101" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="T101" s="49" cm="1">
-        <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11109468640</v>
+      <c r="M101" s="51"/>
+      <c r="N101" s="51"/>
+      <c r="O101" s="51"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="51"/>
+      <c r="R101" s="51"/>
+      <c r="S101" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="T101" s="63">
+        <f>T100/T104</f>
+        <v>0.10792058271812914</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7309,12 +7717,18 @@
         <v>-825753000</v>
       </c>
       <c r="L102" s="10"/>
-      <c r="S102" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="T102" s="58">
-        <f>T101/T103</f>
-        <v>0.90050631496517475</v>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="T102" s="66" cm="1">
+        <f t="array" ref="T102">_FV(A1,"Market cap",TRUE)</f>
+        <v>10146150000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7352,15 +7766,21 @@
         <v>1481831000</v>
       </c>
       <c r="L103" s="1"/>
-      <c r="S103" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="T103" s="61">
-        <f>T99+T101</f>
-        <v>12336913640</v>
-      </c>
-    </row>
-    <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="T103" s="63">
+        <f>T102/T104</f>
+        <v>0.8920794172818709</v>
+      </c>
+    </row>
+    <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -7395,10 +7815,21 @@
         <v>656078000</v>
       </c>
       <c r="L104" s="11"/>
-      <c r="S104" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="T104" s="72"/>
+      <c r="M104" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="N104" s="82"/>
+      <c r="O104" s="82"/>
+      <c r="P104" s="82"/>
+      <c r="Q104" s="82"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="T104" s="67">
+        <f>T100+T102</f>
+        <v>11373595000</v>
+      </c>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7441,38 +7872,35 @@
         <v>-841211400</v>
       </c>
       <c r="L105" s="27">
-        <v>531000000</v>
-      </c>
-      <c r="M105" s="30">
-        <f>L105*(1+$T$106)</f>
-        <v>622344217.52381384</v>
-      </c>
-      <c r="N105" s="30">
-        <f t="shared" ref="N105:Q105" si="22">M105*(1+$T$106)</f>
-        <v>729401742.15692675</v>
-      </c>
-      <c r="O105" s="30">
-        <f t="shared" si="22"/>
-        <v>854875624.26207006</v>
-      </c>
-      <c r="P105" s="30">
-        <f t="shared" si="22"/>
-        <v>1001933901.0575515</v>
-      </c>
-      <c r="Q105" s="30">
-        <f t="shared" si="22"/>
-        <v>1174289585.0550737</v>
-      </c>
-      <c r="R105" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="S105" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="T105" s="63">
-        <f>(T100*T92)+(T102*T97)</f>
-        <v>9.0571729286811009E-2</v>
-      </c>
+        <v>597000000</v>
+      </c>
+      <c r="M105" s="59">
+        <f>M107/M3</f>
+        <v>0.14603679309561662</v>
+      </c>
+      <c r="N105" s="59">
+        <f>N107/N3</f>
+        <v>0.15957861880608662</v>
+      </c>
+      <c r="O105" s="59">
+        <f>O107/O3</f>
+        <v>0.21848428835489833</v>
+      </c>
+      <c r="P105" s="59">
+        <f>P107/P3</f>
+        <v>0.24718534700050412</v>
+      </c>
+      <c r="Q105" s="59">
+        <f>Q107/Q3</f>
+        <v>0.2579334062841957</v>
+      </c>
+      <c r="R105" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="S105" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="T105" s="80"/>
       <c r="U105" s="15"/>
       <c r="AI105" s="15"/>
       <c r="AJ105" s="15"/>
@@ -7493,79 +7921,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:L106" si="23">(C107/B107)-1</f>
+        <f t="shared" ref="C106:L106" si="22">(C107/B107)-1</f>
         <v>-0.13592084068420651</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.30403905903240114</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.44196732471068756</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.83458371454711799</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.44570782631823924</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>2.1934980806142033</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-0.50266706735284172</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4.5973790551002685</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.0249843131169332</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>-2.7692392271323332</v>
       </c>
-      <c r="M106" s="44">
-        <v>610200000</v>
-      </c>
-      <c r="N106" s="44">
-        <v>804300000</v>
-      </c>
-      <c r="O106" s="44">
-        <v>1233000000</v>
-      </c>
-      <c r="P106" s="44">
-        <v>1491000000</v>
-      </c>
-      <c r="Q106" s="44">
-        <v>1670000000</v>
-      </c>
-      <c r="R106" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="S106" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="T106" s="65">
-        <f>(SUM(M4:Q4)/5)</f>
-        <v>0.17202300851942334</v>
+      <c r="M106" s="52">
+        <f>(M107/L107)-1</f>
+        <v>0.21092278719397362</v>
+      </c>
+      <c r="N106" s="52">
+        <f>(N107/M107)-1</f>
+        <v>0.27216174183514785</v>
+      </c>
+      <c r="O106" s="52">
+        <f>(O107/N107)-1</f>
+        <v>0.44498777506112464</v>
+      </c>
+      <c r="P106" s="52">
+        <f>(P107/O107)-1</f>
+        <v>0.2445008460236886</v>
+      </c>
+      <c r="Q106" s="52">
+        <f>(Q107/P107)-1</f>
+        <v>0.12168592794017674</v>
+      </c>
+      <c r="R106" s="53">
+        <f>SUM(M106:Q106)/5</f>
+        <v>0.25885181561082227</v>
+      </c>
+      <c r="S106" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="T106" s="68">
+        <f>(T101*T93)+(T103*T98)</f>
+        <v>8.5026348006219679E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="43" t="s">
+      <c r="A107" s="40" t="s">
         <v>162</v>
       </c>
       <c r="B107" s="1">
@@ -7601,151 +8035,239 @@
       <c r="L107" s="27">
         <v>531000000</v>
       </c>
-      <c r="M107" s="31"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="31"/>
-      <c r="P107" s="31"/>
-      <c r="Q107" s="45">
-        <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>26105000106.26223</v>
-      </c>
-      <c r="R107" s="32" t="s">
+      <c r="M107" s="54">
+        <v>643000000</v>
+      </c>
+      <c r="N107" s="54">
+        <v>818000000</v>
+      </c>
+      <c r="O107" s="54">
+        <v>1182000000</v>
+      </c>
+      <c r="P107" s="54">
+        <v>1471000000</v>
+      </c>
+      <c r="Q107" s="54">
+        <v>1650000000</v>
+      </c>
+      <c r="R107" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="S107" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="T107" s="46">
+        <f>(SUM(M4:Q4)/5)</f>
+        <v>9.5700845540293192E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="M108" s="61"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="61"/>
+      <c r="P108" s="61"/>
+      <c r="Q108" s="55">
+        <f>Q107*(1+T108)/(T109-T108)</f>
+        <v>28175127359.484863</v>
+      </c>
+      <c r="R108" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="S107" s="66" t="s">
+      <c r="S108" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="T107" s="67">
+      <c r="T108" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="M108" s="45">
-        <f t="shared" ref="M108:O108" si="24">M107+M106</f>
-        <v>610200000</v>
-      </c>
-      <c r="N108" s="45">
-        <f t="shared" si="24"/>
-        <v>804300000</v>
-      </c>
-      <c r="O108" s="45">
-        <f t="shared" si="24"/>
-        <v>1233000000</v>
-      </c>
-      <c r="P108" s="45">
-        <f>P107+P106</f>
-        <v>1491000000</v>
-      </c>
-      <c r="Q108" s="45">
-        <f>Q107+Q106</f>
-        <v>27775000106.26223</v>
-      </c>
-      <c r="R108" s="32" t="s">
+    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="M109" s="55">
+        <f t="shared" ref="M109:O109" si="23">M108+M107</f>
+        <v>643000000</v>
+      </c>
+      <c r="N109" s="55">
+        <f t="shared" si="23"/>
+        <v>818000000</v>
+      </c>
+      <c r="O109" s="55">
+        <f t="shared" si="23"/>
+        <v>1182000000</v>
+      </c>
+      <c r="P109" s="55">
+        <f>P108+P107</f>
+        <v>1471000000</v>
+      </c>
+      <c r="Q109" s="55">
+        <f>Q108+Q107</f>
+        <v>29825127359.484863</v>
+      </c>
+      <c r="R109" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="S108" s="68" t="s">
+      <c r="S109" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="T108" s="65">
-        <f>T105</f>
-        <v>9.0571729286811009E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="M109" s="69" t="s">
+      <c r="T109" s="46">
+        <f>T106</f>
+        <v>8.5026348006219679E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="M110" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="N109" s="69"/>
-    </row>
-    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="M110" s="48" t="s">
+      <c r="N110" s="81"/>
+      <c r="O110" s="51"/>
+      <c r="P110" s="51"/>
+      <c r="Q110" s="51"/>
+      <c r="R110" s="51"/>
+      <c r="S110" s="51"/>
+      <c r="T110" s="51"/>
+    </row>
+    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="M111" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="N110" s="49">
-        <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>21245006766.322643</v>
-      </c>
-    </row>
-    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="M111" s="48" t="s">
+      <c r="N111" s="66">
+        <f>NPV(T109,M109,N109,O109,P109,Q109)</f>
+        <v>23106751913.29063</v>
+      </c>
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="51"/>
+      <c r="R111" s="51"/>
+      <c r="S111" s="51"/>
+      <c r="T111" s="51"/>
+    </row>
+    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="M112" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="N111" s="49">
+      <c r="N112" s="66">
         <f>K40</f>
         <v>4155069000</v>
       </c>
-    </row>
-    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="M112" s="48" t="s">
+      <c r="O112" s="51"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="51"/>
+      <c r="R112" s="51"/>
+      <c r="S112" s="51"/>
+      <c r="T112" s="51"/>
+    </row>
+    <row r="113" spans="13:20" ht="20" x14ac:dyDescent="0.2">
+      <c r="M113" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="N112" s="49">
-        <f>T99</f>
+      <c r="N113" s="66">
+        <f>T100</f>
         <v>1227445000</v>
       </c>
-    </row>
-    <row r="113" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M113" s="48" t="s">
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="51"/>
+      <c r="T113" s="51"/>
+    </row>
+    <row r="114" spans="13:20" ht="20" x14ac:dyDescent="0.2">
+      <c r="M114" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="N113" s="49">
-        <f>N110+N111-N112</f>
-        <v>24172630766.322643</v>
-      </c>
-    </row>
-    <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M114" s="48" t="s">
+      <c r="N114" s="66">
+        <f>N111+N112-N113</f>
+        <v>26034375913.29063</v>
+      </c>
+      <c r="O114" s="51"/>
+      <c r="P114" s="51"/>
+      <c r="Q114" s="51"/>
+      <c r="R114" s="51"/>
+      <c r="S114" s="51"/>
+      <c r="T114" s="51"/>
+    </row>
+    <row r="115" spans="13:20" ht="20" x14ac:dyDescent="0.2">
+      <c r="M115" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="N114" s="48">
+      <c r="N115" s="72">
         <f>K34*(1+(5*R16))</f>
         <v>325571703.01306754</v>
       </c>
-    </row>
-    <row r="115" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M115" s="50" t="s">
+      <c r="O115" s="51"/>
+      <c r="P115" s="51"/>
+      <c r="Q115" s="51"/>
+      <c r="R115" s="51"/>
+      <c r="S115" s="51"/>
+      <c r="T115" s="51"/>
+    </row>
+    <row r="116" spans="13:20" ht="20" x14ac:dyDescent="0.2">
+      <c r="M116" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="N115" s="51">
-        <f>N113/N114</f>
-        <v>74.24671905639299</v>
-      </c>
-    </row>
-    <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M116" s="48" t="s">
+      <c r="N116" s="74">
+        <f>N114/N115</f>
+        <v>79.965106525998308</v>
+      </c>
+      <c r="O116" s="51"/>
+      <c r="P116" s="51"/>
+      <c r="Q116" s="51"/>
+      <c r="R116" s="51"/>
+      <c r="S116" s="51"/>
+      <c r="T116" s="51"/>
+    </row>
+    <row r="117" spans="13:20" ht="20" x14ac:dyDescent="0.2">
+      <c r="M117" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="N116" s="52" cm="1">
-        <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>60.4</v>
-      </c>
-    </row>
-    <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M117" s="50" t="s">
+      <c r="N117" s="75" cm="1">
+        <f t="array" ref="N117">_FV(A1,"Price")</f>
+        <v>55.41</v>
+      </c>
+      <c r="O117" s="51"/>
+      <c r="P117" s="51"/>
+      <c r="Q117" s="51"/>
+      <c r="R117" s="51"/>
+      <c r="S117" s="51"/>
+      <c r="T117" s="51"/>
+    </row>
+    <row r="118" spans="13:20" ht="20" x14ac:dyDescent="0.2">
+      <c r="M118" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="N117" s="53">
-        <f>N115/N116-1</f>
-        <v>0.2292503155031953</v>
-      </c>
-    </row>
-    <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M118" s="50" t="s">
+      <c r="N118" s="76">
+        <f>N116/N117-1</f>
+        <v>0.44315297827103972</v>
+      </c>
+      <c r="O118" s="51"/>
+      <c r="P118" s="51"/>
+      <c r="Q118" s="51"/>
+      <c r="R118" s="51"/>
+      <c r="S118" s="51"/>
+      <c r="T118" s="51"/>
+    </row>
+    <row r="119" spans="13:20" ht="20" x14ac:dyDescent="0.2">
+      <c r="M119" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="N118" s="54" t="str">
-        <f>IF(N115&gt;N116,"BUY","SELL")</f>
+      <c r="N119" s="77" t="str">
+        <f>IF(N116&gt;N117,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
+      <c r="O119" s="51"/>
+      <c r="P119" s="51"/>
+      <c r="Q119" s="51"/>
+      <c r="R119" s="51"/>
+      <c r="S119" s="51"/>
+      <c r="T119" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="S83:T83"/>
+  <mergeCells count="7">
     <mergeCell ref="S84:T84"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="S104:T104"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="M104:Q104"/>
+    <mergeCell ref="S105:T105"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="S94:T94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/TWLO" display="ROIC.AI | TWLO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7770,7 +8292,7 @@
     <hyperlink ref="K36" r:id="rId20" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="K74" r:id="rId21" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
     <hyperlink ref="M1" r:id="rId22" display="https://finbox.com/NYSE:TWLO/explorer/revenue_proj" xr:uid="{FB5D01A9-44EE-A749-92DC-4C0B4882A940}"/>
-    <hyperlink ref="R106" r:id="rId23" xr:uid="{CC50150D-9459-A946-A829-8116BDB0C593}"/>
+    <hyperlink ref="R107" r:id="rId23" xr:uid="{CC50150D-9459-A946-A829-8116BDB0C593}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId24"/>

--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E39E86-DE65-A64F-BC37-E2B2B4D1623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA5912B-28A4-F345-BB64-77872B7A4BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2470,13 +2470,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2492,14 +2494,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2509,6 +2511,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2636,11 +2640,11 @@
     <v>Powered by Refinitiv</v>
     <v>79.7</v>
     <v>41</v>
-    <v>1.3233999999999999</v>
-    <v>-0.61</v>
-    <v>-1.0888999999999999E-2</v>
-    <v>-0.21</v>
-    <v>-3.79E-3</v>
+    <v>1.3469</v>
+    <v>-0.56000000000000005</v>
+    <v>-1.1033999999999999E-2</v>
+    <v>0.11</v>
+    <v>2.1919999999999999E-3</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -2648,24 +2652,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>56.83</v>
+    <v>51.23</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.998038182814</v>
+    <v>45226.997468957816</v>
     <v>0</v>
-    <v>55.32</v>
-    <v>10146150000</v>
+    <v>50.03</v>
+    <v>9090237000</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>56.49</v>
-    <v>56.02</v>
-    <v>55.41</v>
-    <v>55.2</v>
+    <v>50.96</v>
+    <v>50.75</v>
+    <v>50.19</v>
+    <v>50.3</v>
     <v>181116500</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>1358201</v>
-    <v>1975648</v>
+    <v>1250502</v>
+    <v>1896191</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2827,9 +2831,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3249,10 +3253,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O92" sqref="O92"/>
+      <selection pane="bottomRight" activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4091,20 +4095,20 @@
       </c>
       <c r="L16" s="1"/>
       <c r="R16" s="28">
-        <f>(K35+J35+I35+H35+G35)/5</f>
-        <v>0.15582766145973298</v>
+        <f>AVERAGE(H35:L35)</f>
+        <v>0.14082796729970742</v>
       </c>
       <c r="S16" s="32">
         <f>T102/L3</f>
-        <v>2.4978212703101921</v>
+        <v>2.2378722304283603</v>
       </c>
       <c r="T16" s="32">
         <f>T102/L28</f>
-        <v>31.806112852664576</v>
+        <v>28.496040752351096</v>
       </c>
       <c r="U16" s="33">
         <f>T102/L107</f>
-        <v>19.107627118644068</v>
+        <v>17.119090395480224</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4249,15 +4253,15 @@
       </c>
       <c r="S19" s="32">
         <f>T102/M3</f>
-        <v>2.3043720190779013</v>
+        <v>2.0645553032023622</v>
       </c>
       <c r="T19" s="35">
         <f>T102/M28</f>
-        <v>26.841666666666665</v>
+        <v>24.048246031746032</v>
       </c>
       <c r="U19" s="33">
         <f>T102/M107</f>
-        <v>15.779393468118196</v>
+        <v>14.137227060653188</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4450,7 +4454,7 @@
       </c>
       <c r="U22" s="42">
         <f>L105/T102</f>
-        <v>5.8840052630800846E-2</v>
+        <v>6.5674855342055444E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7389,7 +7393,7 @@
       </c>
       <c r="T95" s="64">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7438,7 +7442,7 @@
       </c>
       <c r="T96" s="65" cm="1">
         <f t="array" ref="T96">_FV(A1,"Beta")</f>
-        <v>1.3233999999999999</v>
+        <v>1.3469</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7535,7 +7539,7 @@
       </c>
       <c r="T98" s="63">
         <f>(T95)+((T96)*(T97-T95))</f>
-        <v>9.5312532000000005E-2</v>
+        <v>9.6332295000000012E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -7679,7 +7683,7 @@
       </c>
       <c r="T101" s="63">
         <f>T100/T104</f>
-        <v>0.10792058271812914</v>
+        <v>0.11896519004947041</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7728,7 +7732,7 @@
       </c>
       <c r="T102" s="66" cm="1">
         <f t="array" ref="T102">_FV(A1,"Market cap",TRUE)</f>
-        <v>10146150000</v>
+        <v>9090237000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7777,7 +7781,7 @@
       </c>
       <c r="T103" s="63">
         <f>T102/T104</f>
-        <v>0.8920794172818709</v>
+        <v>0.88103480995052963</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7828,7 +7832,7 @@
       </c>
       <c r="T104" s="67">
         <f>T100+T102</f>
-        <v>11373595000</v>
+        <v>10317682000</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
@@ -7995,7 +7999,7 @@
       </c>
       <c r="T106" s="68">
         <f>(T101*T93)+(T103*T98)</f>
-        <v>8.5026348006219679E-2</v>
+        <v>8.487210521742336E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -8068,7 +8072,7 @@
       <c r="P108" s="61"/>
       <c r="Q108" s="55">
         <f>Q107*(1+T108)/(T109-T108)</f>
-        <v>28175127359.484863</v>
+        <v>28247712250.275604</v>
       </c>
       <c r="R108" s="56" t="s">
         <v>145</v>
@@ -8099,7 +8103,7 @@
       </c>
       <c r="Q109" s="55">
         <f>Q108+Q107</f>
-        <v>29825127359.484863</v>
+        <v>29897712250.275604</v>
       </c>
       <c r="R109" s="56" t="s">
         <v>142</v>
@@ -8109,7 +8113,7 @@
       </c>
       <c r="T109" s="46">
         <f>T106</f>
-        <v>8.5026348006219679E-2</v>
+        <v>8.487210521742336E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
@@ -8130,7 +8134,7 @@
       </c>
       <c r="N111" s="66">
         <f>NPV(T109,M109,N109,O109,P109,Q109)</f>
-        <v>23106751913.29063</v>
+        <v>23170435563.858803</v>
       </c>
       <c r="O111" s="51"/>
       <c r="P111" s="51"/>
@@ -8175,7 +8179,7 @@
       </c>
       <c r="N114" s="66">
         <f>N111+N112-N113</f>
-        <v>26034375913.29063</v>
+        <v>26098059563.858803</v>
       </c>
       <c r="O114" s="51"/>
       <c r="P114" s="51"/>
@@ -8190,7 +8194,7 @@
       </c>
       <c r="N115" s="72">
         <f>K34*(1+(5*R16))</f>
-        <v>325571703.01306754</v>
+        <v>311847429.99752712</v>
       </c>
       <c r="O115" s="51"/>
       <c r="P115" s="51"/>
@@ -8205,7 +8209,7 @@
       </c>
       <c r="N116" s="74">
         <f>N114/N115</f>
-        <v>79.965106525998308</v>
+        <v>83.688551045829541</v>
       </c>
       <c r="O116" s="51"/>
       <c r="P116" s="51"/>
@@ -8220,7 +8224,7 @@
       </c>
       <c r="N117" s="75" cm="1">
         <f t="array" ref="N117">_FV(A1,"Price")</f>
-        <v>55.41</v>
+        <v>50.19</v>
       </c>
       <c r="O117" s="51"/>
       <c r="P117" s="51"/>
@@ -8235,7 +8239,7 @@
       </c>
       <c r="N118" s="76">
         <f>N116/N117-1</f>
-        <v>0.44315297827103972</v>
+        <v>0.66743476879516916</v>
       </c>
       <c r="O118" s="51"/>
       <c r="P118" s="51"/>

--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA5912B-28A4-F345-BB64-77872B7A4BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095E826-DCAE-804A-9DBE-E39DB89B29A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2475,13 +2475,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2498,7 +2495,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.6689999999999995E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2510,9 +2507,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2640,11 +2634,11 @@
     <v>Powered by Refinitiv</v>
     <v>79.7</v>
     <v>41</v>
-    <v>1.3469</v>
-    <v>-0.56000000000000005</v>
-    <v>-1.1033999999999999E-2</v>
-    <v>0.11</v>
-    <v>2.1919999999999999E-3</v>
+    <v>1.3284</v>
+    <v>1.91</v>
+    <v>3.6596999999999998E-2</v>
+    <v>0.19</v>
+    <v>3.5119999999999999E-3</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -2652,24 +2646,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>51.23</v>
+    <v>54.53</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.997468957816</v>
+    <v>45233.995777245313</v>
     <v>0</v>
-    <v>50.03</v>
-    <v>9090237000</v>
+    <v>53.02</v>
+    <v>9798403000</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>50.96</v>
-    <v>50.75</v>
-    <v>50.19</v>
-    <v>50.3</v>
+    <v>53.25</v>
+    <v>52.19</v>
+    <v>54.1</v>
+    <v>54.29</v>
     <v>181116500</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>1250502</v>
-    <v>1896191</v>
+    <v>3623882</v>
+    <v>1801097</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2831,9 +2825,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3253,10 +3247,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K115" sqref="K115"/>
+      <selection pane="bottomRight" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4100,15 +4094,15 @@
       </c>
       <c r="S16" s="32">
         <f>T102/L3</f>
-        <v>2.2378722304283603</v>
+        <v>2.4122114721811916</v>
       </c>
       <c r="T16" s="32">
         <f>T102/L28</f>
-        <v>28.496040752351096</v>
+        <v>30.715996865203763</v>
       </c>
       <c r="U16" s="33">
         <f>T102/L107</f>
-        <v>17.119090395480224</v>
+        <v>18.452736346516009</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4253,15 +4247,15 @@
       </c>
       <c r="S19" s="32">
         <f>T102/M3</f>
-        <v>2.0645553032023622</v>
+        <v>2.2253924596865775</v>
       </c>
       <c r="T19" s="35">
         <f>T102/M28</f>
-        <v>24.048246031746032</v>
+        <v>25.921701058201059</v>
       </c>
       <c r="U19" s="33">
         <f>T102/M107</f>
-        <v>14.137227060653188</v>
+        <v>15.238573872472784</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4454,7 +4448,7 @@
       </c>
       <c r="U22" s="42">
         <f>L105/T102</f>
-        <v>6.5674855342055444E-2</v>
+        <v>6.0928296172345638E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7393,7 +7387,7 @@
       </c>
       <c r="T95" s="64">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.6689999999999995E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7442,7 +7436,7 @@
       </c>
       <c r="T96" s="65" cm="1">
         <f t="array" ref="T96">_FV(A1,"Beta")</f>
-        <v>1.3469</v>
+        <v>1.3284</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7539,7 +7533,7 @@
       </c>
       <c r="T98" s="63">
         <f>(T95)+((T96)*(T97-T95))</f>
-        <v>9.6332295000000012E-2</v>
+        <v>9.6252604000000019E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -7683,7 +7677,7 @@
       </c>
       <c r="T101" s="63">
         <f>T100/T104</f>
-        <v>0.11896519004947041</v>
+        <v>0.11132431718630621</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7732,7 +7726,7 @@
       </c>
       <c r="T102" s="66" cm="1">
         <f t="array" ref="T102">_FV(A1,"Market cap",TRUE)</f>
-        <v>9090237000</v>
+        <v>9798403000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -7781,7 +7775,7 @@
       </c>
       <c r="T103" s="63">
         <f>T102/T104</f>
-        <v>0.88103480995052963</v>
+        <v>0.8886756828136938</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7832,7 +7826,7 @@
       </c>
       <c r="T104" s="67">
         <f>T100+T102</f>
-        <v>10317682000</v>
+        <v>11025848000</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
@@ -7999,7 +7993,7 @@
       </c>
       <c r="T106" s="68">
         <f>(T101*T93)+(T103*T98)</f>
-        <v>8.487210521742336E-2</v>
+        <v>8.5537348582296099E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -8072,7 +8066,7 @@
       <c r="P108" s="61"/>
       <c r="Q108" s="55">
         <f>Q107*(1+T108)/(T109-T108)</f>
-        <v>28247712250.275604</v>
+        <v>27937298867.671238</v>
       </c>
       <c r="R108" s="56" t="s">
         <v>145</v>
@@ -8103,7 +8097,7 @@
       </c>
       <c r="Q109" s="55">
         <f>Q108+Q107</f>
-        <v>29897712250.275604</v>
+        <v>29587298867.671238</v>
       </c>
       <c r="R109" s="56" t="s">
         <v>142</v>
@@ -8113,7 +8107,7 @@
       </c>
       <c r="T109" s="46">
         <f>T106</f>
-        <v>8.487210521742336E-2</v>
+        <v>8.5537348582296099E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
@@ -8134,7 +8128,7 @@
       </c>
       <c r="N111" s="66">
         <f>NPV(T109,M109,N109,O109,P109,Q109)</f>
-        <v>23170435563.858803</v>
+        <v>22898104410.682873</v>
       </c>
       <c r="O111" s="51"/>
       <c r="P111" s="51"/>
@@ -8179,7 +8173,7 @@
       </c>
       <c r="N114" s="66">
         <f>N111+N112-N113</f>
-        <v>26098059563.858803</v>
+        <v>25825728410.682873</v>
       </c>
       <c r="O114" s="51"/>
       <c r="P114" s="51"/>
@@ -8209,7 +8203,7 @@
       </c>
       <c r="N116" s="74">
         <f>N114/N115</f>
-        <v>83.688551045829541</v>
+        <v>82.815267744511047</v>
       </c>
       <c r="O116" s="51"/>
       <c r="P116" s="51"/>
@@ -8224,7 +8218,7 @@
       </c>
       <c r="N117" s="75" cm="1">
         <f t="array" ref="N117">_FV(A1,"Price")</f>
-        <v>50.19</v>
+        <v>54.1</v>
       </c>
       <c r="O117" s="51"/>
       <c r="P117" s="51"/>
@@ -8239,7 +8233,7 @@
       </c>
       <c r="N118" s="76">
         <f>N116/N117-1</f>
-        <v>0.66743476879516916</v>
+        <v>0.53078128917765333</v>
       </c>
       <c r="O118" s="51"/>
       <c r="P118" s="51"/>

--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3267062E-8C60-B449-91B7-23303727A2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713B99F-F838-5743-9FBA-08BE29F1F731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1060,7 +1060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1340,12 +1340,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1431,9 +1446,6 @@
     <xf numFmtId="9" fontId="22" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1448,9 +1460,6 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1467,22 +1476,10 @@
     <xf numFmtId="164" fontId="12" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="12" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,9 +1490,6 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="12" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1623,6 +1617,30 @@
     <xf numFmtId="10" fontId="18" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -1656,10 +1674,16 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1698,6 +1722,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1715,7 +1740,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1727,6 +1752,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1853,12 +1879,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>79.7</v>
-    <v>42.547600000000003</v>
-    <v>1.3341000000000001</v>
-    <v>0.2</v>
-    <v>3.5839999999999999E-3</v>
-    <v>-0.5</v>
-    <v>-8.9289999999999994E-3</v>
+    <v>42.78</v>
+    <v>1.4418</v>
+    <v>2.08</v>
+    <v>3.2157999999999999E-2</v>
+    <v>7.0000000000000007E-2</v>
+    <v>1.049E-3</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -1866,24 +1892,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>60.24</v>
+    <v>66.77</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.96961555547</v>
+    <v>45261.881944444445</v>
     <v>0</v>
-    <v>55.57</v>
-    <v>10144335165</v>
+    <v>64.099999999999994</v>
+    <v>12086420000</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>57.21</v>
-    <v>55.81</v>
-    <v>56.01</v>
-    <v>55.5</v>
-    <v>181116500</v>
+    <v>64.5</v>
+    <v>64.680000000000007</v>
+    <v>66.760000000000005</v>
+    <v>66.83</v>
+    <v>181042900</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>12341617</v>
-    <v>2290619</v>
+    <v>2759009</v>
+    <v>3457585</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2045,9 +2071,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2491,9 +2517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P196"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L129" sqref="E129:L129"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I196" sqref="I196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12244,7 +12270,7 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12252,92 +12278,92 @@
     <col min="1" max="20" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="e" vm="1">
+    <row r="1" spans="1:20" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-    </row>
-    <row r="2" spans="1:20" s="115" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+    </row>
+    <row r="2" spans="1:20" s="116" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" cm="1">
+      <c r="A3" s="60" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>10144335165</v>
-      </c>
-      <c r="B3" s="68" t="s">
+        <v>12086420000</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="62">
         <f>Financials!L8*0.01</f>
         <v>0.47869999999999996</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="62">
         <f>SUM(C11:E11)/3</f>
         <v>0.50414375227217345</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="71">
-        <f>AVERAGE(Financials!E129:L129)</f>
-        <v>0.10956148926666953</v>
-      </c>
-      <c r="H3" s="70" t="s">
+      <c r="G3" s="64">
+        <f>AVERAGE(Financials!K129:P129)</f>
+        <v>1.2985596636387875E-3</v>
+      </c>
+      <c r="H3" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="65">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>24601230329.785782</v>
-      </c>
-      <c r="J3" s="73" t="s">
+        <v>22265722442.35593</v>
+      </c>
+      <c r="J3" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="74">
+      <c r="K3" s="67">
         <f>(Financials!L172*-1)/A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="68" t="s">
         <v>203</v>
       </c>
       <c r="M3" s="37"/>
-      <c r="N3" s="116" t="s">
+      <c r="N3" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="O3" s="117"/>
+      <c r="O3" s="118"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
@@ -12345,53 +12371,53 @@
       <c r="T3" s="37"/>
     </row>
     <row r="4" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76">
+      <c r="A4" s="69">
         <f>Financials!L56-Financials!L96-Financials!L105</f>
         <v>2481949000</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="70" t="s">
         <v>205</v>
       </c>
       <c r="C4" s="38">
         <f>Financials!L17*0.01</f>
         <v>-0.18239999999999998</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="70" t="s">
         <v>206</v>
       </c>
       <c r="E4" s="38">
         <f>SUM(C13:E13)/3</f>
         <v>0.61868502201446041</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="72">
         <f>A5*(1+(5*G3))</f>
-        <v>280333467.35383379</v>
-      </c>
-      <c r="H4" s="78" t="s">
+        <v>182218375.03664094</v>
+      </c>
+      <c r="H4" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="73">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>19802254455.820206</v>
-      </c>
-      <c r="J4" s="78" t="s">
+        <v>17761642015.909805</v>
+      </c>
+      <c r="J4" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="K4" s="81" cm="1">
+      <c r="K4" s="74" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.5839999999999999E-3</v>
-      </c>
-      <c r="L4" s="82" t="s">
+        <v>3.2157999999999999E-2</v>
+      </c>
+      <c r="L4" s="75" t="s">
         <v>210</v>
       </c>
       <c r="M4" s="37"/>
-      <c r="N4" s="118" t="s">
+      <c r="N4" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="O4" s="119"/>
+      <c r="O4" s="120"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
@@ -12399,53 +12425,53 @@
       <c r="T4" s="37"/>
     </row>
     <row r="5" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" cm="1">
+      <c r="A5" s="69" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>181116500</v>
-      </c>
-      <c r="B5" s="77" t="s">
+        <v>181042900</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>212</v>
       </c>
       <c r="C5" s="38">
         <f>F14</f>
         <v>7.9025110782865587E-2</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="70" t="s">
         <v>213</v>
       </c>
       <c r="E5" s="38">
         <f>SUM(C16:E16)/3</f>
         <v>1.9582369082743654</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="72">
         <f>Financials!L56</f>
         <v>3683968000</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="I5" s="80">
+      <c r="I5" s="73">
         <f>I4+G5-G6</f>
-        <v>22284203455.820206</v>
-      </c>
-      <c r="J5" s="78" t="s">
+        <v>20243591015.909805</v>
+      </c>
+      <c r="J5" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="K5" s="83" cm="1">
+      <c r="K5" s="76" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>56.01</v>
-      </c>
-      <c r="L5" s="84" t="s">
+        <v>66.760000000000005</v>
+      </c>
+      <c r="L5" s="77" t="s">
         <v>217</v>
       </c>
       <c r="M5" s="37"/>
-      <c r="N5" s="98" t="s">
+      <c r="N5" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="O5" s="99">
+      <c r="O5" s="92">
         <f>Financials!L20</f>
         <v>0</v>
       </c>
@@ -12456,53 +12482,53 @@
       <c r="T5" s="37"/>
     </row>
     <row r="6" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85">
+      <c r="A6" s="78">
         <f>O20/F10</f>
-        <v>2.4973744867060561</v>
-      </c>
-      <c r="B6" s="77" t="s">
+        <v>2.9754849827671097</v>
+      </c>
+      <c r="B6" s="70" t="s">
         <v>219</v>
       </c>
       <c r="C6" s="38">
         <f>F17</f>
         <v>0.14623338257016247</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="70" t="s">
         <v>197</v>
       </c>
       <c r="E6" s="38">
         <f>Financials!L33/Financials!L126</f>
         <v>-0.12229416976334224</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6" s="72">
         <f>Financials!L96+Financials!L105</f>
         <v>1202019000</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="74">
         <f>N25</f>
-        <v>8.653858891223927E-2</v>
-      </c>
-      <c r="J6" s="78" t="s">
+        <v>9.2993526997357648E-2</v>
+      </c>
+      <c r="J6" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="79">
         <f>I5/G4</f>
-        <v>79.491769806040793</v>
-      </c>
-      <c r="L6" s="87" t="s">
+        <v>111.09522303576229</v>
+      </c>
+      <c r="L6" s="80" t="s">
         <v>223</v>
       </c>
       <c r="M6" s="37"/>
-      <c r="N6" s="98" t="s">
+      <c r="N6" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="O6" s="99">
+      <c r="O6" s="92">
         <f>Financials!L96</f>
         <v>53089000</v>
       </c>
@@ -12513,52 +12539,52 @@
       <c r="T6" s="37"/>
     </row>
     <row r="7" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88">
+      <c r="A7" s="81">
         <f>O20/F12</f>
-        <v>31.602290233644858</v>
-      </c>
-      <c r="B7" s="89" t="s">
+        <v>37.652398753894083</v>
+      </c>
+      <c r="B7" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="83">
         <f>F15/A3</f>
-        <v>5.8554847640426913E-2</v>
-      </c>
-      <c r="D7" s="89" t="s">
+        <v>4.9146066411724892E-2</v>
+      </c>
+      <c r="D7" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="91">
+      <c r="E7" s="84">
         <f>(Financials!L16*(1-0.25))/(Financials!L126+Financials!L105+Financials!L96)</f>
         <v>-4.9591974041778841E-2</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="85">
         <f>(Financials!L96+Financials!L105)/Financials!L126</f>
         <v>0.12048432731165123</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="87">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="K7" s="96">
+      <c r="K7" s="89">
         <f>K6/K5-1</f>
-        <v>0.41924245324122111</v>
-      </c>
-      <c r="L7" s="97" t="s">
+        <v>0.66409860748595384</v>
+      </c>
+      <c r="L7" s="90" t="s">
         <v>229</v>
       </c>
       <c r="M7" s="37"/>
-      <c r="N7" s="98" t="s">
+      <c r="N7" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="O7" s="99">
+      <c r="O7" s="92">
         <f>Financials!L105</f>
         <v>1148930000</v>
       </c>
@@ -12582,10 +12608,10 @@
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
-      <c r="N8" s="100" t="s">
+      <c r="N8" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="O8" s="101">
+      <c r="O8" s="94">
         <f>O5/(O6+O7)</f>
         <v>0</v>
       </c>
@@ -12596,41 +12622,41 @@
       <c r="T8" s="37"/>
     </row>
     <row r="9" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56">
         <v>2019</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="56">
         <v>2020</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="56">
         <v>2021</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="103">
         <v>2022</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="104">
         <v>2023</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="105">
         <v>2024</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="105">
         <v>2025</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="105">
         <v>2026</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="106">
         <v>2027</v>
       </c>
-      <c r="K9" s="57"/>
+      <c r="K9" s="107"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
-      <c r="N9" s="98" t="s">
+      <c r="N9" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="O9" s="99">
+      <c r="O9" s="92">
         <f>Financials!L25</f>
         <v>23988000</v>
       </c>
@@ -12641,44 +12667,44 @@
       <c r="T9" s="37"/>
     </row>
     <row r="10" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <v>1134468000</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="51">
         <v>1761776000</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="51">
         <v>2841839000</v>
       </c>
       <c r="E10" s="53">
         <v>3826321000</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="51">
         <v>4062000000</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="51">
         <v>4388000000</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="51">
         <v>5115000000</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="51">
         <v>5410000000</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="53">
         <v>5951000000</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="108" t="s">
         <v>233</v>
       </c>
       <c r="L10" s="40"/>
-      <c r="N10" s="98" t="s">
+      <c r="N10" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="O10" s="99">
+      <c r="O10" s="92">
         <f>Financials!L24</f>
         <v>-1196087000</v>
       </c>
@@ -12723,16 +12749,16 @@
         <f t="shared" si="0"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="43">
         <f>AVERAGE(G11:J11)</f>
         <v>0.10090216642100902</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
-      <c r="N11" s="98" t="s">
+      <c r="N11" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="O11" s="102">
+      <c r="O11" s="95">
         <f>O9/O10</f>
         <v>-2.0055397308055351E-2</v>
       </c>
@@ -12743,45 +12769,45 @@
       <c r="T11" s="37"/>
     </row>
     <row r="12" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="51">
         <v>-307063000</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="51">
         <v>-490979000</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="51">
         <v>-949900000</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="51">
         <v>-1256145000</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="52">
         <v>321000000</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="51">
         <v>378000000</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="51">
         <v>531000000</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="51">
         <v>821000000</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="53">
         <v>1043000000</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="54" t="s">
         <v>236</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
-      <c r="N12" s="98" t="s">
+      <c r="N12" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="O12" s="102">
+      <c r="O12" s="95">
         <f>O8*(1-O11)</f>
         <v>0</v>
       </c>
@@ -12802,11 +12828,11 @@
         <f t="shared" si="1"/>
         <v>0.9347059650209073</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <f t="shared" si="1"/>
         <v>0.32239709443099263</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="42">
         <f t="shared" si="1"/>
         <v>-1.2555437469400428</v>
       </c>
@@ -12826,16 +12852,16 @@
         <f t="shared" si="1"/>
         <v>0.27040194884287461</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="43">
         <f>AVERAGE(G13:J13)</f>
         <v>0.34971832669035119</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
-      <c r="N13" s="118" t="s">
+      <c r="N13" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="O13" s="119"/>
+      <c r="O13" s="120"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
@@ -12843,54 +12869,54 @@
       <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="102" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="57">
         <f>B12/B10</f>
         <v>-0.27066695578896893</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="57">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>-0.27868412329376718</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="57">
         <f t="shared" si="2"/>
         <v>-0.33425538885207784</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="57">
         <f t="shared" si="2"/>
         <v>-0.32829054331824226</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="59">
         <f t="shared" si="2"/>
         <v>7.9025110782865587E-2</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="57">
         <f t="shared" si="2"/>
         <v>8.6144029170464903E-2</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="57">
         <f t="shared" si="2"/>
         <v>0.10381231671554252</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="57">
         <f t="shared" si="2"/>
         <v>0.15175600739371534</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="58">
         <f t="shared" si="2"/>
         <v>0.17526466140144514</v>
       </c>
-      <c r="K14" s="64"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
-      <c r="N14" s="98" t="s">
+      <c r="N14" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="O14" s="102">
+      <c r="O14" s="95">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -12899,47 +12925,47 @@
       <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="51">
         <v>-31320000</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="51">
         <v>-18956000</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="51">
         <v>-104240000</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="51">
         <v>-288789000</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="52">
         <v>594000000</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="51">
         <v>643000000</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="51">
         <v>819000000</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="51">
         <v>1187000000</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="53">
         <v>1477000000</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="54" t="s">
         <v>239</v>
       </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
-      <c r="N15" s="98" t="s">
+      <c r="N15" s="91" t="s">
         <v>241</v>
       </c>
-      <c r="O15" s="103" cm="1">
+      <c r="O15" s="96" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.3341000000000001</v>
+        <v>1.4418</v>
       </c>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -12948,7 +12974,7 @@
       <c r="T15" s="37"/>
     </row>
     <row r="16" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -12982,16 +13008,16 @@
         <f t="shared" si="3"/>
         <v>0.24431339511373218</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="43">
         <f>AVERAGE(G16:J16)</f>
         <v>0.26246259468056382</v>
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="98" t="s">
+      <c r="N16" s="91" t="s">
         <v>242</v>
       </c>
-      <c r="O16" s="102">
+      <c r="O16" s="95">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="37"/>
@@ -13001,54 +13027,54 @@
       <c r="T16" s="37"/>
     </row>
     <row r="17" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="102" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="57">
         <f>B15/B10</f>
         <v>-2.7607653984070068E-2</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="57">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>-1.0759597133801346E-2</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="57">
         <f t="shared" si="4"/>
         <v>-3.6680473453985257E-2</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="58">
         <f t="shared" si="4"/>
         <v>-7.5474326382966819E-2</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="57">
         <f t="shared" si="4"/>
         <v>0.14623338257016247</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="57">
         <f t="shared" si="4"/>
         <v>0.14653600729261623</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="57">
         <f t="shared" si="4"/>
         <v>0.16011730205278593</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="57">
         <f t="shared" si="4"/>
         <v>0.21940850277264326</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="58">
         <f t="shared" si="4"/>
         <v>0.24819358091077129</v>
       </c>
-      <c r="K17" s="64"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
-      <c r="N17" s="104" t="s">
+      <c r="N17" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="O17" s="105">
+      <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6792689000000015E-2</v>
+        <v>0.10224192200000001</v>
       </c>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -13057,33 +13083,33 @@
       <c r="T17" s="37"/>
     </row>
     <row r="18" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="47">
         <v>-5.6373938512005076E-2</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="47">
         <v>-4.0803540306321467E-2</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="47">
         <v>-5.5800696289794241E-2</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="47">
         <v>-6.5601608010936591E-2</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="109"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="118" t="s">
+      <c r="N18" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="O18" s="119"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
@@ -13104,10 +13130,10 @@
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
-      <c r="N19" s="98" t="s">
+      <c r="N19" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="O19" s="106">
+      <c r="O19" s="99">
         <f>O6+O7</f>
         <v>1202019000</v>
       </c>
@@ -13131,12 +13157,12 @@
       <c r="K20" s="40"/>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="98" t="s">
+      <c r="N20" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="O20" s="106" cm="1">
+      <c r="O20" s="99" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>10144335165</v>
+        <v>12086420000</v>
       </c>
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
@@ -13145,17 +13171,17 @@
       <c r="T20" s="37"/>
     </row>
     <row r="21" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="str" cm="1">
+      <c r="A21" s="122" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="120" cm="1">
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123" cm="1">
         <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2008</v>
       </c>
-      <c r="E21" s="121"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
@@ -13163,12 +13189,12 @@
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="M21" s="40"/>
-      <c r="N21" s="98" t="s">
+      <c r="N21" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="O21" s="106">
+      <c r="O21" s="99">
         <f>O19+O20</f>
-        <v>11346354165</v>
+        <v>13288439000</v>
       </c>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
@@ -13177,14 +13203,14 @@
       <c r="T21" s="37"/>
     </row>
     <row r="22" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="109" t="str" cm="1">
+      <c r="A22" s="110" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -13193,12 +13219,12 @@
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="100" t="s">
+      <c r="N22" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="O22" s="107">
+      <c r="O22" s="100">
         <f>(O19/O21)</f>
-        <v>0.10593878725448722</v>
+        <v>9.0455997126524787E-2</v>
       </c>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
@@ -13207,11 +13233,11 @@
       <c r="T22" s="37"/>
     </row>
     <row r="23" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -13220,12 +13246,12 @@
       <c r="K23" s="40"/>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
-      <c r="N23" s="104" t="s">
+      <c r="N23" s="97" t="s">
         <v>246</v>
       </c>
-      <c r="O23" s="108">
+      <c r="O23" s="101">
         <f>O20/O21</f>
-        <v>0.89406121274551276</v>
+        <v>0.90954400287347525</v>
       </c>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
@@ -13234,11 +13260,11 @@
       <c r="T23" s="37"/>
     </row>
     <row r="24" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -13247,10 +13273,10 @@
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="110" t="s">
+      <c r="N24" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="O24" s="111"/>
+      <c r="O24" s="112"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
@@ -13258,11 +13284,11 @@
       <c r="T24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -13271,11 +13297,11 @@
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="112">
+      <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.653858891223927E-2</v>
-      </c>
-      <c r="O25" s="113"/>
+        <v>9.2993526997357648E-2</v>
+      </c>
+      <c r="O25" s="114"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
@@ -13283,11 +13309,11 @@
       <c r="T25" s="37"/>
     </row>
     <row r="26" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="109"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -13305,11 +13331,11 @@
       <c r="T26" s="37"/>
     </row>
     <row r="27" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
@@ -13327,11 +13353,11 @@
       <c r="T27" s="37"/>
     </row>
     <row r="28" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="109"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -13349,11 +13375,11 @@
       <c r="T28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -13371,11 +13397,11 @@
       <c r="T29" s="37"/>
     </row>
     <row r="30" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="109"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
@@ -13393,11 +13419,11 @@
       <c r="T30" s="37"/>
     </row>
     <row r="31" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="109"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -13415,11 +13441,11 @@
       <c r="T31" s="37"/>
     </row>
     <row r="32" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="109"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
@@ -13437,11 +13463,11 @@
       <c r="T32" s="37"/>
     </row>
     <row r="33" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -13459,11 +13485,11 @@
       <c r="T33" s="37"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="109"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -13481,11 +13507,11 @@
       <c r="T34" s="37"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="109"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -14280,9 +14306,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A22:E32"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:E29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:TWLO/explorer/revenue_proj" xr:uid="{888C09F2-EC2E-D743-A61B-64C1A7FDBF7F}"/>

--- a/Technology/Software/Twilio.xlsx
+++ b/Technology/Software/Twilio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713B99F-F838-5743-9FBA-08BE29F1F731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B85FF-4BCA-304E-A87D-A05119EDE9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1642,6 +1642,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,9 +1676,6 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
@@ -1721,6 +1721,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1740,7 +1742,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1753,6 +1755,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1880,11 +1884,11 @@
     <v>Powered by Refinitiv</v>
     <v>79.7</v>
     <v>42.78</v>
-    <v>1.4418</v>
-    <v>2.08</v>
-    <v>3.2157999999999999E-2</v>
-    <v>7.0000000000000007E-2</v>
-    <v>1.049E-3</v>
+    <v>1.4398</v>
+    <v>1.82</v>
+    <v>2.6461000000000002E-2</v>
+    <v>0.22</v>
+    <v>3.1159999999999998E-3</v>
     <v>USD</v>
     <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
     <v>8156</v>
@@ -1892,24 +1896,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>101 SPEAR STREET, SUITE 500, SAN FRANCISCO, CA, 94105 US</v>
-    <v>66.77</v>
+    <v>70.67</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.881944444445</v>
+    <v>45269.039484582812</v>
     <v>0</v>
-    <v>64.099999999999994</v>
-    <v>12086420000</v>
+    <v>67.83</v>
+    <v>12781628739</v>
     <v>TWILIO INC.</v>
     <v>TWILIO INC.</v>
-    <v>64.5</v>
-    <v>64.680000000000007</v>
-    <v>66.760000000000005</v>
-    <v>66.83</v>
+    <v>68.069999999999993</v>
+    <v>68.78</v>
+    <v>70.599999999999994</v>
+    <v>70.83</v>
     <v>181042900</v>
     <v>TWLO</v>
     <v>TWILIO INC. (XNYS:TWLO)</v>
-    <v>2759009</v>
-    <v>3457585</v>
+    <v>5206700</v>
+    <v>3652622</v>
     <v>2008</v>
   </rv>
   <rv s="2">
@@ -2071,9 +2075,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -12270,7 +12274,7 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12278,48 +12282,48 @@
     <col min="1" max="20" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="e" vm="1">
+    <row r="1" spans="1:20" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:20" s="116" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+    </row>
+    <row r="2" spans="1:20" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
     </row>
     <row r="3" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="60" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>12086420000</v>
+        <v>12781628739</v>
       </c>
       <c r="B3" s="61" t="s">
         <v>198</v>
@@ -12339,15 +12343,15 @@
         <v>200</v>
       </c>
       <c r="G3" s="64">
-        <f>AVERAGE(Financials!K129:P129)</f>
-        <v>1.2985596636387875E-3</v>
+        <f>AVERAGE(Financials!J129:P129)</f>
+        <v>1.5412001969984126E-2</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>201</v>
       </c>
       <c r="I3" s="65">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>22265722442.35593</v>
+        <v>21947039461.674854</v>
       </c>
       <c r="J3" s="66" t="s">
         <v>202</v>
@@ -12360,10 +12364,10 @@
         <v>203</v>
       </c>
       <c r="M3" s="37"/>
-      <c r="N3" s="117" t="s">
+      <c r="N3" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="O3" s="118"/>
+      <c r="O3" s="119"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
@@ -12394,30 +12398,30 @@
       </c>
       <c r="G4" s="72">
         <f>A5*(1+(5*G3))</f>
-        <v>182218375.03664094</v>
+        <v>194994067.65725818</v>
       </c>
       <c r="H4" s="71" t="s">
         <v>208</v>
       </c>
       <c r="I4" s="73">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>17761642015.909805</v>
+        <v>17483544613.179424</v>
       </c>
       <c r="J4" s="71" t="s">
         <v>209</v>
       </c>
       <c r="K4" s="74" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.2157999999999999E-2</v>
+        <v>2.6461000000000002E-2</v>
       </c>
       <c r="L4" s="75" t="s">
         <v>210</v>
       </c>
       <c r="M4" s="37"/>
-      <c r="N4" s="119" t="s">
+      <c r="N4" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="O4" s="120"/>
+      <c r="O4" s="121"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37"/>
@@ -12455,14 +12459,14 @@
       </c>
       <c r="I5" s="73">
         <f>I4+G5-G6</f>
-        <v>20243591015.909805</v>
+        <v>19965493613.179424</v>
       </c>
       <c r="J5" s="71" t="s">
         <v>216</v>
       </c>
       <c r="K5" s="76" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>66.760000000000005</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="L5" s="77" t="s">
         <v>217</v>
@@ -12484,7 +12488,7 @@
     <row r="6" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="78">
         <f>O20/F10</f>
-        <v>2.9754849827671097</v>
+        <v>3.1466343522895124</v>
       </c>
       <c r="B6" s="70" t="s">
         <v>219</v>
@@ -12512,14 +12516,14 @@
       </c>
       <c r="I6" s="74">
         <f>N25</f>
-        <v>9.2993526997357648E-2</v>
+        <v>9.398083008615811E-2</v>
       </c>
       <c r="J6" s="71" t="s">
         <v>222</v>
       </c>
       <c r="K6" s="79">
         <f>I5/G4</f>
-        <v>111.09522303576229</v>
+        <v>102.39026167848782</v>
       </c>
       <c r="L6" s="80" t="s">
         <v>223</v>
@@ -12541,14 +12545,14 @@
     <row r="7" spans="1:20" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
         <f>O20/F12</f>
-        <v>37.652398753894083</v>
+        <v>39.818158065420562</v>
       </c>
       <c r="B7" s="82" t="s">
         <v>225</v>
       </c>
       <c r="C7" s="83">
         <f>F15/A3</f>
-        <v>4.9146066411724892E-2</v>
+        <v>4.6472950523711809E-2</v>
       </c>
       <c r="D7" s="82" t="s">
         <v>226</v>
@@ -12575,7 +12579,7 @@
       </c>
       <c r="K7" s="89">
         <f>K6/K5-1</f>
-        <v>0.66409860748595384</v>
+        <v>0.45028699261314209</v>
       </c>
       <c r="L7" s="90" t="s">
         <v>229</v>
@@ -12858,10 +12862,10 @@
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
-      <c r="N13" s="119" t="s">
+      <c r="N13" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="O13" s="120"/>
+      <c r="O13" s="121"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
@@ -12916,7 +12920,7 @@
       </c>
       <c r="O14" s="95">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -12965,7 +12969,7 @@
       </c>
       <c r="O15" s="96" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.4418</v>
+        <v>1.4398</v>
       </c>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -13074,7 +13078,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10224192200000001</v>
+        <v>0.102819042</v>
       </c>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -13106,10 +13110,10 @@
       <c r="K18" s="109"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="119" t="s">
+      <c r="N18" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="O18" s="120"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
@@ -13162,7 +13166,7 @@
       </c>
       <c r="O20" s="99" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>12086420000</v>
+        <v>12781628739</v>
       </c>
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
@@ -13194,7 +13198,7 @@
       </c>
       <c r="O21" s="99">
         <f>O19+O20</f>
-        <v>13288439000</v>
+        <v>13983647739</v>
       </c>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
@@ -13203,14 +13207,14 @@
       <c r="T21" s="37"/>
     </row>
     <row r="22" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110" t="str" cm="1">
+      <c r="A22" s="111" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Twilio Inc. offers cloud communications platform, which enables developers to build, scale, and deploy real-time communications within software applications. The Company provides customer engagement platform (CEP), which comprises a suite of flexible software and communications solutions that allow businesses to deliver trusted and engaging customer experiences at scale. Its application programming interfaces (APIs) and software products include Twilio Flex and Twilio Engage. It operates through two business units: Twilio Communications and Twilio Data &amp; Applications. Its communications solutions consist of customizable APIs and products that can be used individually or in combination to build contextual communications within applications. Its communication products include Twilio Programmable Messaging (MessagingX), Twilio Programmable Voice, Twilio SendGrid Email API and Twilio Verify. Its data and applications products include Twilio Segment, Twilio Engage and Twilio Flex.</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -13224,7 +13228,7 @@
       </c>
       <c r="O22" s="100">
         <f>(O19/O21)</f>
-        <v>9.0455997126524787E-2</v>
+        <v>8.5958901599587842E-2</v>
       </c>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
@@ -13233,11 +13237,11 @@
       <c r="T22" s="37"/>
     </row>
     <row r="23" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -13251,7 +13255,7 @@
       </c>
       <c r="O23" s="101">
         <f>O20/O21</f>
-        <v>0.90954400287347525</v>
+        <v>0.91404109840041214</v>
       </c>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
@@ -13260,11 +13264,11 @@
       <c r="T23" s="37"/>
     </row>
     <row r="24" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -13273,10 +13277,10 @@
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="111" t="s">
+      <c r="N24" s="112" t="s">
         <v>247</v>
       </c>
-      <c r="O24" s="112"/>
+      <c r="O24" s="113"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
@@ -13284,11 +13288,11 @@
       <c r="T24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -13297,11 +13301,11 @@
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="113">
+      <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.2993526997357648E-2</v>
-      </c>
-      <c r="O25" s="114"/>
+        <v>9.398083008615811E-2</v>
+      </c>
+      <c r="O25" s="115"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
@@ -13309,11 +13313,11 @@
       <c r="T25" s="37"/>
     </row>
     <row r="26" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -13331,11 +13335,11 @@
       <c r="T26" s="37"/>
     </row>
     <row r="27" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="110"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
@@ -13353,11 +13357,11 @@
       <c r="T27" s="37"/>
     </row>
     <row r="28" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="110"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -13375,11 +13379,11 @@
       <c r="T28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="110"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -13397,11 +13401,11 @@
       <c r="T29" s="37"/>
     </row>
     <row r="30" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="121"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
@@ -13419,11 +13423,11 @@
       <c r="T30" s="37"/>
     </row>
     <row r="31" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="121"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -13441,11 +13445,11 @@
       <c r="T31" s="37"/>
     </row>
     <row r="32" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="121"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
@@ -13463,11 +13467,11 @@
       <c r="T32" s="37"/>
     </row>
     <row r="33" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="110"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -13485,11 +13489,11 @@
       <c r="T33" s="37"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="110"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -13507,11 +13511,11 @@
       <c r="T34" s="37"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="110"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
